--- a/docs/specs/UserPage_Tai lieu phan tich.xlsx
+++ b/docs/specs/UserPage_Tai lieu phan tich.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Template Source\VUE\vue-mocha\docs\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B95BCE5-F672-4B90-B9DA-FA78B8EF88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF3A8E0-D553-4F65-891B-8BF4E4508A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserForm_Component" sheetId="2" r:id="rId1"/>
-    <sheet name="UserPage" sheetId="7" r:id="rId2"/>
-    <sheet name="Dto" sheetId="11" r:id="rId3"/>
+    <sheet name="Output mong muốn" sheetId="12" r:id="rId1"/>
+    <sheet name="UserForm_Component" sheetId="2" r:id="rId2"/>
+    <sheet name="UserPage" sheetId="7" r:id="rId3"/>
+    <sheet name="Dto" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="312">
   <si>
     <t>【画面遷移時にもらうパラメーター_Parameter sẽ nhận khi di chuyển màn hình】</t>
   </si>
@@ -1235,12 +1236,117 @@
   <si>
     <t>- Button (6) khi click trở về mode view, cancel mọi xly hiện tại</t>
   </si>
+  <si>
+    <t>1. Overview</t>
+  </si>
+  <si>
+    <t>- Project sửa dụng lib primevue, primeflex =&gt; Tận dụng sử dụng hết của lib</t>
+  </si>
+  <si>
+    <t>- Cấu trúc source có sẵn, làm theo cấu trúc đó, cái gì common cần tách ra tái sử dụng code</t>
+  </si>
+  <si>
+    <t>- Vscode cài các extensions sau để support: eslint, prettier, sonarlint</t>
+  </si>
+  <si>
+    <t>2. Yêu cầu</t>
+  </si>
+  <si>
+    <t>2.1. Coding</t>
+  </si>
+  <si>
+    <t>- Code rõ ràng tường minh, đặt tên biến, func rõ ràng đúng ý nghĩa</t>
+  </si>
+  <si>
+    <t>- Hạn chế tối đa sử dụng any/unknow. Khai báo rõ ràng kiểu dữ liệu.</t>
+  </si>
+  <si>
+    <t>- Format code khi code không được để warning</t>
+  </si>
+  <si>
+    <t>- Code phải đúng spec yêu cầu.</t>
+  </si>
+  <si>
+    <t>- Bắt buộc coverage phải &gt;= 80%</t>
+  </si>
+  <si>
+    <t>- Khi chạy có warning phải fix hết</t>
+  </si>
+  <si>
+    <t>2.3. File testcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Sau khi code xong tạo file testcase và viết UT cho file testcase đó </t>
+  </si>
+  <si>
+    <t>2.2. Unit test (UT)</t>
+  </si>
+  <si>
+    <t>- Các case viết UT pass phải đánh status = 1, nếu để = 0 thì note lý do vì sao.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- File testcase tham khảo ở </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docs/testcase/components/UserForm</t>
+    </r>
+  </si>
+  <si>
+    <t>- API sẽ dùng mockapi.io để làm, gắn url api vào file .env</t>
+  </si>
+  <si>
+    <t>- Tạo model cho api thì dựa vào dto được tạo sẵn ở project</t>
+  </si>
+  <si>
+    <t>- Code xong phải tối ưu code, comment code rõ ràng.</t>
+  </si>
+  <si>
+    <t>2.4. Tạo PR</t>
+  </si>
+  <si>
+    <t>- Trước khi tạo PR phải đánh checklist (nếu review thấy chưa đánh sẽ reject luôn)</t>
+  </si>
+  <si>
+    <t>- Commit thì theo đúng nội dung làm, không commit kiểu chung chung như update code, add code,…</t>
+  </si>
+  <si>
+    <t>EX: [UserForm] Code UserForm component (UT + CD)</t>
+  </si>
+  <si>
+    <r>
+      <t>- Tạo title PR theo rule:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [task name] Nội dung task</t>
+    </r>
+  </si>
+  <si>
+    <t>- Description của PR phải chụp evidence của UT, layout, và kết quả của run lint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1435,6 +1541,39 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1695,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,102 +1999,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2044,6 +2087,121 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2501,13 +2659,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD7BFB6-9289-444C-900F-42A1430149A2}">
+  <dimension ref="A2:X27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:24" ht="29.25" customHeight="1">
+      <c r="A2" s="156" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="152" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="152" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="152" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="28.5" customHeight="1">
+      <c r="A10" s="156" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="83"/>
+    </row>
+    <row r="12" spans="1:24" ht="26.25" customHeight="1">
+      <c r="B12" s="155" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="83"/>
+      <c r="O12" s="155" t="s">
+        <v>300</v>
+      </c>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="O13" s="152" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" s="154" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B20" s="155" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="160"/>
+      <c r="O20" s="155" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75">
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="152" t="s">
+        <v>302</v>
+      </c>
+      <c r="O22" s="152" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="152" t="s">
+        <v>299</v>
+      </c>
+      <c r="O23" s="152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="152" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="Q25" s="157" t="s">
+        <v>309</v>
+      </c>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+    </row>
+    <row r="27" spans="2:24" ht="17.25" customHeight="1">
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="O27" s="152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AC1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3321,7 +3680,7 @@
       <c r="A26" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="6"/>
@@ -3331,7 +3690,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="112" t="s">
+      <c r="H26" s="76" t="s">
         <v>240</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -3492,11 +3851,11 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3526,16 +3885,16 @@
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="142" t="s">
+      <c r="D32" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="142" t="s">
+      <c r="E32" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="142" t="s">
+      <c r="F32" s="106" t="s">
         <v>235</v>
       </c>
       <c r="G32" s="6"/>
@@ -3565,16 +3924,16 @@
     <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="140">
+      <c r="C33" s="104">
         <v>1</v>
       </c>
-      <c r="D33" s="141" t="s">
+      <c r="D33" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="E33" s="141" t="s">
+      <c r="E33" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="144" t="s">
+      <c r="F33" s="108" t="s">
         <v>243</v>
       </c>
       <c r="G33" s="6"/>
@@ -3604,16 +3963,16 @@
     <row r="34" spans="1:29" ht="33" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="140">
+      <c r="C34" s="104">
         <v>2</v>
       </c>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="141" t="s">
+      <c r="E34" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="144" t="s">
+      <c r="F34" s="108" t="s">
         <v>243</v>
       </c>
       <c r="G34" s="6"/>
@@ -3643,16 +4002,16 @@
     <row r="35" spans="1:29" ht="50.25" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="140">
+      <c r="C35" s="104">
         <v>3</v>
       </c>
-      <c r="D35" s="141" t="s">
+      <c r="D35" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="141" t="s">
+      <c r="E35" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="F35" s="144" t="s">
+      <c r="F35" s="108" t="s">
         <v>242</v>
       </c>
       <c r="G35" s="6"/>
@@ -3682,16 +4041,16 @@
     <row r="36" spans="1:29" ht="30" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="140">
+      <c r="C36" s="104">
         <v>4</v>
       </c>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="141" t="s">
+      <c r="E36" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="144" t="s">
+      <c r="F36" s="108" t="s">
         <v>243</v>
       </c>
       <c r="G36" s="6"/>
@@ -3721,16 +4080,16 @@
     <row r="37" spans="1:29" ht="31.5" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="140">
+      <c r="C37" s="104">
         <v>5</v>
       </c>
-      <c r="D37" s="141" t="s">
+      <c r="D37" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="141" t="s">
+      <c r="E37" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="144" t="s">
+      <c r="F37" s="108" t="s">
         <v>243</v>
       </c>
       <c r="G37" s="6"/>
@@ -3790,11 +4149,11 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3855,7 +4214,7 @@
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="101" t="s">
         <v>230</v>
       </c>
       <c r="D41" s="5"/>
@@ -3888,7 +4247,7 @@
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="103" t="s">
         <v>231</v>
       </c>
       <c r="D42" s="5"/>
@@ -3921,7 +4280,7 @@
     <row r="43" spans="1:29" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="139" t="s">
+      <c r="C43" s="103" t="s">
         <v>232</v>
       </c>
       <c r="D43" s="5"/>
@@ -7085,33 +7444,33 @@
       <c r="AC144" s="5"/>
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A145" s="90"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="77"/>
-      <c r="I145" s="77"/>
-      <c r="J145" s="77"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="77"/>
-      <c r="M145" s="77"/>
-      <c r="N145" s="77"/>
-      <c r="O145" s="77"/>
-      <c r="P145" s="77"/>
-      <c r="Q145" s="77"/>
-      <c r="R145" s="77"/>
-      <c r="S145" s="77"/>
-      <c r="T145" s="77"/>
-      <c r="U145" s="77"/>
-      <c r="V145" s="77"/>
-      <c r="W145" s="77"/>
-      <c r="X145" s="77"/>
-      <c r="Y145" s="77"/>
-      <c r="Z145" s="77"/>
-      <c r="AA145" s="78"/>
+      <c r="A145" s="116"/>
+      <c r="B145" s="117"/>
+      <c r="C145" s="117"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="117"/>
+      <c r="F145" s="117"/>
+      <c r="G145" s="117"/>
+      <c r="H145" s="117"/>
+      <c r="I145" s="117"/>
+      <c r="J145" s="117"/>
+      <c r="K145" s="117"/>
+      <c r="L145" s="117"/>
+      <c r="M145" s="117"/>
+      <c r="N145" s="117"/>
+      <c r="O145" s="117"/>
+      <c r="P145" s="117"/>
+      <c r="Q145" s="117"/>
+      <c r="R145" s="117"/>
+      <c r="S145" s="117"/>
+      <c r="T145" s="117"/>
+      <c r="U145" s="117"/>
+      <c r="V145" s="117"/>
+      <c r="W145" s="117"/>
+      <c r="X145" s="117"/>
+      <c r="Y145" s="117"/>
+      <c r="Z145" s="117"/>
+      <c r="AA145" s="118"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
     </row>
@@ -7148,20 +7507,20 @@
     </row>
     <row r="147" spans="1:29" ht="48" customHeight="1">
       <c r="A147" s="7"/>
-      <c r="B147" s="108"/>
-      <c r="C147" s="79"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="79"/>
-      <c r="H147" s="80"/>
-      <c r="I147" s="108"/>
-      <c r="J147" s="79"/>
-      <c r="K147" s="79"/>
-      <c r="L147" s="79"/>
-      <c r="M147" s="79"/>
-      <c r="N147" s="79"/>
-      <c r="O147" s="80"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="120"/>
+      <c r="D147" s="120"/>
+      <c r="E147" s="120"/>
+      <c r="F147" s="120"/>
+      <c r="G147" s="120"/>
+      <c r="H147" s="121"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="120"/>
+      <c r="K147" s="120"/>
+      <c r="L147" s="120"/>
+      <c r="M147" s="120"/>
+      <c r="N147" s="120"/>
+      <c r="O147" s="121"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
@@ -7179,20 +7538,20 @@
     </row>
     <row r="148" spans="1:29" ht="30" customHeight="1">
       <c r="A148" s="8"/>
-      <c r="B148" s="100"/>
-      <c r="C148" s="79"/>
-      <c r="D148" s="79"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="79"/>
-      <c r="G148" s="79"/>
-      <c r="H148" s="80"/>
-      <c r="I148" s="107"/>
-      <c r="J148" s="79"/>
-      <c r="K148" s="79"/>
-      <c r="L148" s="79"/>
-      <c r="M148" s="79"/>
-      <c r="N148" s="79"/>
-      <c r="O148" s="80"/>
+      <c r="B148" s="122"/>
+      <c r="C148" s="120"/>
+      <c r="D148" s="120"/>
+      <c r="E148" s="120"/>
+      <c r="F148" s="120"/>
+      <c r="G148" s="120"/>
+      <c r="H148" s="121"/>
+      <c r="I148" s="123"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="120"/>
+      <c r="L148" s="120"/>
+      <c r="M148" s="120"/>
+      <c r="N148" s="120"/>
+      <c r="O148" s="121"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
@@ -7210,20 +7569,20 @@
     </row>
     <row r="149" spans="1:29" ht="49.5" customHeight="1">
       <c r="A149" s="8"/>
-      <c r="B149" s="100"/>
-      <c r="C149" s="79"/>
-      <c r="D149" s="79"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="79"/>
-      <c r="H149" s="80"/>
-      <c r="I149" s="107"/>
-      <c r="J149" s="79"/>
-      <c r="K149" s="79"/>
-      <c r="L149" s="79"/>
-      <c r="M149" s="79"/>
-      <c r="N149" s="79"/>
-      <c r="O149" s="80"/>
+      <c r="B149" s="122"/>
+      <c r="C149" s="120"/>
+      <c r="D149" s="120"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="120"/>
+      <c r="G149" s="120"/>
+      <c r="H149" s="121"/>
+      <c r="I149" s="123"/>
+      <c r="J149" s="120"/>
+      <c r="K149" s="120"/>
+      <c r="L149" s="120"/>
+      <c r="M149" s="120"/>
+      <c r="N149" s="120"/>
+      <c r="O149" s="121"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
@@ -7241,20 +7600,20 @@
     </row>
     <row r="150" spans="1:29" ht="49.5" customHeight="1">
       <c r="A150" s="8"/>
-      <c r="B150" s="100"/>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="100"/>
-      <c r="J150" s="79"/>
-      <c r="K150" s="79"/>
-      <c r="L150" s="79"/>
-      <c r="M150" s="79"/>
-      <c r="N150" s="79"/>
-      <c r="O150" s="80"/>
+      <c r="B150" s="122"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="120"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="120"/>
+      <c r="G150" s="120"/>
+      <c r="H150" s="121"/>
+      <c r="I150" s="122"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="120"/>
+      <c r="M150" s="120"/>
+      <c r="N150" s="120"/>
+      <c r="O150" s="121"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -7272,20 +7631,20 @@
     </row>
     <row r="151" spans="1:29" ht="49.5" customHeight="1">
       <c r="A151" s="8"/>
-      <c r="B151" s="100"/>
-      <c r="C151" s="79"/>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="79"/>
-      <c r="H151" s="80"/>
-      <c r="I151" s="107"/>
-      <c r="J151" s="79"/>
-      <c r="K151" s="79"/>
-      <c r="L151" s="79"/>
-      <c r="M151" s="79"/>
-      <c r="N151" s="79"/>
-      <c r="O151" s="80"/>
+      <c r="B151" s="122"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="120"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="120"/>
+      <c r="G151" s="120"/>
+      <c r="H151" s="121"/>
+      <c r="I151" s="123"/>
+      <c r="J151" s="120"/>
+      <c r="K151" s="120"/>
+      <c r="L151" s="120"/>
+      <c r="M151" s="120"/>
+      <c r="N151" s="120"/>
+      <c r="O151" s="121"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
@@ -7333,33 +7692,33 @@
       <c r="AC152" s="5"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A153" s="90"/>
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="77"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="77"/>
-      <c r="I153" s="77"/>
-      <c r="J153" s="77"/>
-      <c r="K153" s="77"/>
-      <c r="L153" s="77"/>
-      <c r="M153" s="77"/>
-      <c r="N153" s="77"/>
-      <c r="O153" s="77"/>
-      <c r="P153" s="77"/>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="77"/>
-      <c r="S153" s="77"/>
-      <c r="T153" s="77"/>
-      <c r="U153" s="77"/>
-      <c r="V153" s="77"/>
-      <c r="W153" s="77"/>
-      <c r="X153" s="77"/>
-      <c r="Y153" s="77"/>
-      <c r="Z153" s="77"/>
-      <c r="AA153" s="78"/>
+      <c r="A153" s="116"/>
+      <c r="B153" s="117"/>
+      <c r="C153" s="117"/>
+      <c r="D153" s="117"/>
+      <c r="E153" s="117"/>
+      <c r="F153" s="117"/>
+      <c r="G153" s="117"/>
+      <c r="H153" s="117"/>
+      <c r="I153" s="117"/>
+      <c r="J153" s="117"/>
+      <c r="K153" s="117"/>
+      <c r="L153" s="117"/>
+      <c r="M153" s="117"/>
+      <c r="N153" s="117"/>
+      <c r="O153" s="117"/>
+      <c r="P153" s="117"/>
+      <c r="Q153" s="117"/>
+      <c r="R153" s="117"/>
+      <c r="S153" s="117"/>
+      <c r="T153" s="117"/>
+      <c r="U153" s="117"/>
+      <c r="V153" s="117"/>
+      <c r="W153" s="117"/>
+      <c r="X153" s="117"/>
+      <c r="Y153" s="117"/>
+      <c r="Z153" s="117"/>
+      <c r="AA153" s="118"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
     </row>
@@ -7395,20 +7754,20 @@
       <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A155" s="92"/>
-      <c r="B155" s="76"/>
-      <c r="C155" s="76"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="76"/>
-      <c r="I155" s="76"/>
-      <c r="J155" s="76"/>
-      <c r="K155" s="76"/>
-      <c r="L155" s="76"/>
-      <c r="M155" s="76"/>
-      <c r="N155" s="76"/>
+      <c r="A155" s="126"/>
+      <c r="B155" s="127"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="127"/>
+      <c r="I155" s="127"/>
+      <c r="J155" s="127"/>
+      <c r="K155" s="127"/>
+      <c r="L155" s="127"/>
+      <c r="M155" s="127"/>
+      <c r="N155" s="127"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
@@ -7427,18 +7786,18 @@
     </row>
     <row r="156" spans="1:29" ht="33" customHeight="1">
       <c r="A156" s="10"/>
-      <c r="B156" s="108"/>
-      <c r="C156" s="79"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="80"/>
-      <c r="F156" s="108"/>
-      <c r="G156" s="80"/>
-      <c r="H156" s="108"/>
-      <c r="I156" s="79"/>
-      <c r="J156" s="79"/>
-      <c r="K156" s="79"/>
-      <c r="L156" s="79"/>
-      <c r="M156" s="80"/>
+      <c r="B156" s="119"/>
+      <c r="C156" s="120"/>
+      <c r="D156" s="120"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="119"/>
+      <c r="G156" s="121"/>
+      <c r="H156" s="119"/>
+      <c r="I156" s="120"/>
+      <c r="J156" s="120"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="121"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
@@ -7458,18 +7817,18 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
-      <c r="B157" s="107"/>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="80"/>
-      <c r="F157" s="101"/>
-      <c r="G157" s="80"/>
-      <c r="H157" s="107"/>
-      <c r="I157" s="79"/>
-      <c r="J157" s="79"/>
-      <c r="K157" s="79"/>
-      <c r="L157" s="79"/>
-      <c r="M157" s="80"/>
+      <c r="B157" s="123"/>
+      <c r="C157" s="120"/>
+      <c r="D157" s="120"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="124"/>
+      <c r="G157" s="121"/>
+      <c r="H157" s="123"/>
+      <c r="I157" s="120"/>
+      <c r="J157" s="120"/>
+      <c r="K157" s="120"/>
+      <c r="L157" s="120"/>
+      <c r="M157" s="121"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
@@ -7489,18 +7848,18 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
-      <c r="B158" s="107"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="80"/>
-      <c r="F158" s="101"/>
-      <c r="G158" s="80"/>
-      <c r="H158" s="107"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="80"/>
+      <c r="B158" s="123"/>
+      <c r="C158" s="120"/>
+      <c r="D158" s="120"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="124"/>
+      <c r="G158" s="121"/>
+      <c r="H158" s="123"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="121"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -7520,18 +7879,18 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
-      <c r="B159" s="107"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="80"/>
-      <c r="F159" s="101"/>
-      <c r="G159" s="80"/>
-      <c r="H159" s="107"/>
-      <c r="I159" s="79"/>
-      <c r="J159" s="79"/>
-      <c r="K159" s="79"/>
-      <c r="L159" s="79"/>
-      <c r="M159" s="80"/>
+      <c r="B159" s="123"/>
+      <c r="C159" s="120"/>
+      <c r="D159" s="120"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="124"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="123"/>
+      <c r="I159" s="120"/>
+      <c r="J159" s="120"/>
+      <c r="K159" s="120"/>
+      <c r="L159" s="120"/>
+      <c r="M159" s="121"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -7551,18 +7910,18 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
-      <c r="B160" s="107"/>
-      <c r="C160" s="79"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="80"/>
-      <c r="F160" s="101"/>
-      <c r="G160" s="80"/>
-      <c r="H160" s="107"/>
-      <c r="I160" s="79"/>
-      <c r="J160" s="79"/>
-      <c r="K160" s="79"/>
-      <c r="L160" s="79"/>
-      <c r="M160" s="80"/>
+      <c r="B160" s="123"/>
+      <c r="C160" s="120"/>
+      <c r="D160" s="120"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="124"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="123"/>
+      <c r="I160" s="120"/>
+      <c r="J160" s="120"/>
+      <c r="K160" s="120"/>
+      <c r="L160" s="120"/>
+      <c r="M160" s="121"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -7582,18 +7941,18 @@
     </row>
     <row r="161" spans="1:29" ht="39" customHeight="1">
       <c r="A161" s="8"/>
-      <c r="B161" s="107"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="80"/>
-      <c r="F161" s="110"/>
-      <c r="G161" s="80"/>
-      <c r="H161" s="107"/>
-      <c r="I161" s="79"/>
-      <c r="J161" s="79"/>
-      <c r="K161" s="79"/>
-      <c r="L161" s="79"/>
-      <c r="M161" s="80"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="120"/>
+      <c r="D161" s="120"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="125"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="123"/>
+      <c r="I161" s="120"/>
+      <c r="J161" s="120"/>
+      <c r="K161" s="120"/>
+      <c r="L161" s="120"/>
+      <c r="M161" s="121"/>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
@@ -7613,18 +7972,18 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
-      <c r="B162" s="107"/>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="80"/>
-      <c r="F162" s="101"/>
-      <c r="G162" s="80"/>
-      <c r="H162" s="107"/>
-      <c r="I162" s="79"/>
-      <c r="J162" s="79"/>
-      <c r="K162" s="79"/>
-      <c r="L162" s="79"/>
-      <c r="M162" s="80"/>
+      <c r="B162" s="123"/>
+      <c r="C162" s="120"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="124"/>
+      <c r="G162" s="121"/>
+      <c r="H162" s="123"/>
+      <c r="I162" s="120"/>
+      <c r="J162" s="120"/>
+      <c r="K162" s="120"/>
+      <c r="L162" s="120"/>
+      <c r="M162" s="121"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
@@ -7644,18 +8003,18 @@
     </row>
     <row r="163" spans="1:29" ht="37.5" customHeight="1">
       <c r="A163" s="8"/>
-      <c r="B163" s="107"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="110"/>
-      <c r="G163" s="80"/>
-      <c r="H163" s="107"/>
-      <c r="I163" s="79"/>
-      <c r="J163" s="79"/>
-      <c r="K163" s="79"/>
-      <c r="L163" s="79"/>
-      <c r="M163" s="80"/>
+      <c r="B163" s="123"/>
+      <c r="C163" s="120"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="125"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="123"/>
+      <c r="I163" s="120"/>
+      <c r="J163" s="120"/>
+      <c r="K163" s="120"/>
+      <c r="L163" s="120"/>
+      <c r="M163" s="121"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
@@ -7675,18 +8034,18 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
-      <c r="B164" s="107"/>
-      <c r="C164" s="79"/>
-      <c r="D164" s="79"/>
-      <c r="E164" s="80"/>
-      <c r="F164" s="101"/>
-      <c r="G164" s="80"/>
-      <c r="H164" s="107"/>
-      <c r="I164" s="79"/>
-      <c r="J164" s="79"/>
-      <c r="K164" s="79"/>
-      <c r="L164" s="79"/>
-      <c r="M164" s="80"/>
+      <c r="B164" s="123"/>
+      <c r="C164" s="120"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="124"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="123"/>
+      <c r="I164" s="120"/>
+      <c r="J164" s="120"/>
+      <c r="K164" s="120"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="121"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
@@ -7706,18 +8065,18 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
-      <c r="B165" s="107"/>
-      <c r="C165" s="79"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="80"/>
-      <c r="F165" s="101"/>
-      <c r="G165" s="80"/>
-      <c r="H165" s="107"/>
-      <c r="I165" s="79"/>
-      <c r="J165" s="79"/>
-      <c r="K165" s="79"/>
-      <c r="L165" s="79"/>
-      <c r="M165" s="80"/>
+      <c r="B165" s="123"/>
+      <c r="C165" s="120"/>
+      <c r="D165" s="120"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="124"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="123"/>
+      <c r="I165" s="120"/>
+      <c r="J165" s="120"/>
+      <c r="K165" s="120"/>
+      <c r="L165" s="120"/>
+      <c r="M165" s="121"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
@@ -7737,18 +8096,18 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
-      <c r="B166" s="107"/>
-      <c r="C166" s="79"/>
-      <c r="D166" s="79"/>
-      <c r="E166" s="80"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="80"/>
-      <c r="H166" s="107"/>
-      <c r="I166" s="79"/>
-      <c r="J166" s="79"/>
-      <c r="K166" s="79"/>
-      <c r="L166" s="79"/>
-      <c r="M166" s="80"/>
+      <c r="B166" s="123"/>
+      <c r="C166" s="120"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="124"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="123"/>
+      <c r="I166" s="120"/>
+      <c r="J166" s="120"/>
+      <c r="K166" s="120"/>
+      <c r="L166" s="120"/>
+      <c r="M166" s="121"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
@@ -7798,33 +8157,33 @@
       <c r="AC167" s="5"/>
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A168" s="90"/>
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="77"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="77"/>
-      <c r="H168" s="77"/>
-      <c r="I168" s="77"/>
-      <c r="J168" s="77"/>
-      <c r="K168" s="77"/>
-      <c r="L168" s="77"/>
-      <c r="M168" s="77"/>
-      <c r="N168" s="77"/>
-      <c r="O168" s="77"/>
-      <c r="P168" s="77"/>
-      <c r="Q168" s="77"/>
-      <c r="R168" s="77"/>
-      <c r="S168" s="77"/>
-      <c r="T168" s="77"/>
-      <c r="U168" s="77"/>
-      <c r="V168" s="77"/>
-      <c r="W168" s="77"/>
-      <c r="X168" s="77"/>
-      <c r="Y168" s="77"/>
-      <c r="Z168" s="77"/>
-      <c r="AA168" s="78"/>
+      <c r="A168" s="116"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
+      <c r="F168" s="117"/>
+      <c r="G168" s="117"/>
+      <c r="H168" s="117"/>
+      <c r="I168" s="117"/>
+      <c r="J168" s="117"/>
+      <c r="K168" s="117"/>
+      <c r="L168" s="117"/>
+      <c r="M168" s="117"/>
+      <c r="N168" s="117"/>
+      <c r="O168" s="117"/>
+      <c r="P168" s="117"/>
+      <c r="Q168" s="117"/>
+      <c r="R168" s="117"/>
+      <c r="S168" s="117"/>
+      <c r="T168" s="117"/>
+      <c r="U168" s="117"/>
+      <c r="V168" s="117"/>
+      <c r="W168" s="117"/>
+      <c r="X168" s="117"/>
+      <c r="Y168" s="117"/>
+      <c r="Z168" s="117"/>
+      <c r="AA168" s="118"/>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
     </row>
@@ -7860,24 +8219,24 @@
       <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A170" s="108"/>
-      <c r="B170" s="79"/>
-      <c r="C170" s="79"/>
-      <c r="D170" s="80"/>
-      <c r="E170" s="108"/>
-      <c r="F170" s="80"/>
-      <c r="G170" s="109"/>
-      <c r="H170" s="79"/>
-      <c r="I170" s="79"/>
-      <c r="J170" s="79"/>
-      <c r="K170" s="79"/>
-      <c r="L170" s="79"/>
-      <c r="M170" s="79"/>
-      <c r="N170" s="79"/>
-      <c r="O170" s="79"/>
-      <c r="P170" s="79"/>
-      <c r="Q170" s="79"/>
-      <c r="R170" s="80"/>
+      <c r="A170" s="119"/>
+      <c r="B170" s="120"/>
+      <c r="C170" s="120"/>
+      <c r="D170" s="121"/>
+      <c r="E170" s="119"/>
+      <c r="F170" s="121"/>
+      <c r="G170" s="128"/>
+      <c r="H170" s="120"/>
+      <c r="I170" s="120"/>
+      <c r="J170" s="120"/>
+      <c r="K170" s="120"/>
+      <c r="L170" s="120"/>
+      <c r="M170" s="120"/>
+      <c r="N170" s="120"/>
+      <c r="O170" s="120"/>
+      <c r="P170" s="120"/>
+      <c r="Q170" s="120"/>
+      <c r="R170" s="121"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
@@ -7891,24 +8250,24 @@
       <c r="AC170" s="5"/>
     </row>
     <row r="171" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A171" s="97"/>
-      <c r="B171" s="79"/>
-      <c r="C171" s="79"/>
-      <c r="D171" s="80"/>
-      <c r="E171" s="98"/>
-      <c r="F171" s="80"/>
-      <c r="G171" s="97"/>
-      <c r="H171" s="79"/>
-      <c r="I171" s="79"/>
-      <c r="J171" s="79"/>
-      <c r="K171" s="79"/>
-      <c r="L171" s="79"/>
-      <c r="M171" s="79"/>
-      <c r="N171" s="79"/>
-      <c r="O171" s="79"/>
-      <c r="P171" s="79"/>
-      <c r="Q171" s="79"/>
-      <c r="R171" s="80"/>
+      <c r="A171" s="144"/>
+      <c r="B171" s="120"/>
+      <c r="C171" s="120"/>
+      <c r="D171" s="121"/>
+      <c r="E171" s="145"/>
+      <c r="F171" s="121"/>
+      <c r="G171" s="144"/>
+      <c r="H171" s="120"/>
+      <c r="I171" s="120"/>
+      <c r="J171" s="120"/>
+      <c r="K171" s="120"/>
+      <c r="L171" s="120"/>
+      <c r="M171" s="120"/>
+      <c r="N171" s="120"/>
+      <c r="O171" s="120"/>
+      <c r="P171" s="120"/>
+      <c r="Q171" s="120"/>
+      <c r="R171" s="121"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
@@ -7922,24 +8281,24 @@
       <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="1:29" ht="45.75" customHeight="1">
-      <c r="A172" s="97"/>
-      <c r="B172" s="79"/>
-      <c r="C172" s="79"/>
-      <c r="D172" s="80"/>
-      <c r="E172" s="99"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="97"/>
-      <c r="H172" s="79"/>
-      <c r="I172" s="79"/>
-      <c r="J172" s="79"/>
-      <c r="K172" s="79"/>
-      <c r="L172" s="79"/>
-      <c r="M172" s="79"/>
-      <c r="N172" s="79"/>
-      <c r="O172" s="79"/>
-      <c r="P172" s="79"/>
-      <c r="Q172" s="79"/>
-      <c r="R172" s="80"/>
+      <c r="A172" s="144"/>
+      <c r="B172" s="120"/>
+      <c r="C172" s="120"/>
+      <c r="D172" s="121"/>
+      <c r="E172" s="146"/>
+      <c r="F172" s="121"/>
+      <c r="G172" s="144"/>
+      <c r="H172" s="120"/>
+      <c r="I172" s="120"/>
+      <c r="J172" s="120"/>
+      <c r="K172" s="120"/>
+      <c r="L172" s="120"/>
+      <c r="M172" s="120"/>
+      <c r="N172" s="120"/>
+      <c r="O172" s="120"/>
+      <c r="P172" s="120"/>
+      <c r="Q172" s="120"/>
+      <c r="R172" s="121"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -7953,24 +8312,24 @@
       <c r="AC172" s="5"/>
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A173" s="97"/>
-      <c r="B173" s="79"/>
-      <c r="C173" s="79"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="98"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="97"/>
-      <c r="H173" s="79"/>
-      <c r="I173" s="79"/>
-      <c r="J173" s="79"/>
-      <c r="K173" s="79"/>
-      <c r="L173" s="79"/>
-      <c r="M173" s="79"/>
-      <c r="N173" s="79"/>
-      <c r="O173" s="79"/>
-      <c r="P173" s="79"/>
-      <c r="Q173" s="79"/>
-      <c r="R173" s="80"/>
+      <c r="A173" s="144"/>
+      <c r="B173" s="120"/>
+      <c r="C173" s="120"/>
+      <c r="D173" s="121"/>
+      <c r="E173" s="145"/>
+      <c r="F173" s="121"/>
+      <c r="G173" s="144"/>
+      <c r="H173" s="120"/>
+      <c r="I173" s="120"/>
+      <c r="J173" s="120"/>
+      <c r="K173" s="120"/>
+      <c r="L173" s="120"/>
+      <c r="M173" s="120"/>
+      <c r="N173" s="120"/>
+      <c r="O173" s="120"/>
+      <c r="P173" s="120"/>
+      <c r="Q173" s="120"/>
+      <c r="R173" s="121"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
@@ -7984,24 +8343,24 @@
       <c r="AC173" s="5"/>
     </row>
     <row r="174" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A174" s="100"/>
-      <c r="B174" s="79"/>
-      <c r="C174" s="79"/>
-      <c r="D174" s="80"/>
-      <c r="E174" s="101"/>
-      <c r="F174" s="80"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="79"/>
-      <c r="I174" s="79"/>
-      <c r="J174" s="79"/>
-      <c r="K174" s="79"/>
-      <c r="L174" s="79"/>
-      <c r="M174" s="79"/>
-      <c r="N174" s="79"/>
-      <c r="O174" s="79"/>
-      <c r="P174" s="79"/>
-      <c r="Q174" s="79"/>
-      <c r="R174" s="80"/>
+      <c r="A174" s="122"/>
+      <c r="B174" s="120"/>
+      <c r="C174" s="120"/>
+      <c r="D174" s="121"/>
+      <c r="E174" s="124"/>
+      <c r="F174" s="121"/>
+      <c r="G174" s="122"/>
+      <c r="H174" s="120"/>
+      <c r="I174" s="120"/>
+      <c r="J174" s="120"/>
+      <c r="K174" s="120"/>
+      <c r="L174" s="120"/>
+      <c r="M174" s="120"/>
+      <c r="N174" s="120"/>
+      <c r="O174" s="120"/>
+      <c r="P174" s="120"/>
+      <c r="Q174" s="120"/>
+      <c r="R174" s="121"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -8046,33 +8405,33 @@
       <c r="AC175" s="5"/>
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A176" s="90"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="77"/>
-      <c r="D176" s="77"/>
-      <c r="E176" s="77"/>
-      <c r="F176" s="77"/>
-      <c r="G176" s="77"/>
-      <c r="H176" s="77"/>
-      <c r="I176" s="77"/>
-      <c r="J176" s="77"/>
-      <c r="K176" s="77"/>
-      <c r="L176" s="77"/>
-      <c r="M176" s="77"/>
-      <c r="N176" s="77"/>
-      <c r="O176" s="77"/>
-      <c r="P176" s="77"/>
-      <c r="Q176" s="77"/>
-      <c r="R176" s="77"/>
-      <c r="S176" s="77"/>
-      <c r="T176" s="77"/>
-      <c r="U176" s="77"/>
-      <c r="V176" s="77"/>
-      <c r="W176" s="77"/>
-      <c r="X176" s="77"/>
-      <c r="Y176" s="77"/>
-      <c r="Z176" s="77"/>
-      <c r="AA176" s="78"/>
+      <c r="A176" s="116"/>
+      <c r="B176" s="117"/>
+      <c r="C176" s="117"/>
+      <c r="D176" s="117"/>
+      <c r="E176" s="117"/>
+      <c r="F176" s="117"/>
+      <c r="G176" s="117"/>
+      <c r="H176" s="117"/>
+      <c r="I176" s="117"/>
+      <c r="J176" s="117"/>
+      <c r="K176" s="117"/>
+      <c r="L176" s="117"/>
+      <c r="M176" s="117"/>
+      <c r="N176" s="117"/>
+      <c r="O176" s="117"/>
+      <c r="P176" s="117"/>
+      <c r="Q176" s="117"/>
+      <c r="R176" s="117"/>
+      <c r="S176" s="117"/>
+      <c r="T176" s="117"/>
+      <c r="U176" s="117"/>
+      <c r="V176" s="117"/>
+      <c r="W176" s="117"/>
+      <c r="X176" s="117"/>
+      <c r="Y176" s="117"/>
+      <c r="Z176" s="117"/>
+      <c r="AA176" s="118"/>
       <c r="AB176" s="5"/>
       <c r="AC176" s="5"/>
     </row>
@@ -8139,26 +8498,26 @@
       <c r="AC178" s="21"/>
     </row>
     <row r="179" spans="1:29" ht="47.25" customHeight="1">
-      <c r="A179" s="105"/>
-      <c r="B179" s="77"/>
-      <c r="C179" s="77"/>
-      <c r="D179" s="77"/>
-      <c r="E179" s="77"/>
-      <c r="F179" s="77"/>
-      <c r="G179" s="77"/>
-      <c r="H179" s="77"/>
-      <c r="I179" s="77"/>
-      <c r="J179" s="77"/>
-      <c r="K179" s="77"/>
-      <c r="L179" s="77"/>
-      <c r="M179" s="77"/>
-      <c r="N179" s="77"/>
-      <c r="O179" s="77"/>
-      <c r="P179" s="77"/>
-      <c r="Q179" s="77"/>
-      <c r="R179" s="77"/>
-      <c r="S179" s="77"/>
-      <c r="T179" s="78"/>
+      <c r="A179" s="129"/>
+      <c r="B179" s="117"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="117"/>
+      <c r="E179" s="117"/>
+      <c r="F179" s="117"/>
+      <c r="G179" s="117"/>
+      <c r="H179" s="117"/>
+      <c r="I179" s="117"/>
+      <c r="J179" s="117"/>
+      <c r="K179" s="117"/>
+      <c r="L179" s="117"/>
+      <c r="M179" s="117"/>
+      <c r="N179" s="117"/>
+      <c r="O179" s="117"/>
+      <c r="P179" s="117"/>
+      <c r="Q179" s="117"/>
+      <c r="R179" s="117"/>
+      <c r="S179" s="117"/>
+      <c r="T179" s="118"/>
       <c r="U179" s="22"/>
       <c r="V179" s="22"/>
       <c r="W179" s="22"/>
@@ -8170,26 +8529,26 @@
       <c r="AC179" s="21"/>
     </row>
     <row r="180" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A180" s="106"/>
-      <c r="B180" s="77"/>
-      <c r="C180" s="77"/>
-      <c r="D180" s="77"/>
-      <c r="E180" s="77"/>
-      <c r="F180" s="77"/>
-      <c r="G180" s="77"/>
-      <c r="H180" s="77"/>
-      <c r="I180" s="77"/>
-      <c r="J180" s="77"/>
-      <c r="K180" s="77"/>
-      <c r="L180" s="77"/>
-      <c r="M180" s="77"/>
-      <c r="N180" s="77"/>
-      <c r="O180" s="77"/>
-      <c r="P180" s="77"/>
-      <c r="Q180" s="77"/>
-      <c r="R180" s="77"/>
-      <c r="S180" s="77"/>
-      <c r="T180" s="78"/>
+      <c r="A180" s="130"/>
+      <c r="B180" s="117"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="117"/>
+      <c r="E180" s="117"/>
+      <c r="F180" s="117"/>
+      <c r="G180" s="117"/>
+      <c r="H180" s="117"/>
+      <c r="I180" s="117"/>
+      <c r="J180" s="117"/>
+      <c r="K180" s="117"/>
+      <c r="L180" s="117"/>
+      <c r="M180" s="117"/>
+      <c r="N180" s="117"/>
+      <c r="O180" s="117"/>
+      <c r="P180" s="117"/>
+      <c r="Q180" s="117"/>
+      <c r="R180" s="117"/>
+      <c r="S180" s="117"/>
+      <c r="T180" s="118"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
       <c r="W180" s="23"/>
@@ -8201,25 +8560,25 @@
       <c r="AC180" s="21"/>
     </row>
     <row r="181" spans="1:29" ht="27.75" customHeight="1">
-      <c r="B181" s="91"/>
-      <c r="C181" s="76"/>
-      <c r="D181" s="76"/>
-      <c r="E181" s="76"/>
-      <c r="F181" s="76"/>
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="76"/>
-      <c r="K181" s="76"/>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76"/>
-      <c r="N181" s="76"/>
-      <c r="O181" s="76"/>
-      <c r="P181" s="76"/>
-      <c r="Q181" s="76"/>
-      <c r="R181" s="76"/>
-      <c r="S181" s="76"/>
-      <c r="T181" s="76"/>
+      <c r="B181" s="131"/>
+      <c r="C181" s="127"/>
+      <c r="D181" s="127"/>
+      <c r="E181" s="127"/>
+      <c r="F181" s="127"/>
+      <c r="G181" s="127"/>
+      <c r="H181" s="127"/>
+      <c r="I181" s="127"/>
+      <c r="J181" s="127"/>
+      <c r="K181" s="127"/>
+      <c r="L181" s="127"/>
+      <c r="M181" s="127"/>
+      <c r="N181" s="127"/>
+      <c r="O181" s="127"/>
+      <c r="P181" s="127"/>
+      <c r="Q181" s="127"/>
+      <c r="R181" s="127"/>
+      <c r="S181" s="127"/>
+      <c r="T181" s="127"/>
       <c r="U181" s="9"/>
       <c r="V181" s="9"/>
       <c r="W181" s="9"/>
@@ -8232,25 +8591,25 @@
     </row>
     <row r="182" spans="1:29" ht="47.25" customHeight="1">
       <c r="B182" s="5"/>
-      <c r="C182" s="92"/>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="76"/>
-      <c r="H182" s="76"/>
-      <c r="I182" s="76"/>
-      <c r="J182" s="76"/>
-      <c r="K182" s="76"/>
-      <c r="L182" s="76"/>
-      <c r="M182" s="76"/>
-      <c r="N182" s="76"/>
-      <c r="O182" s="76"/>
-      <c r="P182" s="76"/>
-      <c r="Q182" s="76"/>
-      <c r="R182" s="76"/>
-      <c r="S182" s="76"/>
-      <c r="T182" s="76"/>
-      <c r="U182" s="76"/>
+      <c r="C182" s="126"/>
+      <c r="D182" s="127"/>
+      <c r="E182" s="127"/>
+      <c r="F182" s="127"/>
+      <c r="G182" s="127"/>
+      <c r="H182" s="127"/>
+      <c r="I182" s="127"/>
+      <c r="J182" s="127"/>
+      <c r="K182" s="127"/>
+      <c r="L182" s="127"/>
+      <c r="M182" s="127"/>
+      <c r="N182" s="127"/>
+      <c r="O182" s="127"/>
+      <c r="P182" s="127"/>
+      <c r="Q182" s="127"/>
+      <c r="R182" s="127"/>
+      <c r="S182" s="127"/>
+      <c r="T182" s="127"/>
+      <c r="U182" s="127"/>
       <c r="V182" s="9"/>
       <c r="W182" s="9"/>
       <c r="X182" s="21"/>
@@ -8291,25 +8650,25 @@
       <c r="AC183" s="21"/>
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
-      <c r="B184" s="91"/>
-      <c r="C184" s="76"/>
-      <c r="D184" s="76"/>
-      <c r="E184" s="76"/>
-      <c r="F184" s="76"/>
-      <c r="G184" s="76"/>
-      <c r="H184" s="76"/>
-      <c r="I184" s="76"/>
-      <c r="J184" s="76"/>
-      <c r="K184" s="76"/>
-      <c r="L184" s="76"/>
-      <c r="M184" s="76"/>
-      <c r="N184" s="76"/>
-      <c r="O184" s="76"/>
-      <c r="P184" s="76"/>
-      <c r="Q184" s="76"/>
-      <c r="R184" s="76"/>
-      <c r="S184" s="76"/>
-      <c r="T184" s="76"/>
+      <c r="B184" s="131"/>
+      <c r="C184" s="127"/>
+      <c r="D184" s="127"/>
+      <c r="E184" s="127"/>
+      <c r="F184" s="127"/>
+      <c r="G184" s="127"/>
+      <c r="H184" s="127"/>
+      <c r="I184" s="127"/>
+      <c r="J184" s="127"/>
+      <c r="K184" s="127"/>
+      <c r="L184" s="127"/>
+      <c r="M184" s="127"/>
+      <c r="N184" s="127"/>
+      <c r="O184" s="127"/>
+      <c r="P184" s="127"/>
+      <c r="Q184" s="127"/>
+      <c r="R184" s="127"/>
+      <c r="S184" s="127"/>
+      <c r="T184" s="127"/>
       <c r="U184" s="9"/>
       <c r="V184" s="9"/>
       <c r="W184" s="9"/>
@@ -8322,25 +8681,25 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="91"/>
-      <c r="D185" s="76"/>
-      <c r="E185" s="76"/>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
-      <c r="K185" s="76"/>
-      <c r="L185" s="76"/>
-      <c r="M185" s="76"/>
-      <c r="N185" s="76"/>
-      <c r="O185" s="76"/>
-      <c r="P185" s="76"/>
-      <c r="Q185" s="76"/>
-      <c r="R185" s="76"/>
-      <c r="S185" s="76"/>
-      <c r="T185" s="76"/>
-      <c r="U185" s="76"/>
+      <c r="C185" s="131"/>
+      <c r="D185" s="127"/>
+      <c r="E185" s="127"/>
+      <c r="F185" s="127"/>
+      <c r="G185" s="127"/>
+      <c r="H185" s="127"/>
+      <c r="I185" s="127"/>
+      <c r="J185" s="127"/>
+      <c r="K185" s="127"/>
+      <c r="L185" s="127"/>
+      <c r="M185" s="127"/>
+      <c r="N185" s="127"/>
+      <c r="O185" s="127"/>
+      <c r="P185" s="127"/>
+      <c r="Q185" s="127"/>
+      <c r="R185" s="127"/>
+      <c r="S185" s="127"/>
+      <c r="T185" s="127"/>
+      <c r="U185" s="127"/>
       <c r="V185" s="21"/>
       <c r="W185" s="21"/>
       <c r="X185" s="21"/>
@@ -8352,25 +8711,25 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1">
       <c r="B186" s="5"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="76"/>
-      <c r="E186" s="76"/>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
-      <c r="K186" s="76"/>
-      <c r="L186" s="76"/>
-      <c r="M186" s="76"/>
-      <c r="N186" s="76"/>
-      <c r="O186" s="76"/>
-      <c r="P186" s="76"/>
-      <c r="Q186" s="76"/>
-      <c r="R186" s="76"/>
-      <c r="S186" s="76"/>
-      <c r="T186" s="76"/>
-      <c r="U186" s="76"/>
+      <c r="C186" s="131"/>
+      <c r="D186" s="127"/>
+      <c r="E186" s="127"/>
+      <c r="F186" s="127"/>
+      <c r="G186" s="127"/>
+      <c r="H186" s="127"/>
+      <c r="I186" s="127"/>
+      <c r="J186" s="127"/>
+      <c r="K186" s="127"/>
+      <c r="L186" s="127"/>
+      <c r="M186" s="127"/>
+      <c r="N186" s="127"/>
+      <c r="O186" s="127"/>
+      <c r="P186" s="127"/>
+      <c r="Q186" s="127"/>
+      <c r="R186" s="127"/>
+      <c r="S186" s="127"/>
+      <c r="T186" s="127"/>
+      <c r="U186" s="127"/>
       <c r="V186" s="21"/>
       <c r="W186" s="21"/>
       <c r="X186" s="21"/>
@@ -8411,25 +8770,25 @@
       <c r="AC187" s="21"/>
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1">
-      <c r="B188" s="91"/>
-      <c r="C188" s="76"/>
-      <c r="D188" s="76"/>
-      <c r="E188" s="76"/>
-      <c r="F188" s="76"/>
-      <c r="G188" s="76"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="76"/>
-      <c r="J188" s="76"/>
-      <c r="K188" s="76"/>
-      <c r="L188" s="76"/>
-      <c r="M188" s="76"/>
-      <c r="N188" s="76"/>
-      <c r="O188" s="76"/>
-      <c r="P188" s="76"/>
-      <c r="Q188" s="76"/>
-      <c r="R188" s="76"/>
-      <c r="S188" s="76"/>
-      <c r="T188" s="76"/>
+      <c r="B188" s="131"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="127"/>
+      <c r="E188" s="127"/>
+      <c r="F188" s="127"/>
+      <c r="G188" s="127"/>
+      <c r="H188" s="127"/>
+      <c r="I188" s="127"/>
+      <c r="J188" s="127"/>
+      <c r="K188" s="127"/>
+      <c r="L188" s="127"/>
+      <c r="M188" s="127"/>
+      <c r="N188" s="127"/>
+      <c r="O188" s="127"/>
+      <c r="P188" s="127"/>
+      <c r="Q188" s="127"/>
+      <c r="R188" s="127"/>
+      <c r="S188" s="127"/>
+      <c r="T188" s="127"/>
       <c r="U188" s="21"/>
       <c r="V188" s="21"/>
       <c r="W188" s="21"/>
@@ -8442,25 +8801,25 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1">
       <c r="B189" s="5"/>
-      <c r="C189" s="91"/>
-      <c r="D189" s="76"/>
-      <c r="E189" s="76"/>
-      <c r="F189" s="76"/>
-      <c r="G189" s="76"/>
-      <c r="H189" s="76"/>
-      <c r="I189" s="76"/>
-      <c r="J189" s="76"/>
-      <c r="K189" s="76"/>
-      <c r="L189" s="76"/>
-      <c r="M189" s="76"/>
-      <c r="N189" s="76"/>
-      <c r="O189" s="76"/>
-      <c r="P189" s="76"/>
-      <c r="Q189" s="76"/>
-      <c r="R189" s="76"/>
-      <c r="S189" s="76"/>
-      <c r="T189" s="76"/>
-      <c r="U189" s="76"/>
+      <c r="C189" s="131"/>
+      <c r="D189" s="127"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="127"/>
+      <c r="H189" s="127"/>
+      <c r="I189" s="127"/>
+      <c r="J189" s="127"/>
+      <c r="K189" s="127"/>
+      <c r="L189" s="127"/>
+      <c r="M189" s="127"/>
+      <c r="N189" s="127"/>
+      <c r="O189" s="127"/>
+      <c r="P189" s="127"/>
+      <c r="Q189" s="127"/>
+      <c r="R189" s="127"/>
+      <c r="S189" s="127"/>
+      <c r="T189" s="127"/>
+      <c r="U189" s="127"/>
       <c r="V189" s="21"/>
       <c r="W189" s="21"/>
       <c r="X189" s="21"/>
@@ -8472,25 +8831,25 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1">
       <c r="B190" s="5"/>
-      <c r="C190" s="91"/>
-      <c r="D190" s="76"/>
-      <c r="E190" s="76"/>
-      <c r="F190" s="76"/>
-      <c r="G190" s="76"/>
-      <c r="H190" s="76"/>
-      <c r="I190" s="76"/>
-      <c r="J190" s="76"/>
-      <c r="K190" s="76"/>
-      <c r="L190" s="76"/>
-      <c r="M190" s="76"/>
-      <c r="N190" s="76"/>
-      <c r="O190" s="76"/>
-      <c r="P190" s="76"/>
-      <c r="Q190" s="76"/>
-      <c r="R190" s="76"/>
-      <c r="S190" s="76"/>
-      <c r="T190" s="76"/>
-      <c r="U190" s="76"/>
+      <c r="C190" s="131"/>
+      <c r="D190" s="127"/>
+      <c r="E190" s="127"/>
+      <c r="F190" s="127"/>
+      <c r="G190" s="127"/>
+      <c r="H190" s="127"/>
+      <c r="I190" s="127"/>
+      <c r="J190" s="127"/>
+      <c r="K190" s="127"/>
+      <c r="L190" s="127"/>
+      <c r="M190" s="127"/>
+      <c r="N190" s="127"/>
+      <c r="O190" s="127"/>
+      <c r="P190" s="127"/>
+      <c r="Q190" s="127"/>
+      <c r="R190" s="127"/>
+      <c r="S190" s="127"/>
+      <c r="T190" s="127"/>
+      <c r="U190" s="127"/>
       <c r="V190" s="21"/>
       <c r="W190" s="21"/>
       <c r="X190" s="21"/>
@@ -8502,25 +8861,25 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1">
       <c r="B191" s="5"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="76"/>
-      <c r="E191" s="76"/>
-      <c r="F191" s="76"/>
-      <c r="G191" s="76"/>
-      <c r="H191" s="76"/>
-      <c r="I191" s="76"/>
-      <c r="J191" s="76"/>
-      <c r="K191" s="76"/>
-      <c r="L191" s="76"/>
-      <c r="M191" s="76"/>
-      <c r="N191" s="76"/>
-      <c r="O191" s="76"/>
-      <c r="P191" s="76"/>
-      <c r="Q191" s="76"/>
-      <c r="R191" s="76"/>
-      <c r="S191" s="76"/>
-      <c r="T191" s="76"/>
-      <c r="U191" s="76"/>
+      <c r="C191" s="131"/>
+      <c r="D191" s="127"/>
+      <c r="E191" s="127"/>
+      <c r="F191" s="127"/>
+      <c r="G191" s="127"/>
+      <c r="H191" s="127"/>
+      <c r="I191" s="127"/>
+      <c r="J191" s="127"/>
+      <c r="K191" s="127"/>
+      <c r="L191" s="127"/>
+      <c r="M191" s="127"/>
+      <c r="N191" s="127"/>
+      <c r="O191" s="127"/>
+      <c r="P191" s="127"/>
+      <c r="Q191" s="127"/>
+      <c r="R191" s="127"/>
+      <c r="S191" s="127"/>
+      <c r="T191" s="127"/>
+      <c r="U191" s="127"/>
       <c r="V191" s="21"/>
       <c r="W191" s="21"/>
       <c r="X191" s="21"/>
@@ -8532,25 +8891,25 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1">
       <c r="B192" s="5"/>
-      <c r="C192" s="91"/>
-      <c r="D192" s="76"/>
-      <c r="E192" s="76"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="76"/>
-      <c r="H192" s="76"/>
-      <c r="I192" s="76"/>
-      <c r="J192" s="76"/>
-      <c r="K192" s="76"/>
-      <c r="L192" s="76"/>
-      <c r="M192" s="76"/>
-      <c r="N192" s="76"/>
-      <c r="O192" s="76"/>
-      <c r="P192" s="76"/>
-      <c r="Q192" s="76"/>
-      <c r="R192" s="76"/>
-      <c r="S192" s="76"/>
-      <c r="T192" s="76"/>
-      <c r="U192" s="76"/>
+      <c r="C192" s="131"/>
+      <c r="D192" s="127"/>
+      <c r="E192" s="127"/>
+      <c r="F192" s="127"/>
+      <c r="G192" s="127"/>
+      <c r="H192" s="127"/>
+      <c r="I192" s="127"/>
+      <c r="J192" s="127"/>
+      <c r="K192" s="127"/>
+      <c r="L192" s="127"/>
+      <c r="M192" s="127"/>
+      <c r="N192" s="127"/>
+      <c r="O192" s="127"/>
+      <c r="P192" s="127"/>
+      <c r="Q192" s="127"/>
+      <c r="R192" s="127"/>
+      <c r="S192" s="127"/>
+      <c r="T192" s="127"/>
+      <c r="U192" s="127"/>
       <c r="V192" s="21"/>
       <c r="W192" s="21"/>
       <c r="X192" s="21"/>
@@ -8562,25 +8921,25 @@
     </row>
     <row r="193" spans="2:29" ht="15.75" customHeight="1">
       <c r="B193" s="5"/>
-      <c r="C193" s="91"/>
-      <c r="D193" s="76"/>
-      <c r="E193" s="76"/>
-      <c r="F193" s="76"/>
-      <c r="G193" s="76"/>
-      <c r="H193" s="76"/>
-      <c r="I193" s="76"/>
-      <c r="J193" s="76"/>
-      <c r="K193" s="76"/>
-      <c r="L193" s="76"/>
-      <c r="M193" s="76"/>
-      <c r="N193" s="76"/>
-      <c r="O193" s="76"/>
-      <c r="P193" s="76"/>
-      <c r="Q193" s="76"/>
-      <c r="R193" s="76"/>
-      <c r="S193" s="76"/>
-      <c r="T193" s="76"/>
-      <c r="U193" s="76"/>
+      <c r="C193" s="131"/>
+      <c r="D193" s="127"/>
+      <c r="E193" s="127"/>
+      <c r="F193" s="127"/>
+      <c r="G193" s="127"/>
+      <c r="H193" s="127"/>
+      <c r="I193" s="127"/>
+      <c r="J193" s="127"/>
+      <c r="K193" s="127"/>
+      <c r="L193" s="127"/>
+      <c r="M193" s="127"/>
+      <c r="N193" s="127"/>
+      <c r="O193" s="127"/>
+      <c r="P193" s="127"/>
+      <c r="Q193" s="127"/>
+      <c r="R193" s="127"/>
+      <c r="S193" s="127"/>
+      <c r="T193" s="127"/>
+      <c r="U193" s="127"/>
       <c r="V193" s="21"/>
       <c r="W193" s="21"/>
       <c r="X193" s="21"/>
@@ -8621,25 +8980,25 @@
       <c r="AC194" s="21"/>
     </row>
     <row r="195" spans="2:29" ht="19.5" customHeight="1">
-      <c r="B195" s="91"/>
-      <c r="C195" s="76"/>
-      <c r="D195" s="76"/>
-      <c r="E195" s="76"/>
-      <c r="F195" s="76"/>
-      <c r="G195" s="76"/>
-      <c r="H195" s="76"/>
-      <c r="I195" s="76"/>
-      <c r="J195" s="76"/>
-      <c r="K195" s="76"/>
-      <c r="L195" s="76"/>
-      <c r="M195" s="76"/>
-      <c r="N195" s="76"/>
-      <c r="O195" s="76"/>
-      <c r="P195" s="76"/>
-      <c r="Q195" s="76"/>
-      <c r="R195" s="76"/>
-      <c r="S195" s="76"/>
-      <c r="T195" s="76"/>
+      <c r="B195" s="131"/>
+      <c r="C195" s="127"/>
+      <c r="D195" s="127"/>
+      <c r="E195" s="127"/>
+      <c r="F195" s="127"/>
+      <c r="G195" s="127"/>
+      <c r="H195" s="127"/>
+      <c r="I195" s="127"/>
+      <c r="J195" s="127"/>
+      <c r="K195" s="127"/>
+      <c r="L195" s="127"/>
+      <c r="M195" s="127"/>
+      <c r="N195" s="127"/>
+      <c r="O195" s="127"/>
+      <c r="P195" s="127"/>
+      <c r="Q195" s="127"/>
+      <c r="R195" s="127"/>
+      <c r="S195" s="127"/>
+      <c r="T195" s="127"/>
       <c r="U195" s="21"/>
       <c r="V195" s="21"/>
       <c r="W195" s="21"/>
@@ -8652,25 +9011,25 @@
     </row>
     <row r="196" spans="2:29" ht="39" customHeight="1">
       <c r="B196" s="5"/>
-      <c r="C196" s="92"/>
-      <c r="D196" s="76"/>
-      <c r="E196" s="76"/>
-      <c r="F196" s="76"/>
-      <c r="G196" s="76"/>
-      <c r="H196" s="76"/>
-      <c r="I196" s="76"/>
-      <c r="J196" s="76"/>
-      <c r="K196" s="76"/>
-      <c r="L196" s="76"/>
-      <c r="M196" s="76"/>
-      <c r="N196" s="76"/>
-      <c r="O196" s="76"/>
-      <c r="P196" s="76"/>
-      <c r="Q196" s="76"/>
-      <c r="R196" s="76"/>
-      <c r="S196" s="76"/>
-      <c r="T196" s="76"/>
-      <c r="U196" s="76"/>
+      <c r="C196" s="126"/>
+      <c r="D196" s="127"/>
+      <c r="E196" s="127"/>
+      <c r="F196" s="127"/>
+      <c r="G196" s="127"/>
+      <c r="H196" s="127"/>
+      <c r="I196" s="127"/>
+      <c r="J196" s="127"/>
+      <c r="K196" s="127"/>
+      <c r="L196" s="127"/>
+      <c r="M196" s="127"/>
+      <c r="N196" s="127"/>
+      <c r="O196" s="127"/>
+      <c r="P196" s="127"/>
+      <c r="Q196" s="127"/>
+      <c r="R196" s="127"/>
+      <c r="S196" s="127"/>
+      <c r="T196" s="127"/>
+      <c r="U196" s="127"/>
       <c r="V196" s="21"/>
       <c r="W196" s="21"/>
       <c r="X196" s="21"/>
@@ -8711,25 +9070,25 @@
       <c r="AC197" s="21"/>
     </row>
     <row r="198" spans="2:29" ht="15.75" customHeight="1">
-      <c r="B198" s="91"/>
-      <c r="C198" s="76"/>
-      <c r="D198" s="76"/>
-      <c r="E198" s="76"/>
-      <c r="F198" s="76"/>
-      <c r="G198" s="76"/>
-      <c r="H198" s="76"/>
-      <c r="I198" s="76"/>
-      <c r="J198" s="76"/>
-      <c r="K198" s="76"/>
-      <c r="L198" s="76"/>
-      <c r="M198" s="76"/>
-      <c r="N198" s="76"/>
-      <c r="O198" s="76"/>
-      <c r="P198" s="76"/>
-      <c r="Q198" s="76"/>
-      <c r="R198" s="76"/>
-      <c r="S198" s="76"/>
-      <c r="T198" s="76"/>
+      <c r="B198" s="131"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="127"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
+      <c r="G198" s="127"/>
+      <c r="H198" s="127"/>
+      <c r="I198" s="127"/>
+      <c r="J198" s="127"/>
+      <c r="K198" s="127"/>
+      <c r="L198" s="127"/>
+      <c r="M198" s="127"/>
+      <c r="N198" s="127"/>
+      <c r="O198" s="127"/>
+      <c r="P198" s="127"/>
+      <c r="Q198" s="127"/>
+      <c r="R198" s="127"/>
+      <c r="S198" s="127"/>
+      <c r="T198" s="127"/>
       <c r="U198" s="21"/>
       <c r="V198" s="21"/>
       <c r="W198" s="21"/>
@@ -8742,25 +9101,25 @@
     </row>
     <row r="199" spans="2:29" ht="15.75" customHeight="1">
       <c r="B199" s="5"/>
-      <c r="C199" s="91"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
-      <c r="I199" s="76"/>
-      <c r="J199" s="76"/>
-      <c r="K199" s="76"/>
-      <c r="L199" s="76"/>
-      <c r="M199" s="76"/>
-      <c r="N199" s="76"/>
-      <c r="O199" s="76"/>
-      <c r="P199" s="76"/>
-      <c r="Q199" s="76"/>
-      <c r="R199" s="76"/>
-      <c r="S199" s="76"/>
-      <c r="T199" s="76"/>
-      <c r="U199" s="76"/>
+      <c r="C199" s="131"/>
+      <c r="D199" s="127"/>
+      <c r="E199" s="127"/>
+      <c r="F199" s="127"/>
+      <c r="G199" s="127"/>
+      <c r="H199" s="127"/>
+      <c r="I199" s="127"/>
+      <c r="J199" s="127"/>
+      <c r="K199" s="127"/>
+      <c r="L199" s="127"/>
+      <c r="M199" s="127"/>
+      <c r="N199" s="127"/>
+      <c r="O199" s="127"/>
+      <c r="P199" s="127"/>
+      <c r="Q199" s="127"/>
+      <c r="R199" s="127"/>
+      <c r="S199" s="127"/>
+      <c r="T199" s="127"/>
+      <c r="U199" s="127"/>
       <c r="V199" s="21"/>
       <c r="W199" s="21"/>
       <c r="X199" s="21"/>
@@ -8772,25 +9131,25 @@
     </row>
     <row r="200" spans="2:29" ht="15.75" customHeight="1">
       <c r="B200" s="5"/>
-      <c r="C200" s="91"/>
-      <c r="D200" s="76"/>
-      <c r="E200" s="76"/>
-      <c r="F200" s="76"/>
-      <c r="G200" s="76"/>
-      <c r="H200" s="76"/>
-      <c r="I200" s="76"/>
-      <c r="J200" s="76"/>
-      <c r="K200" s="76"/>
-      <c r="L200" s="76"/>
-      <c r="M200" s="76"/>
-      <c r="N200" s="76"/>
-      <c r="O200" s="76"/>
-      <c r="P200" s="76"/>
-      <c r="Q200" s="76"/>
-      <c r="R200" s="76"/>
-      <c r="S200" s="76"/>
-      <c r="T200" s="76"/>
-      <c r="U200" s="76"/>
+      <c r="C200" s="131"/>
+      <c r="D200" s="127"/>
+      <c r="E200" s="127"/>
+      <c r="F200" s="127"/>
+      <c r="G200" s="127"/>
+      <c r="H200" s="127"/>
+      <c r="I200" s="127"/>
+      <c r="J200" s="127"/>
+      <c r="K200" s="127"/>
+      <c r="L200" s="127"/>
+      <c r="M200" s="127"/>
+      <c r="N200" s="127"/>
+      <c r="O200" s="127"/>
+      <c r="P200" s="127"/>
+      <c r="Q200" s="127"/>
+      <c r="R200" s="127"/>
+      <c r="S200" s="127"/>
+      <c r="T200" s="127"/>
+      <c r="U200" s="127"/>
       <c r="V200" s="21"/>
       <c r="W200" s="21"/>
       <c r="X200" s="21"/>
@@ -8802,25 +9161,25 @@
     </row>
     <row r="201" spans="2:29" ht="15.75" customHeight="1">
       <c r="B201" s="5"/>
-      <c r="C201" s="91"/>
-      <c r="D201" s="76"/>
-      <c r="E201" s="76"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="76"/>
-      <c r="H201" s="76"/>
-      <c r="I201" s="76"/>
-      <c r="J201" s="76"/>
-      <c r="K201" s="76"/>
-      <c r="L201" s="76"/>
-      <c r="M201" s="76"/>
-      <c r="N201" s="76"/>
-      <c r="O201" s="76"/>
-      <c r="P201" s="76"/>
-      <c r="Q201" s="76"/>
-      <c r="R201" s="76"/>
-      <c r="S201" s="76"/>
-      <c r="T201" s="76"/>
-      <c r="U201" s="76"/>
+      <c r="C201" s="131"/>
+      <c r="D201" s="127"/>
+      <c r="E201" s="127"/>
+      <c r="F201" s="127"/>
+      <c r="G201" s="127"/>
+      <c r="H201" s="127"/>
+      <c r="I201" s="127"/>
+      <c r="J201" s="127"/>
+      <c r="K201" s="127"/>
+      <c r="L201" s="127"/>
+      <c r="M201" s="127"/>
+      <c r="N201" s="127"/>
+      <c r="O201" s="127"/>
+      <c r="P201" s="127"/>
+      <c r="Q201" s="127"/>
+      <c r="R201" s="127"/>
+      <c r="S201" s="127"/>
+      <c r="T201" s="127"/>
+      <c r="U201" s="127"/>
       <c r="V201" s="21"/>
       <c r="W201" s="21"/>
       <c r="X201" s="21"/>
@@ -8832,25 +9191,25 @@
     </row>
     <row r="202" spans="2:29" ht="15.75" customHeight="1">
       <c r="B202" s="5"/>
-      <c r="C202" s="91"/>
-      <c r="D202" s="76"/>
-      <c r="E202" s="76"/>
-      <c r="F202" s="76"/>
-      <c r="G202" s="76"/>
-      <c r="H202" s="76"/>
-      <c r="I202" s="76"/>
-      <c r="J202" s="76"/>
-      <c r="K202" s="76"/>
-      <c r="L202" s="76"/>
-      <c r="M202" s="76"/>
-      <c r="N202" s="76"/>
-      <c r="O202" s="76"/>
-      <c r="P202" s="76"/>
-      <c r="Q202" s="76"/>
-      <c r="R202" s="76"/>
-      <c r="S202" s="76"/>
-      <c r="T202" s="76"/>
-      <c r="U202" s="76"/>
+      <c r="C202" s="131"/>
+      <c r="D202" s="127"/>
+      <c r="E202" s="127"/>
+      <c r="F202" s="127"/>
+      <c r="G202" s="127"/>
+      <c r="H202" s="127"/>
+      <c r="I202" s="127"/>
+      <c r="J202" s="127"/>
+      <c r="K202" s="127"/>
+      <c r="L202" s="127"/>
+      <c r="M202" s="127"/>
+      <c r="N202" s="127"/>
+      <c r="O202" s="127"/>
+      <c r="P202" s="127"/>
+      <c r="Q202" s="127"/>
+      <c r="R202" s="127"/>
+      <c r="S202" s="127"/>
+      <c r="T202" s="127"/>
+      <c r="U202" s="127"/>
       <c r="V202" s="21"/>
       <c r="W202" s="21"/>
       <c r="X202" s="21"/>
@@ -8862,25 +9221,25 @@
     </row>
     <row r="203" spans="2:29" ht="15.75" customHeight="1">
       <c r="B203" s="5"/>
-      <c r="C203" s="91"/>
-      <c r="D203" s="76"/>
-      <c r="E203" s="76"/>
-      <c r="F203" s="76"/>
-      <c r="G203" s="76"/>
-      <c r="H203" s="76"/>
-      <c r="I203" s="76"/>
-      <c r="J203" s="76"/>
-      <c r="K203" s="76"/>
-      <c r="L203" s="76"/>
-      <c r="M203" s="76"/>
-      <c r="N203" s="76"/>
-      <c r="O203" s="76"/>
-      <c r="P203" s="76"/>
-      <c r="Q203" s="76"/>
-      <c r="R203" s="76"/>
-      <c r="S203" s="76"/>
-      <c r="T203" s="76"/>
-      <c r="U203" s="76"/>
+      <c r="C203" s="131"/>
+      <c r="D203" s="127"/>
+      <c r="E203" s="127"/>
+      <c r="F203" s="127"/>
+      <c r="G203" s="127"/>
+      <c r="H203" s="127"/>
+      <c r="I203" s="127"/>
+      <c r="J203" s="127"/>
+      <c r="K203" s="127"/>
+      <c r="L203" s="127"/>
+      <c r="M203" s="127"/>
+      <c r="N203" s="127"/>
+      <c r="O203" s="127"/>
+      <c r="P203" s="127"/>
+      <c r="Q203" s="127"/>
+      <c r="R203" s="127"/>
+      <c r="S203" s="127"/>
+      <c r="T203" s="127"/>
+      <c r="U203" s="127"/>
       <c r="V203" s="21"/>
       <c r="W203" s="21"/>
       <c r="X203" s="21"/>
@@ -8921,25 +9280,25 @@
       <c r="AC204" s="21"/>
     </row>
     <row r="205" spans="2:29" ht="23.25" customHeight="1">
-      <c r="B205" s="91"/>
-      <c r="C205" s="76"/>
-      <c r="D205" s="76"/>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
-      <c r="G205" s="76"/>
-      <c r="H205" s="76"/>
-      <c r="I205" s="76"/>
-      <c r="J205" s="76"/>
-      <c r="K205" s="76"/>
-      <c r="L205" s="76"/>
-      <c r="M205" s="76"/>
-      <c r="N205" s="76"/>
-      <c r="O205" s="76"/>
-      <c r="P205" s="76"/>
-      <c r="Q205" s="76"/>
-      <c r="R205" s="76"/>
-      <c r="S205" s="76"/>
-      <c r="T205" s="76"/>
+      <c r="B205" s="131"/>
+      <c r="C205" s="127"/>
+      <c r="D205" s="127"/>
+      <c r="E205" s="127"/>
+      <c r="F205" s="127"/>
+      <c r="G205" s="127"/>
+      <c r="H205" s="127"/>
+      <c r="I205" s="127"/>
+      <c r="J205" s="127"/>
+      <c r="K205" s="127"/>
+      <c r="L205" s="127"/>
+      <c r="M205" s="127"/>
+      <c r="N205" s="127"/>
+      <c r="O205" s="127"/>
+      <c r="P205" s="127"/>
+      <c r="Q205" s="127"/>
+      <c r="R205" s="127"/>
+      <c r="S205" s="127"/>
+      <c r="T205" s="127"/>
       <c r="U205" s="21"/>
       <c r="V205" s="21"/>
       <c r="W205" s="21"/>
@@ -8952,25 +9311,25 @@
     </row>
     <row r="206" spans="2:29" ht="33.75" customHeight="1">
       <c r="B206" s="5"/>
-      <c r="C206" s="92"/>
-      <c r="D206" s="76"/>
-      <c r="E206" s="76"/>
-      <c r="F206" s="76"/>
-      <c r="G206" s="76"/>
-      <c r="H206" s="76"/>
-      <c r="I206" s="76"/>
-      <c r="J206" s="76"/>
-      <c r="K206" s="76"/>
-      <c r="L206" s="76"/>
-      <c r="M206" s="76"/>
-      <c r="N206" s="76"/>
-      <c r="O206" s="76"/>
-      <c r="P206" s="76"/>
-      <c r="Q206" s="76"/>
-      <c r="R206" s="76"/>
-      <c r="S206" s="76"/>
-      <c r="T206" s="76"/>
-      <c r="U206" s="76"/>
+      <c r="C206" s="126"/>
+      <c r="D206" s="127"/>
+      <c r="E206" s="127"/>
+      <c r="F206" s="127"/>
+      <c r="G206" s="127"/>
+      <c r="H206" s="127"/>
+      <c r="I206" s="127"/>
+      <c r="J206" s="127"/>
+      <c r="K206" s="127"/>
+      <c r="L206" s="127"/>
+      <c r="M206" s="127"/>
+      <c r="N206" s="127"/>
+      <c r="O206" s="127"/>
+      <c r="P206" s="127"/>
+      <c r="Q206" s="127"/>
+      <c r="R206" s="127"/>
+      <c r="S206" s="127"/>
+      <c r="T206" s="127"/>
+      <c r="U206" s="127"/>
       <c r="V206" s="21"/>
       <c r="W206" s="21"/>
       <c r="X206" s="21"/>
@@ -9011,25 +9370,25 @@
       <c r="AC207" s="21"/>
     </row>
     <row r="208" spans="2:29" ht="45.75" customHeight="1">
-      <c r="B208" s="91"/>
-      <c r="C208" s="76"/>
-      <c r="D208" s="76"/>
-      <c r="E208" s="76"/>
-      <c r="F208" s="76"/>
-      <c r="G208" s="76"/>
-      <c r="H208" s="76"/>
-      <c r="I208" s="76"/>
-      <c r="J208" s="76"/>
-      <c r="K208" s="76"/>
-      <c r="L208" s="76"/>
-      <c r="M208" s="76"/>
-      <c r="N208" s="76"/>
-      <c r="O208" s="76"/>
-      <c r="P208" s="76"/>
-      <c r="Q208" s="76"/>
-      <c r="R208" s="76"/>
-      <c r="S208" s="76"/>
-      <c r="T208" s="76"/>
+      <c r="B208" s="131"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="127"/>
+      <c r="E208" s="127"/>
+      <c r="F208" s="127"/>
+      <c r="G208" s="127"/>
+      <c r="H208" s="127"/>
+      <c r="I208" s="127"/>
+      <c r="J208" s="127"/>
+      <c r="K208" s="127"/>
+      <c r="L208" s="127"/>
+      <c r="M208" s="127"/>
+      <c r="N208" s="127"/>
+      <c r="O208" s="127"/>
+      <c r="P208" s="127"/>
+      <c r="Q208" s="127"/>
+      <c r="R208" s="127"/>
+      <c r="S208" s="127"/>
+      <c r="T208" s="127"/>
       <c r="U208" s="21"/>
       <c r="V208" s="21"/>
       <c r="W208" s="21"/>
@@ -9042,25 +9401,25 @@
     </row>
     <row r="209" spans="1:29" ht="45" customHeight="1">
       <c r="B209" s="5"/>
-      <c r="C209" s="92"/>
-      <c r="D209" s="76"/>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="76"/>
-      <c r="H209" s="76"/>
-      <c r="I209" s="76"/>
-      <c r="J209" s="76"/>
-      <c r="K209" s="76"/>
-      <c r="L209" s="76"/>
-      <c r="M209" s="76"/>
-      <c r="N209" s="76"/>
-      <c r="O209" s="76"/>
-      <c r="P209" s="76"/>
-      <c r="Q209" s="76"/>
-      <c r="R209" s="76"/>
-      <c r="S209" s="76"/>
-      <c r="T209" s="76"/>
-      <c r="U209" s="76"/>
+      <c r="C209" s="126"/>
+      <c r="D209" s="127"/>
+      <c r="E209" s="127"/>
+      <c r="F209" s="127"/>
+      <c r="G209" s="127"/>
+      <c r="H209" s="127"/>
+      <c r="I209" s="127"/>
+      <c r="J209" s="127"/>
+      <c r="K209" s="127"/>
+      <c r="L209" s="127"/>
+      <c r="M209" s="127"/>
+      <c r="N209" s="127"/>
+      <c r="O209" s="127"/>
+      <c r="P209" s="127"/>
+      <c r="Q209" s="127"/>
+      <c r="R209" s="127"/>
+      <c r="S209" s="127"/>
+      <c r="T209" s="127"/>
+      <c r="U209" s="127"/>
       <c r="V209" s="21"/>
       <c r="W209" s="21"/>
       <c r="X209" s="21"/>
@@ -9072,25 +9431,25 @@
     </row>
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
       <c r="B210" s="5"/>
-      <c r="C210" s="91"/>
-      <c r="D210" s="76"/>
-      <c r="E210" s="76"/>
-      <c r="F210" s="76"/>
-      <c r="G210" s="76"/>
-      <c r="H210" s="76"/>
-      <c r="I210" s="76"/>
-      <c r="J210" s="76"/>
-      <c r="K210" s="76"/>
-      <c r="L210" s="76"/>
-      <c r="M210" s="76"/>
-      <c r="N210" s="76"/>
-      <c r="O210" s="76"/>
-      <c r="P210" s="76"/>
-      <c r="Q210" s="76"/>
-      <c r="R210" s="76"/>
-      <c r="S210" s="76"/>
-      <c r="T210" s="76"/>
-      <c r="U210" s="76"/>
+      <c r="C210" s="131"/>
+      <c r="D210" s="127"/>
+      <c r="E210" s="127"/>
+      <c r="F210" s="127"/>
+      <c r="G210" s="127"/>
+      <c r="H210" s="127"/>
+      <c r="I210" s="127"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="127"/>
+      <c r="L210" s="127"/>
+      <c r="M210" s="127"/>
+      <c r="N210" s="127"/>
+      <c r="O210" s="127"/>
+      <c r="P210" s="127"/>
+      <c r="Q210" s="127"/>
+      <c r="R210" s="127"/>
+      <c r="S210" s="127"/>
+      <c r="T210" s="127"/>
+      <c r="U210" s="127"/>
       <c r="V210" s="21"/>
       <c r="W210" s="21"/>
       <c r="X210" s="21"/>
@@ -9102,25 +9461,25 @@
     </row>
     <row r="211" spans="1:29" ht="15.75" customHeight="1">
       <c r="B211" s="5"/>
-      <c r="C211" s="91"/>
-      <c r="D211" s="76"/>
-      <c r="E211" s="76"/>
-      <c r="F211" s="76"/>
-      <c r="G211" s="76"/>
-      <c r="H211" s="76"/>
-      <c r="I211" s="76"/>
-      <c r="J211" s="76"/>
-      <c r="K211" s="76"/>
-      <c r="L211" s="76"/>
-      <c r="M211" s="76"/>
-      <c r="N211" s="76"/>
-      <c r="O211" s="76"/>
-      <c r="P211" s="76"/>
-      <c r="Q211" s="76"/>
-      <c r="R211" s="76"/>
-      <c r="S211" s="76"/>
-      <c r="T211" s="76"/>
-      <c r="U211" s="76"/>
+      <c r="C211" s="131"/>
+      <c r="D211" s="127"/>
+      <c r="E211" s="127"/>
+      <c r="F211" s="127"/>
+      <c r="G211" s="127"/>
+      <c r="H211" s="127"/>
+      <c r="I211" s="127"/>
+      <c r="J211" s="127"/>
+      <c r="K211" s="127"/>
+      <c r="L211" s="127"/>
+      <c r="M211" s="127"/>
+      <c r="N211" s="127"/>
+      <c r="O211" s="127"/>
+      <c r="P211" s="127"/>
+      <c r="Q211" s="127"/>
+      <c r="R211" s="127"/>
+      <c r="S211" s="127"/>
+      <c r="T211" s="127"/>
+      <c r="U211" s="127"/>
       <c r="V211" s="21"/>
       <c r="W211" s="21"/>
       <c r="X211" s="21"/>
@@ -9133,25 +9492,25 @@
     <row r="212" spans="1:29" ht="15.75" customHeight="1">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="91"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="76"/>
-      <c r="G212" s="76"/>
-      <c r="H212" s="76"/>
-      <c r="I212" s="76"/>
-      <c r="J212" s="76"/>
-      <c r="K212" s="76"/>
-      <c r="L212" s="76"/>
-      <c r="M212" s="76"/>
-      <c r="N212" s="76"/>
-      <c r="O212" s="76"/>
-      <c r="P212" s="76"/>
-      <c r="Q212" s="76"/>
-      <c r="R212" s="76"/>
-      <c r="S212" s="76"/>
-      <c r="T212" s="76"/>
-      <c r="U212" s="76"/>
-      <c r="V212" s="76"/>
+      <c r="D212" s="131"/>
+      <c r="E212" s="127"/>
+      <c r="F212" s="127"/>
+      <c r="G212" s="127"/>
+      <c r="H212" s="127"/>
+      <c r="I212" s="127"/>
+      <c r="J212" s="127"/>
+      <c r="K212" s="127"/>
+      <c r="L212" s="127"/>
+      <c r="M212" s="127"/>
+      <c r="N212" s="127"/>
+      <c r="O212" s="127"/>
+      <c r="P212" s="127"/>
+      <c r="Q212" s="127"/>
+      <c r="R212" s="127"/>
+      <c r="S212" s="127"/>
+      <c r="T212" s="127"/>
+      <c r="U212" s="127"/>
+      <c r="V212" s="127"/>
       <c r="W212" s="21"/>
       <c r="X212" s="21"/>
       <c r="Y212" s="21"/>
@@ -9164,25 +9523,25 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="21"/>
-      <c r="E213" s="91"/>
-      <c r="F213" s="76"/>
-      <c r="G213" s="76"/>
-      <c r="H213" s="76"/>
-      <c r="I213" s="76"/>
-      <c r="J213" s="76"/>
-      <c r="K213" s="76"/>
-      <c r="L213" s="76"/>
-      <c r="M213" s="76"/>
-      <c r="N213" s="76"/>
-      <c r="O213" s="76"/>
-      <c r="P213" s="76"/>
-      <c r="Q213" s="76"/>
-      <c r="R213" s="76"/>
-      <c r="S213" s="76"/>
-      <c r="T213" s="76"/>
-      <c r="U213" s="76"/>
-      <c r="V213" s="76"/>
-      <c r="W213" s="76"/>
+      <c r="E213" s="131"/>
+      <c r="F213" s="127"/>
+      <c r="G213" s="127"/>
+      <c r="H213" s="127"/>
+      <c r="I213" s="127"/>
+      <c r="J213" s="127"/>
+      <c r="K213" s="127"/>
+      <c r="L213" s="127"/>
+      <c r="M213" s="127"/>
+      <c r="N213" s="127"/>
+      <c r="O213" s="127"/>
+      <c r="P213" s="127"/>
+      <c r="Q213" s="127"/>
+      <c r="R213" s="127"/>
+      <c r="S213" s="127"/>
+      <c r="T213" s="127"/>
+      <c r="U213" s="127"/>
+      <c r="V213" s="127"/>
+      <c r="W213" s="127"/>
       <c r="X213" s="21"/>
       <c r="Y213" s="21"/>
       <c r="Z213" s="21"/>
@@ -9194,25 +9553,25 @@
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="21"/>
-      <c r="E214" s="91"/>
-      <c r="F214" s="76"/>
-      <c r="G214" s="76"/>
-      <c r="H214" s="76"/>
-      <c r="I214" s="76"/>
-      <c r="J214" s="76"/>
-      <c r="K214" s="76"/>
-      <c r="L214" s="76"/>
-      <c r="M214" s="76"/>
-      <c r="N214" s="76"/>
-      <c r="O214" s="76"/>
-      <c r="P214" s="76"/>
-      <c r="Q214" s="76"/>
-      <c r="R214" s="76"/>
-      <c r="S214" s="76"/>
-      <c r="T214" s="76"/>
-      <c r="U214" s="76"/>
-      <c r="V214" s="76"/>
-      <c r="W214" s="76"/>
+      <c r="E214" s="131"/>
+      <c r="F214" s="127"/>
+      <c r="G214" s="127"/>
+      <c r="H214" s="127"/>
+      <c r="I214" s="127"/>
+      <c r="J214" s="127"/>
+      <c r="K214" s="127"/>
+      <c r="L214" s="127"/>
+      <c r="M214" s="127"/>
+      <c r="N214" s="127"/>
+      <c r="O214" s="127"/>
+      <c r="P214" s="127"/>
+      <c r="Q214" s="127"/>
+      <c r="R214" s="127"/>
+      <c r="S214" s="127"/>
+      <c r="T214" s="127"/>
+      <c r="U214" s="127"/>
+      <c r="V214" s="127"/>
+      <c r="W214" s="127"/>
       <c r="X214" s="21"/>
       <c r="Y214" s="21"/>
       <c r="Z214" s="21"/>
@@ -9224,25 +9583,25 @@
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="91"/>
-      <c r="F215" s="76"/>
-      <c r="G215" s="76"/>
-      <c r="H215" s="76"/>
-      <c r="I215" s="76"/>
-      <c r="J215" s="76"/>
-      <c r="K215" s="76"/>
-      <c r="L215" s="76"/>
-      <c r="M215" s="76"/>
-      <c r="N215" s="76"/>
-      <c r="O215" s="76"/>
-      <c r="P215" s="76"/>
-      <c r="Q215" s="76"/>
-      <c r="R215" s="76"/>
-      <c r="S215" s="76"/>
-      <c r="T215" s="76"/>
-      <c r="U215" s="76"/>
-      <c r="V215" s="76"/>
-      <c r="W215" s="76"/>
+      <c r="E215" s="131"/>
+      <c r="F215" s="127"/>
+      <c r="G215" s="127"/>
+      <c r="H215" s="127"/>
+      <c r="I215" s="127"/>
+      <c r="J215" s="127"/>
+      <c r="K215" s="127"/>
+      <c r="L215" s="127"/>
+      <c r="M215" s="127"/>
+      <c r="N215" s="127"/>
+      <c r="O215" s="127"/>
+      <c r="P215" s="127"/>
+      <c r="Q215" s="127"/>
+      <c r="R215" s="127"/>
+      <c r="S215" s="127"/>
+      <c r="T215" s="127"/>
+      <c r="U215" s="127"/>
+      <c r="V215" s="127"/>
+      <c r="W215" s="127"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
@@ -9284,25 +9643,25 @@
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="91"/>
-      <c r="F217" s="76"/>
-      <c r="G217" s="76"/>
-      <c r="H217" s="76"/>
-      <c r="I217" s="76"/>
-      <c r="J217" s="76"/>
-      <c r="K217" s="76"/>
-      <c r="L217" s="76"/>
-      <c r="M217" s="76"/>
-      <c r="N217" s="76"/>
-      <c r="O217" s="76"/>
-      <c r="P217" s="76"/>
-      <c r="Q217" s="76"/>
-      <c r="R217" s="76"/>
-      <c r="S217" s="76"/>
-      <c r="T217" s="76"/>
-      <c r="U217" s="76"/>
-      <c r="V217" s="76"/>
-      <c r="W217" s="76"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="127"/>
+      <c r="G217" s="127"/>
+      <c r="H217" s="127"/>
+      <c r="I217" s="127"/>
+      <c r="J217" s="127"/>
+      <c r="K217" s="127"/>
+      <c r="L217" s="127"/>
+      <c r="M217" s="127"/>
+      <c r="N217" s="127"/>
+      <c r="O217" s="127"/>
+      <c r="P217" s="127"/>
+      <c r="Q217" s="127"/>
+      <c r="R217" s="127"/>
+      <c r="S217" s="127"/>
+      <c r="T217" s="127"/>
+      <c r="U217" s="127"/>
+      <c r="V217" s="127"/>
+      <c r="W217" s="127"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
@@ -9341,25 +9700,25 @@
       <c r="AC218" s="5"/>
     </row>
     <row r="219" spans="1:29" ht="22.5" customHeight="1">
-      <c r="B219" s="93"/>
-      <c r="C219" s="94"/>
-      <c r="D219" s="94"/>
-      <c r="E219" s="94"/>
-      <c r="F219" s="94"/>
-      <c r="G219" s="94"/>
-      <c r="H219" s="94"/>
-      <c r="I219" s="94"/>
-      <c r="J219" s="94"/>
-      <c r="K219" s="94"/>
-      <c r="L219" s="94"/>
-      <c r="M219" s="94"/>
-      <c r="N219" s="94"/>
-      <c r="O219" s="94"/>
-      <c r="P219" s="94"/>
-      <c r="Q219" s="94"/>
-      <c r="R219" s="94"/>
-      <c r="S219" s="94"/>
-      <c r="T219" s="94"/>
+      <c r="B219" s="147"/>
+      <c r="C219" s="148"/>
+      <c r="D219" s="148"/>
+      <c r="E219" s="148"/>
+      <c r="F219" s="148"/>
+      <c r="G219" s="148"/>
+      <c r="H219" s="148"/>
+      <c r="I219" s="148"/>
+      <c r="J219" s="148"/>
+      <c r="K219" s="148"/>
+      <c r="L219" s="148"/>
+      <c r="M219" s="148"/>
+      <c r="N219" s="148"/>
+      <c r="O219" s="148"/>
+      <c r="P219" s="148"/>
+      <c r="Q219" s="148"/>
+      <c r="R219" s="148"/>
+      <c r="S219" s="148"/>
+      <c r="T219" s="148"/>
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
@@ -9373,19 +9732,19 @@
     <row r="220" spans="1:29" ht="24.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="60"/>
-      <c r="C220" s="95"/>
-      <c r="D220" s="94"/>
-      <c r="E220" s="94"/>
-      <c r="F220" s="94"/>
-      <c r="G220" s="94"/>
-      <c r="H220" s="94"/>
-      <c r="I220" s="94"/>
-      <c r="J220" s="94"/>
-      <c r="K220" s="94"/>
-      <c r="L220" s="94"/>
-      <c r="M220" s="94"/>
-      <c r="N220" s="94"/>
-      <c r="O220" s="94"/>
+      <c r="C220" s="149"/>
+      <c r="D220" s="148"/>
+      <c r="E220" s="148"/>
+      <c r="F220" s="148"/>
+      <c r="G220" s="148"/>
+      <c r="H220" s="148"/>
+      <c r="I220" s="148"/>
+      <c r="J220" s="148"/>
+      <c r="K220" s="148"/>
+      <c r="L220" s="148"/>
+      <c r="M220" s="148"/>
+      <c r="N220" s="148"/>
+      <c r="O220" s="148"/>
       <c r="P220" s="60"/>
       <c r="Q220" s="60"/>
       <c r="R220" s="60"/>
@@ -9625,16 +9984,16 @@
       <c r="D228" s="27"/>
       <c r="E228" s="28"/>
       <c r="F228" s="29"/>
-      <c r="G228" s="96"/>
-      <c r="H228" s="79"/>
-      <c r="I228" s="79"/>
-      <c r="J228" s="79"/>
-      <c r="K228" s="79"/>
-      <c r="L228" s="79"/>
-      <c r="M228" s="79"/>
-      <c r="N228" s="79"/>
-      <c r="O228" s="79"/>
-      <c r="P228" s="80"/>
+      <c r="G228" s="150"/>
+      <c r="H228" s="120"/>
+      <c r="I228" s="120"/>
+      <c r="J228" s="120"/>
+      <c r="K228" s="120"/>
+      <c r="L228" s="120"/>
+      <c r="M228" s="120"/>
+      <c r="N228" s="120"/>
+      <c r="O228" s="120"/>
+      <c r="P228" s="121"/>
       <c r="Q228" s="25"/>
       <c r="R228" s="25"/>
       <c r="S228" s="25"/>
@@ -10030,17 +10389,17 @@
       <c r="F241" s="14"/>
       <c r="G241" s="14"/>
       <c r="H241" s="14"/>
-      <c r="I241" s="81"/>
-      <c r="J241" s="79"/>
-      <c r="K241" s="79"/>
-      <c r="L241" s="79"/>
-      <c r="M241" s="79"/>
-      <c r="N241" s="79"/>
-      <c r="O241" s="79"/>
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="80"/>
+      <c r="I241" s="139"/>
+      <c r="J241" s="120"/>
+      <c r="K241" s="120"/>
+      <c r="L241" s="120"/>
+      <c r="M241" s="120"/>
+      <c r="N241" s="120"/>
+      <c r="O241" s="120"/>
+      <c r="P241" s="120"/>
+      <c r="Q241" s="120"/>
+      <c r="R241" s="120"/>
+      <c r="S241" s="121"/>
       <c r="T241" s="25"/>
       <c r="U241" s="25"/>
       <c r="V241" s="25"/>
@@ -10061,17 +10420,17 @@
       <c r="F242" s="18"/>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
-      <c r="I242" s="85"/>
-      <c r="J242" s="79"/>
-      <c r="K242" s="79"/>
-      <c r="L242" s="79"/>
-      <c r="M242" s="79"/>
-      <c r="N242" s="79"/>
-      <c r="O242" s="79"/>
-      <c r="P242" s="79"/>
-      <c r="Q242" s="79"/>
-      <c r="R242" s="79"/>
-      <c r="S242" s="80"/>
+      <c r="I242" s="136"/>
+      <c r="J242" s="120"/>
+      <c r="K242" s="120"/>
+      <c r="L242" s="120"/>
+      <c r="M242" s="120"/>
+      <c r="N242" s="120"/>
+      <c r="O242" s="120"/>
+      <c r="P242" s="120"/>
+      <c r="Q242" s="120"/>
+      <c r="R242" s="120"/>
+      <c r="S242" s="121"/>
       <c r="T242" s="25"/>
       <c r="U242" s="25"/>
       <c r="V242" s="25"/>
@@ -10185,17 +10544,17 @@
       <c r="F246" s="14"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
-      <c r="I246" s="81"/>
-      <c r="J246" s="79"/>
-      <c r="K246" s="79"/>
-      <c r="L246" s="79"/>
-      <c r="M246" s="79"/>
-      <c r="N246" s="79"/>
-      <c r="O246" s="79"/>
-      <c r="P246" s="79"/>
-      <c r="Q246" s="79"/>
-      <c r="R246" s="79"/>
-      <c r="S246" s="80"/>
+      <c r="I246" s="139"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="120"/>
+      <c r="L246" s="120"/>
+      <c r="M246" s="120"/>
+      <c r="N246" s="120"/>
+      <c r="O246" s="120"/>
+      <c r="P246" s="120"/>
+      <c r="Q246" s="120"/>
+      <c r="R246" s="120"/>
+      <c r="S246" s="121"/>
       <c r="T246" s="25"/>
       <c r="U246" s="25"/>
       <c r="V246" s="25"/>
@@ -10216,17 +10575,17 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
-      <c r="I247" s="85"/>
-      <c r="J247" s="79"/>
-      <c r="K247" s="79"/>
-      <c r="L247" s="79"/>
-      <c r="M247" s="79"/>
-      <c r="N247" s="79"/>
-      <c r="O247" s="79"/>
-      <c r="P247" s="79"/>
-      <c r="Q247" s="79"/>
-      <c r="R247" s="79"/>
-      <c r="S247" s="80"/>
+      <c r="I247" s="136"/>
+      <c r="J247" s="120"/>
+      <c r="K247" s="120"/>
+      <c r="L247" s="120"/>
+      <c r="M247" s="120"/>
+      <c r="N247" s="120"/>
+      <c r="O247" s="120"/>
+      <c r="P247" s="120"/>
+      <c r="Q247" s="120"/>
+      <c r="R247" s="120"/>
+      <c r="S247" s="121"/>
       <c r="T247" s="25"/>
       <c r="U247" s="25"/>
       <c r="V247" s="25"/>
@@ -10247,17 +10606,17 @@
       <c r="F248" s="18"/>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
-      <c r="I248" s="83"/>
-      <c r="J248" s="79"/>
-      <c r="K248" s="79"/>
-      <c r="L248" s="79"/>
-      <c r="M248" s="79"/>
-      <c r="N248" s="79"/>
-      <c r="O248" s="79"/>
-      <c r="P248" s="79"/>
-      <c r="Q248" s="79"/>
-      <c r="R248" s="79"/>
-      <c r="S248" s="80"/>
+      <c r="I248" s="133"/>
+      <c r="J248" s="120"/>
+      <c r="K248" s="120"/>
+      <c r="L248" s="120"/>
+      <c r="M248" s="120"/>
+      <c r="N248" s="120"/>
+      <c r="O248" s="120"/>
+      <c r="P248" s="120"/>
+      <c r="Q248" s="120"/>
+      <c r="R248" s="120"/>
+      <c r="S248" s="121"/>
       <c r="T248" s="25"/>
       <c r="U248" s="25"/>
       <c r="V248" s="25"/>
@@ -10278,17 +10637,17 @@
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
       <c r="H249" s="16"/>
-      <c r="I249" s="104"/>
-      <c r="J249" s="79"/>
-      <c r="K249" s="79"/>
-      <c r="L249" s="79"/>
-      <c r="M249" s="79"/>
-      <c r="N249" s="79"/>
-      <c r="O249" s="79"/>
-      <c r="P249" s="79"/>
-      <c r="Q249" s="79"/>
-      <c r="R249" s="79"/>
-      <c r="S249" s="80"/>
+      <c r="I249" s="137"/>
+      <c r="J249" s="120"/>
+      <c r="K249" s="120"/>
+      <c r="L249" s="120"/>
+      <c r="M249" s="120"/>
+      <c r="N249" s="120"/>
+      <c r="O249" s="120"/>
+      <c r="P249" s="120"/>
+      <c r="Q249" s="120"/>
+      <c r="R249" s="120"/>
+      <c r="S249" s="121"/>
       <c r="T249" s="25"/>
       <c r="U249" s="25"/>
       <c r="V249" s="25"/>
@@ -10371,17 +10730,17 @@
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
-      <c r="I252" s="81"/>
-      <c r="J252" s="79"/>
-      <c r="K252" s="79"/>
-      <c r="L252" s="79"/>
-      <c r="M252" s="79"/>
-      <c r="N252" s="79"/>
-      <c r="O252" s="79"/>
-      <c r="P252" s="79"/>
-      <c r="Q252" s="79"/>
-      <c r="R252" s="79"/>
-      <c r="S252" s="80"/>
+      <c r="I252" s="139"/>
+      <c r="J252" s="120"/>
+      <c r="K252" s="120"/>
+      <c r="L252" s="120"/>
+      <c r="M252" s="120"/>
+      <c r="N252" s="120"/>
+      <c r="O252" s="120"/>
+      <c r="P252" s="120"/>
+      <c r="Q252" s="120"/>
+      <c r="R252" s="120"/>
+      <c r="S252" s="121"/>
       <c r="T252" s="25"/>
       <c r="U252" s="25"/>
       <c r="V252" s="25"/>
@@ -10402,17 +10761,17 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="82"/>
-      <c r="J253" s="79"/>
-      <c r="K253" s="79"/>
-      <c r="L253" s="79"/>
-      <c r="M253" s="79"/>
-      <c r="N253" s="79"/>
-      <c r="O253" s="79"/>
-      <c r="P253" s="79"/>
-      <c r="Q253" s="79"/>
-      <c r="R253" s="79"/>
-      <c r="S253" s="80"/>
+      <c r="I253" s="132"/>
+      <c r="J253" s="120"/>
+      <c r="K253" s="120"/>
+      <c r="L253" s="120"/>
+      <c r="M253" s="120"/>
+      <c r="N253" s="120"/>
+      <c r="O253" s="120"/>
+      <c r="P253" s="120"/>
+      <c r="Q253" s="120"/>
+      <c r="R253" s="120"/>
+      <c r="S253" s="121"/>
       <c r="T253" s="25"/>
       <c r="U253" s="25"/>
       <c r="V253" s="25"/>
@@ -10433,17 +10792,17 @@
       <c r="F254" s="18"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
-      <c r="I254" s="83"/>
-      <c r="J254" s="79"/>
-      <c r="K254" s="79"/>
-      <c r="L254" s="79"/>
-      <c r="M254" s="79"/>
-      <c r="N254" s="79"/>
-      <c r="O254" s="79"/>
-      <c r="P254" s="79"/>
-      <c r="Q254" s="79"/>
-      <c r="R254" s="79"/>
-      <c r="S254" s="80"/>
+      <c r="I254" s="133"/>
+      <c r="J254" s="120"/>
+      <c r="K254" s="120"/>
+      <c r="L254" s="120"/>
+      <c r="M254" s="120"/>
+      <c r="N254" s="120"/>
+      <c r="O254" s="120"/>
+      <c r="P254" s="120"/>
+      <c r="Q254" s="120"/>
+      <c r="R254" s="120"/>
+      <c r="S254" s="121"/>
       <c r="T254" s="25"/>
       <c r="U254" s="25"/>
       <c r="V254" s="25"/>
@@ -10464,17 +10823,17 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
-      <c r="I255" s="83"/>
-      <c r="J255" s="79"/>
-      <c r="K255" s="79"/>
-      <c r="L255" s="79"/>
-      <c r="M255" s="79"/>
-      <c r="N255" s="79"/>
-      <c r="O255" s="79"/>
-      <c r="P255" s="79"/>
-      <c r="Q255" s="79"/>
-      <c r="R255" s="79"/>
-      <c r="S255" s="80"/>
+      <c r="I255" s="133"/>
+      <c r="J255" s="120"/>
+      <c r="K255" s="120"/>
+      <c r="L255" s="120"/>
+      <c r="M255" s="120"/>
+      <c r="N255" s="120"/>
+      <c r="O255" s="120"/>
+      <c r="P255" s="120"/>
+      <c r="Q255" s="120"/>
+      <c r="R255" s="120"/>
+      <c r="S255" s="121"/>
       <c r="T255" s="25"/>
       <c r="U255" s="25"/>
       <c r="V255" s="25"/>
@@ -10495,17 +10854,17 @@
       <c r="F256" s="18"/>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
-      <c r="I256" s="83"/>
-      <c r="J256" s="79"/>
-      <c r="K256" s="79"/>
-      <c r="L256" s="79"/>
-      <c r="M256" s="79"/>
-      <c r="N256" s="79"/>
-      <c r="O256" s="79"/>
-      <c r="P256" s="79"/>
-      <c r="Q256" s="79"/>
-      <c r="R256" s="79"/>
-      <c r="S256" s="80"/>
+      <c r="I256" s="133"/>
+      <c r="J256" s="120"/>
+      <c r="K256" s="120"/>
+      <c r="L256" s="120"/>
+      <c r="M256" s="120"/>
+      <c r="N256" s="120"/>
+      <c r="O256" s="120"/>
+      <c r="P256" s="120"/>
+      <c r="Q256" s="120"/>
+      <c r="R256" s="120"/>
+      <c r="S256" s="121"/>
       <c r="T256" s="25"/>
       <c r="U256" s="25"/>
       <c r="V256" s="25"/>
@@ -10526,17 +10885,17 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
-      <c r="I257" s="83"/>
-      <c r="J257" s="102"/>
-      <c r="K257" s="102"/>
-      <c r="L257" s="102"/>
-      <c r="M257" s="102"/>
-      <c r="N257" s="102"/>
-      <c r="O257" s="102"/>
-      <c r="P257" s="102"/>
-      <c r="Q257" s="102"/>
-      <c r="R257" s="102"/>
-      <c r="S257" s="103"/>
+      <c r="I257" s="133"/>
+      <c r="J257" s="134"/>
+      <c r="K257" s="134"/>
+      <c r="L257" s="134"/>
+      <c r="M257" s="134"/>
+      <c r="N257" s="134"/>
+      <c r="O257" s="134"/>
+      <c r="P257" s="134"/>
+      <c r="Q257" s="134"/>
+      <c r="R257" s="134"/>
+      <c r="S257" s="135"/>
       <c r="T257" s="25"/>
       <c r="U257" s="25"/>
       <c r="V257" s="25"/>
@@ -10712,17 +11071,17 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
-      <c r="I263" s="83"/>
-      <c r="J263" s="79"/>
-      <c r="K263" s="79"/>
-      <c r="L263" s="79"/>
-      <c r="M263" s="79"/>
-      <c r="N263" s="79"/>
-      <c r="O263" s="79"/>
-      <c r="P263" s="79"/>
-      <c r="Q263" s="79"/>
-      <c r="R263" s="79"/>
-      <c r="S263" s="80"/>
+      <c r="I263" s="133"/>
+      <c r="J263" s="120"/>
+      <c r="K263" s="120"/>
+      <c r="L263" s="120"/>
+      <c r="M263" s="120"/>
+      <c r="N263" s="120"/>
+      <c r="O263" s="120"/>
+      <c r="P263" s="120"/>
+      <c r="Q263" s="120"/>
+      <c r="R263" s="120"/>
+      <c r="S263" s="121"/>
       <c r="T263" s="25"/>
       <c r="U263" s="25"/>
       <c r="V263" s="25"/>
@@ -10743,17 +11102,17 @@
       <c r="F264" s="18"/>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
-      <c r="I264" s="83"/>
-      <c r="J264" s="79"/>
-      <c r="K264" s="79"/>
-      <c r="L264" s="79"/>
-      <c r="M264" s="79"/>
-      <c r="N264" s="79"/>
-      <c r="O264" s="79"/>
-      <c r="P264" s="79"/>
-      <c r="Q264" s="79"/>
-      <c r="R264" s="79"/>
-      <c r="S264" s="80"/>
+      <c r="I264" s="133"/>
+      <c r="J264" s="120"/>
+      <c r="K264" s="120"/>
+      <c r="L264" s="120"/>
+      <c r="M264" s="120"/>
+      <c r="N264" s="120"/>
+      <c r="O264" s="120"/>
+      <c r="P264" s="120"/>
+      <c r="Q264" s="120"/>
+      <c r="R264" s="120"/>
+      <c r="S264" s="121"/>
       <c r="T264" s="25"/>
       <c r="U264" s="25"/>
       <c r="V264" s="25"/>
@@ -11416,17 +11775,17 @@
       <c r="F287" s="14"/>
       <c r="G287" s="14"/>
       <c r="H287" s="14"/>
-      <c r="I287" s="81"/>
-      <c r="J287" s="79"/>
-      <c r="K287" s="79"/>
-      <c r="L287" s="79"/>
-      <c r="M287" s="79"/>
-      <c r="N287" s="79"/>
-      <c r="O287" s="79"/>
-      <c r="P287" s="79"/>
-      <c r="Q287" s="79"/>
-      <c r="R287" s="79"/>
-      <c r="S287" s="80"/>
+      <c r="I287" s="139"/>
+      <c r="J287" s="120"/>
+      <c r="K287" s="120"/>
+      <c r="L287" s="120"/>
+      <c r="M287" s="120"/>
+      <c r="N287" s="120"/>
+      <c r="O287" s="120"/>
+      <c r="P287" s="120"/>
+      <c r="Q287" s="120"/>
+      <c r="R287" s="120"/>
+      <c r="S287" s="121"/>
       <c r="T287" s="25"/>
       <c r="U287" s="25"/>
       <c r="V287" s="25"/>
@@ -11447,17 +11806,17 @@
       <c r="F288" s="18"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
-      <c r="I288" s="82"/>
-      <c r="J288" s="79"/>
-      <c r="K288" s="79"/>
-      <c r="L288" s="79"/>
-      <c r="M288" s="79"/>
-      <c r="N288" s="79"/>
-      <c r="O288" s="79"/>
-      <c r="P288" s="79"/>
-      <c r="Q288" s="79"/>
-      <c r="R288" s="79"/>
-      <c r="S288" s="80"/>
+      <c r="I288" s="132"/>
+      <c r="J288" s="120"/>
+      <c r="K288" s="120"/>
+      <c r="L288" s="120"/>
+      <c r="M288" s="120"/>
+      <c r="N288" s="120"/>
+      <c r="O288" s="120"/>
+      <c r="P288" s="120"/>
+      <c r="Q288" s="120"/>
+      <c r="R288" s="120"/>
+      <c r="S288" s="121"/>
       <c r="T288" s="25"/>
       <c r="U288" s="25"/>
       <c r="V288" s="25"/>
@@ -11535,8 +11894,8 @@
       <c r="A291" s="24"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
-      <c r="D291" s="84"/>
-      <c r="E291" s="84"/>
+      <c r="D291" s="138"/>
+      <c r="E291" s="138"/>
       <c r="F291" s="9"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
@@ -11602,17 +11961,17 @@
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
       <c r="H293" s="14"/>
-      <c r="I293" s="81"/>
-      <c r="J293" s="79"/>
-      <c r="K293" s="79"/>
-      <c r="L293" s="79"/>
-      <c r="M293" s="79"/>
-      <c r="N293" s="79"/>
-      <c r="O293" s="79"/>
-      <c r="P293" s="79"/>
-      <c r="Q293" s="79"/>
-      <c r="R293" s="79"/>
-      <c r="S293" s="80"/>
+      <c r="I293" s="139"/>
+      <c r="J293" s="120"/>
+      <c r="K293" s="120"/>
+      <c r="L293" s="120"/>
+      <c r="M293" s="120"/>
+      <c r="N293" s="120"/>
+      <c r="O293" s="120"/>
+      <c r="P293" s="120"/>
+      <c r="Q293" s="120"/>
+      <c r="R293" s="120"/>
+      <c r="S293" s="121"/>
       <c r="T293" s="25"/>
       <c r="U293" s="25"/>
       <c r="V293" s="25"/>
@@ -11633,17 +11992,17 @@
       <c r="F294" s="18"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
-      <c r="I294" s="85"/>
-      <c r="J294" s="86"/>
-      <c r="K294" s="86"/>
-      <c r="L294" s="86"/>
-      <c r="M294" s="86"/>
-      <c r="N294" s="86"/>
-      <c r="O294" s="86"/>
-      <c r="P294" s="86"/>
-      <c r="Q294" s="86"/>
-      <c r="R294" s="86"/>
-      <c r="S294" s="87"/>
+      <c r="I294" s="136"/>
+      <c r="J294" s="140"/>
+      <c r="K294" s="140"/>
+      <c r="L294" s="140"/>
+      <c r="M294" s="140"/>
+      <c r="N294" s="140"/>
+      <c r="O294" s="140"/>
+      <c r="P294" s="140"/>
+      <c r="Q294" s="140"/>
+      <c r="R294" s="140"/>
+      <c r="S294" s="141"/>
       <c r="T294" s="25"/>
       <c r="U294" s="25"/>
       <c r="V294" s="25"/>
@@ -11664,17 +12023,17 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
-      <c r="I295" s="85"/>
-      <c r="J295" s="88"/>
-      <c r="K295" s="88"/>
-      <c r="L295" s="88"/>
-      <c r="M295" s="88"/>
-      <c r="N295" s="88"/>
-      <c r="O295" s="88"/>
-      <c r="P295" s="88"/>
-      <c r="Q295" s="88"/>
-      <c r="R295" s="88"/>
-      <c r="S295" s="89"/>
+      <c r="I295" s="136"/>
+      <c r="J295" s="142"/>
+      <c r="K295" s="142"/>
+      <c r="L295" s="142"/>
+      <c r="M295" s="142"/>
+      <c r="N295" s="142"/>
+      <c r="O295" s="142"/>
+      <c r="P295" s="142"/>
+      <c r="Q295" s="142"/>
+      <c r="R295" s="142"/>
+      <c r="S295" s="143"/>
       <c r="T295" s="25"/>
       <c r="U295" s="25"/>
       <c r="V295" s="25"/>
@@ -11695,17 +12054,17 @@
       <c r="F296" s="18"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
-      <c r="I296" s="82"/>
-      <c r="J296" s="79"/>
-      <c r="K296" s="79"/>
-      <c r="L296" s="79"/>
-      <c r="M296" s="79"/>
-      <c r="N296" s="79"/>
-      <c r="O296" s="79"/>
-      <c r="P296" s="79"/>
-      <c r="Q296" s="79"/>
-      <c r="R296" s="79"/>
-      <c r="S296" s="80"/>
+      <c r="I296" s="132"/>
+      <c r="J296" s="120"/>
+      <c r="K296" s="120"/>
+      <c r="L296" s="120"/>
+      <c r="M296" s="120"/>
+      <c r="N296" s="120"/>
+      <c r="O296" s="120"/>
+      <c r="P296" s="120"/>
+      <c r="Q296" s="120"/>
+      <c r="R296" s="120"/>
+      <c r="S296" s="121"/>
       <c r="T296" s="25"/>
       <c r="U296" s="25"/>
       <c r="V296" s="25"/>
@@ -11726,17 +12085,17 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
-      <c r="I297" s="82"/>
-      <c r="J297" s="79"/>
-      <c r="K297" s="79"/>
-      <c r="L297" s="79"/>
-      <c r="M297" s="79"/>
-      <c r="N297" s="79"/>
-      <c r="O297" s="79"/>
-      <c r="P297" s="79"/>
-      <c r="Q297" s="79"/>
-      <c r="R297" s="79"/>
-      <c r="S297" s="80"/>
+      <c r="I297" s="132"/>
+      <c r="J297" s="120"/>
+      <c r="K297" s="120"/>
+      <c r="L297" s="120"/>
+      <c r="M297" s="120"/>
+      <c r="N297" s="120"/>
+      <c r="O297" s="120"/>
+      <c r="P297" s="120"/>
+      <c r="Q297" s="120"/>
+      <c r="R297" s="120"/>
+      <c r="S297" s="121"/>
       <c r="T297" s="25"/>
       <c r="U297" s="25"/>
       <c r="V297" s="25"/>
@@ -11757,17 +12116,17 @@
       <c r="F298" s="18"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
-      <c r="I298" s="82"/>
-      <c r="J298" s="79"/>
-      <c r="K298" s="79"/>
-      <c r="L298" s="79"/>
-      <c r="M298" s="79"/>
-      <c r="N298" s="79"/>
-      <c r="O298" s="79"/>
-      <c r="P298" s="79"/>
-      <c r="Q298" s="79"/>
-      <c r="R298" s="79"/>
-      <c r="S298" s="80"/>
+      <c r="I298" s="132"/>
+      <c r="J298" s="120"/>
+      <c r="K298" s="120"/>
+      <c r="L298" s="120"/>
+      <c r="M298" s="120"/>
+      <c r="N298" s="120"/>
+      <c r="O298" s="120"/>
+      <c r="P298" s="120"/>
+      <c r="Q298" s="120"/>
+      <c r="R298" s="120"/>
+      <c r="S298" s="121"/>
       <c r="T298" s="25"/>
       <c r="U298" s="25"/>
       <c r="V298" s="25"/>
@@ -11788,17 +12147,17 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
-      <c r="I299" s="82"/>
-      <c r="J299" s="79"/>
-      <c r="K299" s="79"/>
-      <c r="L299" s="79"/>
-      <c r="M299" s="79"/>
-      <c r="N299" s="79"/>
-      <c r="O299" s="79"/>
-      <c r="P299" s="79"/>
-      <c r="Q299" s="79"/>
-      <c r="R299" s="79"/>
-      <c r="S299" s="80"/>
+      <c r="I299" s="132"/>
+      <c r="J299" s="120"/>
+      <c r="K299" s="120"/>
+      <c r="L299" s="120"/>
+      <c r="M299" s="120"/>
+      <c r="N299" s="120"/>
+      <c r="O299" s="120"/>
+      <c r="P299" s="120"/>
+      <c r="Q299" s="120"/>
+      <c r="R299" s="120"/>
+      <c r="S299" s="121"/>
       <c r="T299" s="25"/>
       <c r="U299" s="25"/>
       <c r="V299" s="25"/>
@@ -14958,17 +15317,17 @@
       <c r="F402" s="14"/>
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
-      <c r="I402" s="81"/>
-      <c r="J402" s="79"/>
-      <c r="K402" s="79"/>
-      <c r="L402" s="79"/>
-      <c r="M402" s="79"/>
-      <c r="N402" s="79"/>
-      <c r="O402" s="79"/>
-      <c r="P402" s="79"/>
-      <c r="Q402" s="79"/>
-      <c r="R402" s="79"/>
-      <c r="S402" s="80"/>
+      <c r="I402" s="139"/>
+      <c r="J402" s="120"/>
+      <c r="K402" s="120"/>
+      <c r="L402" s="120"/>
+      <c r="M402" s="120"/>
+      <c r="N402" s="120"/>
+      <c r="O402" s="120"/>
+      <c r="P402" s="120"/>
+      <c r="Q402" s="120"/>
+      <c r="R402" s="120"/>
+      <c r="S402" s="121"/>
       <c r="T402" s="35"/>
       <c r="U402" s="35"/>
       <c r="V402" s="35"/>
@@ -14989,17 +15348,17 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
-      <c r="I403" s="85"/>
-      <c r="J403" s="79"/>
-      <c r="K403" s="79"/>
-      <c r="L403" s="79"/>
-      <c r="M403" s="79"/>
-      <c r="N403" s="79"/>
-      <c r="O403" s="79"/>
-      <c r="P403" s="79"/>
-      <c r="Q403" s="79"/>
-      <c r="R403" s="79"/>
-      <c r="S403" s="80"/>
+      <c r="I403" s="136"/>
+      <c r="J403" s="120"/>
+      <c r="K403" s="120"/>
+      <c r="L403" s="120"/>
+      <c r="M403" s="120"/>
+      <c r="N403" s="120"/>
+      <c r="O403" s="120"/>
+      <c r="P403" s="120"/>
+      <c r="Q403" s="120"/>
+      <c r="R403" s="120"/>
+      <c r="S403" s="121"/>
       <c r="T403" s="35"/>
       <c r="U403" s="35"/>
       <c r="V403" s="35"/>
@@ -15113,17 +15472,17 @@
       <c r="F407" s="14"/>
       <c r="G407" s="14"/>
       <c r="H407" s="14"/>
-      <c r="I407" s="81"/>
-      <c r="J407" s="79"/>
-      <c r="K407" s="79"/>
-      <c r="L407" s="79"/>
-      <c r="M407" s="79"/>
-      <c r="N407" s="79"/>
-      <c r="O407" s="79"/>
-      <c r="P407" s="79"/>
-      <c r="Q407" s="79"/>
-      <c r="R407" s="79"/>
-      <c r="S407" s="80"/>
+      <c r="I407" s="139"/>
+      <c r="J407" s="120"/>
+      <c r="K407" s="120"/>
+      <c r="L407" s="120"/>
+      <c r="M407" s="120"/>
+      <c r="N407" s="120"/>
+      <c r="O407" s="120"/>
+      <c r="P407" s="120"/>
+      <c r="Q407" s="120"/>
+      <c r="R407" s="120"/>
+      <c r="S407" s="121"/>
       <c r="T407" s="35"/>
       <c r="U407" s="35"/>
       <c r="V407" s="35"/>
@@ -15144,17 +15503,17 @@
       <c r="F408" s="18"/>
       <c r="G408" s="18"/>
       <c r="H408" s="18"/>
-      <c r="I408" s="85"/>
-      <c r="J408" s="79"/>
-      <c r="K408" s="79"/>
-      <c r="L408" s="79"/>
-      <c r="M408" s="79"/>
-      <c r="N408" s="79"/>
-      <c r="O408" s="79"/>
-      <c r="P408" s="79"/>
-      <c r="Q408" s="79"/>
-      <c r="R408" s="79"/>
-      <c r="S408" s="80"/>
+      <c r="I408" s="136"/>
+      <c r="J408" s="120"/>
+      <c r="K408" s="120"/>
+      <c r="L408" s="120"/>
+      <c r="M408" s="120"/>
+      <c r="N408" s="120"/>
+      <c r="O408" s="120"/>
+      <c r="P408" s="120"/>
+      <c r="Q408" s="120"/>
+      <c r="R408" s="120"/>
+      <c r="S408" s="121"/>
       <c r="T408" s="35"/>
       <c r="U408" s="35"/>
       <c r="V408" s="35"/>
@@ -15175,17 +15534,17 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
       <c r="H409" s="18"/>
-      <c r="I409" s="83"/>
-      <c r="J409" s="79"/>
-      <c r="K409" s="79"/>
-      <c r="L409" s="79"/>
-      <c r="M409" s="79"/>
-      <c r="N409" s="79"/>
-      <c r="O409" s="79"/>
-      <c r="P409" s="79"/>
-      <c r="Q409" s="79"/>
-      <c r="R409" s="79"/>
-      <c r="S409" s="80"/>
+      <c r="I409" s="133"/>
+      <c r="J409" s="120"/>
+      <c r="K409" s="120"/>
+      <c r="L409" s="120"/>
+      <c r="M409" s="120"/>
+      <c r="N409" s="120"/>
+      <c r="O409" s="120"/>
+      <c r="P409" s="120"/>
+      <c r="Q409" s="120"/>
+      <c r="R409" s="120"/>
+      <c r="S409" s="121"/>
       <c r="T409" s="35"/>
       <c r="U409" s="35"/>
       <c r="V409" s="35"/>
@@ -15206,17 +15565,17 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
       <c r="H410" s="16"/>
-      <c r="I410" s="104"/>
-      <c r="J410" s="79"/>
-      <c r="K410" s="79"/>
-      <c r="L410" s="79"/>
-      <c r="M410" s="79"/>
-      <c r="N410" s="79"/>
-      <c r="O410" s="79"/>
-      <c r="P410" s="79"/>
-      <c r="Q410" s="79"/>
-      <c r="R410" s="79"/>
-      <c r="S410" s="80"/>
+      <c r="I410" s="137"/>
+      <c r="J410" s="120"/>
+      <c r="K410" s="120"/>
+      <c r="L410" s="120"/>
+      <c r="M410" s="120"/>
+      <c r="N410" s="120"/>
+      <c r="O410" s="120"/>
+      <c r="P410" s="120"/>
+      <c r="Q410" s="120"/>
+      <c r="R410" s="120"/>
+      <c r="S410" s="121"/>
       <c r="T410" s="35"/>
       <c r="U410" s="35"/>
       <c r="V410" s="35"/>
@@ -15299,17 +15658,17 @@
       <c r="F413" s="14"/>
       <c r="G413" s="14"/>
       <c r="H413" s="14"/>
-      <c r="I413" s="81"/>
-      <c r="J413" s="79"/>
-      <c r="K413" s="79"/>
-      <c r="L413" s="79"/>
-      <c r="M413" s="79"/>
-      <c r="N413" s="79"/>
-      <c r="O413" s="79"/>
-      <c r="P413" s="79"/>
-      <c r="Q413" s="79"/>
-      <c r="R413" s="79"/>
-      <c r="S413" s="80"/>
+      <c r="I413" s="139"/>
+      <c r="J413" s="120"/>
+      <c r="K413" s="120"/>
+      <c r="L413" s="120"/>
+      <c r="M413" s="120"/>
+      <c r="N413" s="120"/>
+      <c r="O413" s="120"/>
+      <c r="P413" s="120"/>
+      <c r="Q413" s="120"/>
+      <c r="R413" s="120"/>
+      <c r="S413" s="121"/>
       <c r="T413" s="35"/>
       <c r="U413" s="35"/>
       <c r="V413" s="35"/>
@@ -15330,17 +15689,17 @@
       <c r="F414" s="18"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
-      <c r="I414" s="82"/>
-      <c r="J414" s="79"/>
-      <c r="K414" s="79"/>
-      <c r="L414" s="79"/>
-      <c r="M414" s="79"/>
-      <c r="N414" s="79"/>
-      <c r="O414" s="79"/>
-      <c r="P414" s="79"/>
-      <c r="Q414" s="79"/>
-      <c r="R414" s="79"/>
-      <c r="S414" s="80"/>
+      <c r="I414" s="132"/>
+      <c r="J414" s="120"/>
+      <c r="K414" s="120"/>
+      <c r="L414" s="120"/>
+      <c r="M414" s="120"/>
+      <c r="N414" s="120"/>
+      <c r="O414" s="120"/>
+      <c r="P414" s="120"/>
+      <c r="Q414" s="120"/>
+      <c r="R414" s="120"/>
+      <c r="S414" s="121"/>
       <c r="T414" s="35"/>
       <c r="U414" s="35"/>
       <c r="V414" s="35"/>
@@ -15361,17 +15720,17 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
-      <c r="I415" s="83"/>
-      <c r="J415" s="79"/>
-      <c r="K415" s="79"/>
-      <c r="L415" s="79"/>
-      <c r="M415" s="79"/>
-      <c r="N415" s="79"/>
-      <c r="O415" s="79"/>
-      <c r="P415" s="79"/>
-      <c r="Q415" s="79"/>
-      <c r="R415" s="79"/>
-      <c r="S415" s="80"/>
+      <c r="I415" s="133"/>
+      <c r="J415" s="120"/>
+      <c r="K415" s="120"/>
+      <c r="L415" s="120"/>
+      <c r="M415" s="120"/>
+      <c r="N415" s="120"/>
+      <c r="O415" s="120"/>
+      <c r="P415" s="120"/>
+      <c r="Q415" s="120"/>
+      <c r="R415" s="120"/>
+      <c r="S415" s="121"/>
       <c r="T415" s="35"/>
       <c r="U415" s="35"/>
       <c r="V415" s="35"/>
@@ -15392,17 +15751,17 @@
       <c r="F416" s="18"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
-      <c r="I416" s="83"/>
-      <c r="J416" s="79"/>
-      <c r="K416" s="79"/>
-      <c r="L416" s="79"/>
-      <c r="M416" s="79"/>
-      <c r="N416" s="79"/>
-      <c r="O416" s="79"/>
-      <c r="P416" s="79"/>
-      <c r="Q416" s="79"/>
-      <c r="R416" s="79"/>
-      <c r="S416" s="80"/>
+      <c r="I416" s="133"/>
+      <c r="J416" s="120"/>
+      <c r="K416" s="120"/>
+      <c r="L416" s="120"/>
+      <c r="M416" s="120"/>
+      <c r="N416" s="120"/>
+      <c r="O416" s="120"/>
+      <c r="P416" s="120"/>
+      <c r="Q416" s="120"/>
+      <c r="R416" s="120"/>
+      <c r="S416" s="121"/>
       <c r="T416" s="35"/>
       <c r="U416" s="35"/>
       <c r="V416" s="35"/>
@@ -15423,17 +15782,17 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
-      <c r="I417" s="83"/>
-      <c r="J417" s="79"/>
-      <c r="K417" s="79"/>
-      <c r="L417" s="79"/>
-      <c r="M417" s="79"/>
-      <c r="N417" s="79"/>
-      <c r="O417" s="79"/>
-      <c r="P417" s="79"/>
-      <c r="Q417" s="79"/>
-      <c r="R417" s="79"/>
-      <c r="S417" s="80"/>
+      <c r="I417" s="133"/>
+      <c r="J417" s="120"/>
+      <c r="K417" s="120"/>
+      <c r="L417" s="120"/>
+      <c r="M417" s="120"/>
+      <c r="N417" s="120"/>
+      <c r="O417" s="120"/>
+      <c r="P417" s="120"/>
+      <c r="Q417" s="120"/>
+      <c r="R417" s="120"/>
+      <c r="S417" s="121"/>
       <c r="T417" s="35"/>
       <c r="U417" s="35"/>
       <c r="V417" s="35"/>
@@ -15454,17 +15813,17 @@
       <c r="F418" s="18"/>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
-      <c r="I418" s="83"/>
-      <c r="J418" s="102"/>
-      <c r="K418" s="102"/>
-      <c r="L418" s="102"/>
-      <c r="M418" s="102"/>
-      <c r="N418" s="102"/>
-      <c r="O418" s="102"/>
-      <c r="P418" s="102"/>
-      <c r="Q418" s="102"/>
-      <c r="R418" s="102"/>
-      <c r="S418" s="103"/>
+      <c r="I418" s="133"/>
+      <c r="J418" s="134"/>
+      <c r="K418" s="134"/>
+      <c r="L418" s="134"/>
+      <c r="M418" s="134"/>
+      <c r="N418" s="134"/>
+      <c r="O418" s="134"/>
+      <c r="P418" s="134"/>
+      <c r="Q418" s="134"/>
+      <c r="R418" s="134"/>
+      <c r="S418" s="135"/>
       <c r="T418" s="35"/>
       <c r="U418" s="35"/>
       <c r="V418" s="35"/>
@@ -15640,17 +15999,17 @@
       <c r="F424" s="18"/>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
-      <c r="I424" s="83"/>
-      <c r="J424" s="79"/>
-      <c r="K424" s="79"/>
-      <c r="L424" s="79"/>
-      <c r="M424" s="79"/>
-      <c r="N424" s="79"/>
-      <c r="O424" s="79"/>
-      <c r="P424" s="79"/>
-      <c r="Q424" s="79"/>
-      <c r="R424" s="79"/>
-      <c r="S424" s="80"/>
+      <c r="I424" s="133"/>
+      <c r="J424" s="120"/>
+      <c r="K424" s="120"/>
+      <c r="L424" s="120"/>
+      <c r="M424" s="120"/>
+      <c r="N424" s="120"/>
+      <c r="O424" s="120"/>
+      <c r="P424" s="120"/>
+      <c r="Q424" s="120"/>
+      <c r="R424" s="120"/>
+      <c r="S424" s="121"/>
       <c r="T424" s="35"/>
       <c r="U424" s="35"/>
       <c r="V424" s="35"/>
@@ -15671,17 +16030,17 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
-      <c r="I425" s="83"/>
-      <c r="J425" s="79"/>
-      <c r="K425" s="79"/>
-      <c r="L425" s="79"/>
-      <c r="M425" s="79"/>
-      <c r="N425" s="79"/>
-      <c r="O425" s="79"/>
-      <c r="P425" s="79"/>
-      <c r="Q425" s="79"/>
-      <c r="R425" s="79"/>
-      <c r="S425" s="80"/>
+      <c r="I425" s="133"/>
+      <c r="J425" s="120"/>
+      <c r="K425" s="120"/>
+      <c r="L425" s="120"/>
+      <c r="M425" s="120"/>
+      <c r="N425" s="120"/>
+      <c r="O425" s="120"/>
+      <c r="P425" s="120"/>
+      <c r="Q425" s="120"/>
+      <c r="R425" s="120"/>
+      <c r="S425" s="121"/>
       <c r="T425" s="35"/>
       <c r="U425" s="35"/>
       <c r="V425" s="35"/>
@@ -16281,17 +16640,17 @@
       <c r="F446" s="14"/>
       <c r="G446" s="14"/>
       <c r="H446" s="14"/>
-      <c r="I446" s="81"/>
-      <c r="J446" s="79"/>
-      <c r="K446" s="79"/>
-      <c r="L446" s="79"/>
-      <c r="M446" s="79"/>
-      <c r="N446" s="79"/>
-      <c r="O446" s="79"/>
-      <c r="P446" s="79"/>
-      <c r="Q446" s="79"/>
-      <c r="R446" s="79"/>
-      <c r="S446" s="80"/>
+      <c r="I446" s="139"/>
+      <c r="J446" s="120"/>
+      <c r="K446" s="120"/>
+      <c r="L446" s="120"/>
+      <c r="M446" s="120"/>
+      <c r="N446" s="120"/>
+      <c r="O446" s="120"/>
+      <c r="P446" s="120"/>
+      <c r="Q446" s="120"/>
+      <c r="R446" s="120"/>
+      <c r="S446" s="121"/>
       <c r="T446" s="35"/>
       <c r="U446" s="35"/>
       <c r="V446" s="35"/>
@@ -16312,17 +16671,17 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
       <c r="H447" s="18"/>
-      <c r="I447" s="82"/>
-      <c r="J447" s="79"/>
-      <c r="K447" s="79"/>
-      <c r="L447" s="79"/>
-      <c r="M447" s="79"/>
-      <c r="N447" s="79"/>
-      <c r="O447" s="79"/>
-      <c r="P447" s="79"/>
-      <c r="Q447" s="79"/>
-      <c r="R447" s="79"/>
-      <c r="S447" s="80"/>
+      <c r="I447" s="132"/>
+      <c r="J447" s="120"/>
+      <c r="K447" s="120"/>
+      <c r="L447" s="120"/>
+      <c r="M447" s="120"/>
+      <c r="N447" s="120"/>
+      <c r="O447" s="120"/>
+      <c r="P447" s="120"/>
+      <c r="Q447" s="120"/>
+      <c r="R447" s="120"/>
+      <c r="S447" s="121"/>
       <c r="T447" s="35"/>
       <c r="U447" s="35"/>
       <c r="V447" s="35"/>
@@ -16400,8 +16759,8 @@
       <c r="A450" s="35"/>
       <c r="B450" s="35"/>
       <c r="C450" s="9"/>
-      <c r="D450" s="84"/>
-      <c r="E450" s="84"/>
+      <c r="D450" s="138"/>
+      <c r="E450" s="138"/>
       <c r="F450" s="9"/>
       <c r="G450" s="9"/>
       <c r="H450" s="9"/>
@@ -16467,17 +16826,17 @@
       <c r="F452" s="14"/>
       <c r="G452" s="14"/>
       <c r="H452" s="14"/>
-      <c r="I452" s="81"/>
-      <c r="J452" s="79"/>
-      <c r="K452" s="79"/>
-      <c r="L452" s="79"/>
-      <c r="M452" s="79"/>
-      <c r="N452" s="79"/>
-      <c r="O452" s="79"/>
-      <c r="P452" s="79"/>
-      <c r="Q452" s="79"/>
-      <c r="R452" s="79"/>
-      <c r="S452" s="80"/>
+      <c r="I452" s="139"/>
+      <c r="J452" s="120"/>
+      <c r="K452" s="120"/>
+      <c r="L452" s="120"/>
+      <c r="M452" s="120"/>
+      <c r="N452" s="120"/>
+      <c r="O452" s="120"/>
+      <c r="P452" s="120"/>
+      <c r="Q452" s="120"/>
+      <c r="R452" s="120"/>
+      <c r="S452" s="121"/>
       <c r="T452" s="35"/>
       <c r="U452" s="35"/>
       <c r="V452" s="35"/>
@@ -16498,17 +16857,17 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
       <c r="H453" s="18"/>
-      <c r="I453" s="85"/>
-      <c r="J453" s="86"/>
-      <c r="K453" s="86"/>
-      <c r="L453" s="86"/>
-      <c r="M453" s="86"/>
-      <c r="N453" s="86"/>
-      <c r="O453" s="86"/>
-      <c r="P453" s="86"/>
-      <c r="Q453" s="86"/>
-      <c r="R453" s="86"/>
-      <c r="S453" s="87"/>
+      <c r="I453" s="136"/>
+      <c r="J453" s="140"/>
+      <c r="K453" s="140"/>
+      <c r="L453" s="140"/>
+      <c r="M453" s="140"/>
+      <c r="N453" s="140"/>
+      <c r="O453" s="140"/>
+      <c r="P453" s="140"/>
+      <c r="Q453" s="140"/>
+      <c r="R453" s="140"/>
+      <c r="S453" s="141"/>
       <c r="T453" s="35"/>
       <c r="U453" s="35"/>
       <c r="V453" s="35"/>
@@ -16529,17 +16888,17 @@
       <c r="F454" s="18"/>
       <c r="G454" s="18"/>
       <c r="H454" s="18"/>
-      <c r="I454" s="85"/>
-      <c r="J454" s="88"/>
-      <c r="K454" s="88"/>
-      <c r="L454" s="88"/>
-      <c r="M454" s="88"/>
-      <c r="N454" s="88"/>
-      <c r="O454" s="88"/>
-      <c r="P454" s="88"/>
-      <c r="Q454" s="88"/>
-      <c r="R454" s="88"/>
-      <c r="S454" s="89"/>
+      <c r="I454" s="136"/>
+      <c r="J454" s="142"/>
+      <c r="K454" s="142"/>
+      <c r="L454" s="142"/>
+      <c r="M454" s="142"/>
+      <c r="N454" s="142"/>
+      <c r="O454" s="142"/>
+      <c r="P454" s="142"/>
+      <c r="Q454" s="142"/>
+      <c r="R454" s="142"/>
+      <c r="S454" s="143"/>
       <c r="T454" s="35"/>
       <c r="U454" s="35"/>
       <c r="V454" s="35"/>
@@ -16560,17 +16919,17 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
       <c r="H455" s="18"/>
-      <c r="I455" s="82"/>
-      <c r="J455" s="79"/>
-      <c r="K455" s="79"/>
-      <c r="L455" s="79"/>
-      <c r="M455" s="79"/>
-      <c r="N455" s="79"/>
-      <c r="O455" s="79"/>
-      <c r="P455" s="79"/>
-      <c r="Q455" s="79"/>
-      <c r="R455" s="79"/>
-      <c r="S455" s="80"/>
+      <c r="I455" s="132"/>
+      <c r="J455" s="120"/>
+      <c r="K455" s="120"/>
+      <c r="L455" s="120"/>
+      <c r="M455" s="120"/>
+      <c r="N455" s="120"/>
+      <c r="O455" s="120"/>
+      <c r="P455" s="120"/>
+      <c r="Q455" s="120"/>
+      <c r="R455" s="120"/>
+      <c r="S455" s="121"/>
       <c r="T455" s="35"/>
       <c r="U455" s="35"/>
       <c r="V455" s="35"/>
@@ -16591,17 +16950,17 @@
       <c r="F456" s="18"/>
       <c r="G456" s="18"/>
       <c r="H456" s="18"/>
-      <c r="I456" s="82"/>
-      <c r="J456" s="79"/>
-      <c r="K456" s="79"/>
-      <c r="L456" s="79"/>
-      <c r="M456" s="79"/>
-      <c r="N456" s="79"/>
-      <c r="O456" s="79"/>
-      <c r="P456" s="79"/>
-      <c r="Q456" s="79"/>
-      <c r="R456" s="79"/>
-      <c r="S456" s="80"/>
+      <c r="I456" s="132"/>
+      <c r="J456" s="120"/>
+      <c r="K456" s="120"/>
+      <c r="L456" s="120"/>
+      <c r="M456" s="120"/>
+      <c r="N456" s="120"/>
+      <c r="O456" s="120"/>
+      <c r="P456" s="120"/>
+      <c r="Q456" s="120"/>
+      <c r="R456" s="120"/>
+      <c r="S456" s="121"/>
       <c r="T456" s="35"/>
       <c r="U456" s="35"/>
       <c r="V456" s="35"/>
@@ -16622,17 +16981,17 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
       <c r="H457" s="18"/>
-      <c r="I457" s="82"/>
-      <c r="J457" s="79"/>
-      <c r="K457" s="79"/>
-      <c r="L457" s="79"/>
-      <c r="M457" s="79"/>
-      <c r="N457" s="79"/>
-      <c r="O457" s="79"/>
-      <c r="P457" s="79"/>
-      <c r="Q457" s="79"/>
-      <c r="R457" s="79"/>
-      <c r="S457" s="80"/>
+      <c r="I457" s="132"/>
+      <c r="J457" s="120"/>
+      <c r="K457" s="120"/>
+      <c r="L457" s="120"/>
+      <c r="M457" s="120"/>
+      <c r="N457" s="120"/>
+      <c r="O457" s="120"/>
+      <c r="P457" s="120"/>
+      <c r="Q457" s="120"/>
+      <c r="R457" s="120"/>
+      <c r="S457" s="121"/>
       <c r="T457" s="35"/>
       <c r="U457" s="35"/>
       <c r="V457" s="35"/>
@@ -16653,17 +17012,17 @@
       <c r="F458" s="18"/>
       <c r="G458" s="18"/>
       <c r="H458" s="18"/>
-      <c r="I458" s="82"/>
-      <c r="J458" s="79"/>
-      <c r="K458" s="79"/>
-      <c r="L458" s="79"/>
-      <c r="M458" s="79"/>
-      <c r="N458" s="79"/>
-      <c r="O458" s="79"/>
-      <c r="P458" s="79"/>
-      <c r="Q458" s="79"/>
-      <c r="R458" s="79"/>
-      <c r="S458" s="80"/>
+      <c r="I458" s="132"/>
+      <c r="J458" s="120"/>
+      <c r="K458" s="120"/>
+      <c r="L458" s="120"/>
+      <c r="M458" s="120"/>
+      <c r="N458" s="120"/>
+      <c r="O458" s="120"/>
+      <c r="P458" s="120"/>
+      <c r="Q458" s="120"/>
+      <c r="R458" s="120"/>
+      <c r="S458" s="121"/>
       <c r="T458" s="35"/>
       <c r="U458" s="35"/>
       <c r="V458" s="35"/>
@@ -35999,56 +36358,78 @@
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="A145:AA145"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="I147:O147"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="I148:O148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="I149:O149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="I150:O150"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="I151:O151"/>
-    <mergeCell ref="A153:AA153"/>
-    <mergeCell ref="A155:N155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="H159:M159"/>
-    <mergeCell ref="H160:M160"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:M156"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:M157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:M158"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:M166"/>
-    <mergeCell ref="A168:AA168"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:R170"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:M162"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:M163"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:M164"/>
-    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="I414:S414"/>
+    <mergeCell ref="I415:S415"/>
+    <mergeCell ref="I416:S416"/>
+    <mergeCell ref="I417:S417"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="I293:S293"/>
+    <mergeCell ref="I294:S294"/>
+    <mergeCell ref="I295:S295"/>
+    <mergeCell ref="I296:S296"/>
+    <mergeCell ref="I297:S297"/>
+    <mergeCell ref="I298:S298"/>
+    <mergeCell ref="I299:S299"/>
+    <mergeCell ref="A176:AA176"/>
+    <mergeCell ref="I402:S402"/>
+    <mergeCell ref="I403:S403"/>
+    <mergeCell ref="I408:S408"/>
+    <mergeCell ref="B195:T195"/>
+    <mergeCell ref="C196:U196"/>
+    <mergeCell ref="B198:T198"/>
+    <mergeCell ref="C199:U199"/>
+    <mergeCell ref="C200:U200"/>
+    <mergeCell ref="C201:U201"/>
+    <mergeCell ref="I287:S287"/>
+    <mergeCell ref="I288:S288"/>
+    <mergeCell ref="E214:W214"/>
+    <mergeCell ref="E215:W215"/>
+    <mergeCell ref="E217:W217"/>
+    <mergeCell ref="B219:T219"/>
+    <mergeCell ref="C220:O220"/>
+    <mergeCell ref="G228:P228"/>
+    <mergeCell ref="B205:T205"/>
+    <mergeCell ref="C206:U206"/>
+    <mergeCell ref="B208:T208"/>
+    <mergeCell ref="C209:U209"/>
+    <mergeCell ref="C210:U210"/>
+    <mergeCell ref="C211:U211"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:R171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:R172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:R174"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:R173"/>
+    <mergeCell ref="D212:V212"/>
+    <mergeCell ref="I263:S263"/>
+    <mergeCell ref="I264:S264"/>
+    <mergeCell ref="I458:S458"/>
+    <mergeCell ref="D450:E450"/>
+    <mergeCell ref="I407:S407"/>
+    <mergeCell ref="I446:S446"/>
+    <mergeCell ref="I447:S447"/>
+    <mergeCell ref="I241:S241"/>
+    <mergeCell ref="I242:S242"/>
+    <mergeCell ref="I246:S246"/>
+    <mergeCell ref="I252:S252"/>
+    <mergeCell ref="I418:S418"/>
+    <mergeCell ref="I424:S424"/>
+    <mergeCell ref="I425:S425"/>
+    <mergeCell ref="I452:S452"/>
+    <mergeCell ref="I453:S453"/>
+    <mergeCell ref="I454:S454"/>
+    <mergeCell ref="I455:S455"/>
+    <mergeCell ref="I456:S456"/>
+    <mergeCell ref="I457:S457"/>
+    <mergeCell ref="I409:S409"/>
+    <mergeCell ref="I410:S410"/>
+    <mergeCell ref="I413:S413"/>
     <mergeCell ref="A179:T179"/>
     <mergeCell ref="A180:T180"/>
     <mergeCell ref="B181:T181"/>
@@ -36073,78 +36454,56 @@
     <mergeCell ref="I247:S247"/>
     <mergeCell ref="I248:S248"/>
     <mergeCell ref="I249:S249"/>
-    <mergeCell ref="D212:V212"/>
-    <mergeCell ref="I263:S263"/>
-    <mergeCell ref="I264:S264"/>
-    <mergeCell ref="I458:S458"/>
-    <mergeCell ref="D450:E450"/>
-    <mergeCell ref="I407:S407"/>
-    <mergeCell ref="I446:S446"/>
-    <mergeCell ref="I447:S447"/>
-    <mergeCell ref="I241:S241"/>
-    <mergeCell ref="I242:S242"/>
-    <mergeCell ref="I246:S246"/>
-    <mergeCell ref="I252:S252"/>
-    <mergeCell ref="I418:S418"/>
-    <mergeCell ref="I424:S424"/>
-    <mergeCell ref="I425:S425"/>
-    <mergeCell ref="I452:S452"/>
-    <mergeCell ref="I453:S453"/>
-    <mergeCell ref="I454:S454"/>
-    <mergeCell ref="I455:S455"/>
-    <mergeCell ref="I456:S456"/>
-    <mergeCell ref="I457:S457"/>
-    <mergeCell ref="I409:S409"/>
-    <mergeCell ref="I410:S410"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:R171"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:R172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:R174"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:R173"/>
-    <mergeCell ref="A176:AA176"/>
-    <mergeCell ref="I402:S402"/>
-    <mergeCell ref="I403:S403"/>
-    <mergeCell ref="I408:S408"/>
-    <mergeCell ref="B195:T195"/>
-    <mergeCell ref="C196:U196"/>
-    <mergeCell ref="B198:T198"/>
-    <mergeCell ref="C199:U199"/>
-    <mergeCell ref="C200:U200"/>
-    <mergeCell ref="C201:U201"/>
-    <mergeCell ref="I287:S287"/>
-    <mergeCell ref="I288:S288"/>
-    <mergeCell ref="E214:W214"/>
-    <mergeCell ref="E215:W215"/>
-    <mergeCell ref="E217:W217"/>
-    <mergeCell ref="B219:T219"/>
-    <mergeCell ref="C220:O220"/>
-    <mergeCell ref="G228:P228"/>
-    <mergeCell ref="B205:T205"/>
-    <mergeCell ref="C206:U206"/>
-    <mergeCell ref="B208:T208"/>
-    <mergeCell ref="C209:U209"/>
-    <mergeCell ref="C210:U210"/>
-    <mergeCell ref="C211:U211"/>
-    <mergeCell ref="I413:S413"/>
-    <mergeCell ref="I414:S414"/>
-    <mergeCell ref="I415:S415"/>
-    <mergeCell ref="I416:S416"/>
-    <mergeCell ref="I417:S417"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="I293:S293"/>
-    <mergeCell ref="I294:S294"/>
-    <mergeCell ref="I295:S295"/>
-    <mergeCell ref="I296:S296"/>
-    <mergeCell ref="I297:S297"/>
-    <mergeCell ref="I298:S298"/>
-    <mergeCell ref="I299:S299"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:M166"/>
+    <mergeCell ref="A168:AA168"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:R170"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:M162"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:M163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:M164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="I151:O151"/>
+    <mergeCell ref="A153:AA153"/>
+    <mergeCell ref="A155:N155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="H159:M159"/>
+    <mergeCell ref="H160:M160"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:M156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:M157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:M158"/>
+    <mergeCell ref="A145:AA145"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="I147:O147"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="I148:O148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="I149:O149"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="I150:O150"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -36152,7 +36511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C28946-8DA6-4C6E-88E7-8E0541BC412C}">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -36288,19 +36647,19 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="146">
+      <c r="M4" s="110">
         <v>1</v>
       </c>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -36323,19 +36682,19 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="146">
+      <c r="M5" s="110">
         <v>2</v>
       </c>
-      <c r="N5" s="145" t="s">
+      <c r="N5" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -36358,19 +36717,19 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="146">
+      <c r="M6" s="110">
         <v>3</v>
       </c>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -36393,19 +36752,19 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="146">
+      <c r="M7" s="110">
         <v>4</v>
       </c>
-      <c r="N7" s="145" t="s">
+      <c r="N7" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -36428,19 +36787,19 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="146">
+      <c r="M8" s="110">
         <v>5</v>
       </c>
-      <c r="N8" s="145" t="s">
+      <c r="N8" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -36463,19 +36822,19 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="146">
+      <c r="M9" s="110">
         <v>6</v>
       </c>
-      <c r="N9" s="145" t="s">
+      <c r="N9" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -36498,19 +36857,19 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="146">
+      <c r="M10" s="110">
         <v>7</v>
       </c>
-      <c r="N10" s="145" t="s">
+      <c r="N10" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -36533,15 +36892,15 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -36564,15 +36923,15 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -36595,15 +36954,15 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -36626,15 +36985,15 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -37329,10 +37688,10 @@
     <row r="37" spans="1:29" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -37367,17 +37726,17 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145" t="s">
+      <c r="H38" s="109"/>
+      <c r="I38" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -37400,17 +37759,17 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151" t="s">
+      <c r="H39" s="115"/>
+      <c r="I39" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
@@ -37433,17 +37792,17 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151" t="s">
+      <c r="H40" s="115"/>
+      <c r="I40" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -37958,22 +38317,22 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
-      <c r="B57" s="149">
+      <c r="B57" s="113">
         <v>1</v>
       </c>
-      <c r="C57" s="138" t="s">
+      <c r="C57" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="D57" s="135"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="138" t="s">
+      <c r="J57" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="K57" s="138"/>
+      <c r="K57" s="102"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -38027,16 +38386,16 @@
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="148" t="s">
+      <c r="C59" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="139" t="s">
+      <c r="J59" s="103" t="s">
         <v>267</v>
       </c>
       <c r="K59" s="5"/>
@@ -38063,7 +38422,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="139" t="s">
+      <c r="D60" s="103" t="s">
         <v>256</v>
       </c>
       <c r="E60" s="5"/>
@@ -38071,7 +38430,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="139" t="s">
+      <c r="J60" s="103" t="s">
         <v>268</v>
       </c>
       <c r="K60" s="5"/>
@@ -38098,7 +38457,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="139" t="s">
+      <c r="D61" s="103" t="s">
         <v>257</v>
       </c>
       <c r="E61" s="5"/>
@@ -38106,7 +38465,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="139" t="s">
+      <c r="J61" s="103" t="s">
         <v>269</v>
       </c>
       <c r="K61" s="5"/>
@@ -38135,7 +38494,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="139" t="s">
+      <c r="D62" s="103" t="s">
         <v>258</v>
       </c>
       <c r="E62" s="5"/>
@@ -38167,7 +38526,7 @@
     <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="139" t="s">
+      <c r="C63" s="103" t="s">
         <v>260</v>
       </c>
       <c r="D63" s="5"/>
@@ -38200,7 +38559,7 @@
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="139" t="s">
+      <c r="C64" s="103" t="s">
         <v>261</v>
       </c>
       <c r="D64" s="5"/>
@@ -38209,18 +38568,18 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="149" t="s">
+      <c r="J64" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-      <c r="S64" s="136"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
+      <c r="S64" s="100"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -38235,27 +38594,27 @@
     <row r="65" spans="1:29" ht="15.75" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="137">
+      <c r="C65" s="101">
         <v>1.2</v>
       </c>
-      <c r="D65" s="137" t="s">
+      <c r="D65" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="136"/>
-      <c r="P65" s="136"/>
-      <c r="Q65" s="136"/>
-      <c r="R65" s="136"/>
-      <c r="S65" s="136"/>
+      <c r="J65" s="100"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="100"/>
+      <c r="P65" s="100"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="100"/>
+      <c r="S65" s="100"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
@@ -38270,27 +38629,27 @@
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="150" t="s">
+      <c r="C66" s="101"/>
+      <c r="D66" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="150" t="s">
+      <c r="J66" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
-      <c r="Q66" s="136"/>
-      <c r="R66" s="136"/>
-      <c r="S66" s="136"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="100"/>
+      <c r="Q66" s="100"/>
+      <c r="R66" s="100"/>
+      <c r="S66" s="100"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
@@ -38305,27 +38664,27 @@
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="150" t="s">
+      <c r="C67" s="100"/>
+      <c r="D67" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="136"/>
-      <c r="F67" s="136"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="150" t="s">
+      <c r="J67" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="136"/>
-      <c r="P67" s="136"/>
-      <c r="Q67" s="136"/>
-      <c r="R67" s="136"/>
-      <c r="S67" s="136"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="100"/>
+      <c r="P67" s="100"/>
+      <c r="Q67" s="100"/>
+      <c r="R67" s="100"/>
+      <c r="S67" s="100"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
@@ -38340,25 +38699,25 @@
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="150" t="s">
+      <c r="C68" s="100"/>
+      <c r="D68" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="136"/>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-      <c r="N68" s="136"/>
-      <c r="O68" s="136"/>
-      <c r="P68" s="136"/>
-      <c r="Q68" s="136"/>
-      <c r="R68" s="136"/>
-      <c r="S68" s="136"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="100"/>
+      <c r="P68" s="100"/>
+      <c r="Q68" s="100"/>
+      <c r="R68" s="100"/>
+      <c r="S68" s="100"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
@@ -38373,25 +38732,25 @@
     <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="150" t="s">
+      <c r="C69" s="100"/>
+      <c r="D69" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="136"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-      <c r="N69" s="136"/>
-      <c r="O69" s="136"/>
-      <c r="P69" s="136"/>
-      <c r="Q69" s="136"/>
-      <c r="R69" s="136"/>
-      <c r="S69" s="136"/>
+      <c r="J69" s="100"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="100"/>
+      <c r="R69" s="100"/>
+      <c r="S69" s="100"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
@@ -38406,25 +38765,25 @@
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="150" t="s">
+      <c r="C70" s="100"/>
+      <c r="D70" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="E70" s="136"/>
-      <c r="F70" s="136"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="136"/>
-      <c r="K70" s="136"/>
-      <c r="L70" s="136"/>
-      <c r="M70" s="136"/>
-      <c r="N70" s="136"/>
-      <c r="O70" s="136"/>
-      <c r="P70" s="136"/>
-      <c r="Q70" s="136"/>
-      <c r="R70" s="136"/>
-      <c r="S70" s="136"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="100"/>
+      <c r="S70" s="100"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
@@ -38439,25 +38798,25 @@
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136" t="s">
+      <c r="C71" s="100"/>
+      <c r="D71" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="E71" s="136"/>
-      <c r="F71" s="136"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="136"/>
-      <c r="K71" s="136"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="136"/>
-      <c r="P71" s="136"/>
-      <c r="Q71" s="136"/>
-      <c r="R71" s="136"/>
-      <c r="S71" s="136"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="100"/>
+      <c r="P71" s="100"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="100"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
@@ -38472,7 +38831,7 @@
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="136"/>
+      <c r="C72" s="100"/>
       <c r="D72" s="5" t="s">
         <v>273</v>
       </c>
@@ -38481,16 +38840,16 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="136"/>
-      <c r="K72" s="136"/>
-      <c r="L72" s="136"/>
-      <c r="M72" s="136"/>
-      <c r="N72" s="136"/>
-      <c r="O72" s="136"/>
-      <c r="P72" s="136"/>
-      <c r="Q72" s="136"/>
-      <c r="R72" s="136"/>
-      <c r="S72" s="136"/>
+      <c r="J72" s="100"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="100"/>
+      <c r="P72" s="100"/>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="100"/>
+      <c r="S72" s="100"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
@@ -38505,8 +38864,8 @@
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="139" t="s">
+      <c r="C73" s="100"/>
+      <c r="D73" s="103" t="s">
         <v>274</v>
       </c>
       <c r="E73" s="5"/>
@@ -38538,7 +38897,7 @@
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="136"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -38569,10 +38928,10 @@
     <row r="75" spans="1:29" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="137">
+      <c r="C75" s="101">
         <v>1.3</v>
       </c>
-      <c r="D75" s="148" t="s">
+      <c r="D75" s="112" t="s">
         <v>275</v>
       </c>
       <c r="E75" s="5"/>
@@ -38604,8 +38963,8 @@
     <row r="76" spans="1:29" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="150" t="s">
+      <c r="C76" s="101"/>
+      <c r="D76" s="114" t="s">
         <v>282</v>
       </c>
       <c r="E76" s="5"/>
@@ -38637,8 +38996,8 @@
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="150" t="s">
+      <c r="C77" s="100"/>
+      <c r="D77" s="114" t="s">
         <v>276</v>
       </c>
       <c r="E77" s="5"/>
@@ -38670,8 +39029,8 @@
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="139" t="s">
+      <c r="C78" s="100"/>
+      <c r="D78" s="103" t="s">
         <v>277</v>
       </c>
       <c r="E78" s="5"/>
@@ -38703,8 +39062,8 @@
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="150" t="s">
+      <c r="C79" s="100"/>
+      <c r="D79" s="114" t="s">
         <v>265</v>
       </c>
       <c r="E79" s="5"/>
@@ -38736,8 +39095,8 @@
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="150" t="s">
+      <c r="C80" s="100"/>
+      <c r="D80" s="114" t="s">
         <v>271</v>
       </c>
       <c r="E80" s="5"/>
@@ -38769,8 +39128,8 @@
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136" t="s">
+      <c r="C81" s="100"/>
+      <c r="D81" s="100" t="s">
         <v>278</v>
       </c>
       <c r="E81" s="5"/>
@@ -38802,7 +39161,7 @@
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="136"/>
+      <c r="C82" s="100"/>
       <c r="D82" s="5" t="s">
         <v>279</v>
       </c>
@@ -38835,8 +39194,8 @@
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="139" t="s">
+      <c r="C83" s="100"/>
+      <c r="D83" s="103" t="s">
         <v>274</v>
       </c>
       <c r="E83" s="5"/>
@@ -38868,7 +39227,7 @@
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="136"/>
+      <c r="C84" s="100"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -38899,10 +39258,10 @@
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="137">
+      <c r="C85" s="101">
         <v>1.4</v>
       </c>
-      <c r="D85" s="148" t="s">
+      <c r="D85" s="112" t="s">
         <v>280</v>
       </c>
       <c r="E85" s="5"/>
@@ -38934,8 +39293,8 @@
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="139" t="s">
+      <c r="C86" s="100"/>
+      <c r="D86" s="103" t="s">
         <v>281</v>
       </c>
       <c r="E86" s="5"/>
@@ -38967,7 +39326,7 @@
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="136"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -38998,7 +39357,7 @@
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="136"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -39029,7 +39388,7 @@
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="136"/>
+      <c r="C89" s="100"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -39060,7 +39419,7 @@
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="136"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -39091,7 +39450,7 @@
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="136"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -39122,7 +39481,7 @@
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="136"/>
+      <c r="C92" s="100"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -39153,7 +39512,7 @@
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="136"/>
+      <c r="C93" s="100"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -39184,7 +39543,7 @@
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="136"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -39215,7 +39574,7 @@
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="136"/>
+      <c r="C95" s="100"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -39246,7 +39605,7 @@
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="136"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -39277,7 +39636,7 @@
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="136"/>
+      <c r="C97" s="100"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -39308,7 +39667,7 @@
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="136"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -39339,7 +39698,7 @@
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="136"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -39370,7 +39729,7 @@
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="136"/>
+      <c r="C100" s="100"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -39401,7 +39760,7 @@
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="136"/>
+      <c r="C101" s="100"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -39432,7 +39791,7 @@
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="136"/>
+      <c r="C102" s="100"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -39463,7 +39822,7 @@
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="136"/>
+      <c r="C103" s="100"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -39494,7 +39853,7 @@
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="136"/>
+      <c r="C104" s="100"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -39525,7 +39884,7 @@
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="136"/>
+      <c r="C105" s="100"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -39556,7 +39915,7 @@
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="136"/>
+      <c r="C106" s="100"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -39587,7 +39946,7 @@
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="136"/>
+      <c r="C107" s="100"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -39618,7 +39977,7 @@
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="136"/>
+      <c r="C108" s="100"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -39649,7 +40008,7 @@
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="136"/>
+      <c r="C109" s="100"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -39680,7 +40039,7 @@
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="136"/>
+      <c r="C110" s="100"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -39711,7 +40070,7 @@
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="136"/>
+      <c r="C111" s="100"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -39742,7 +40101,7 @@
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="136"/>
+      <c r="C112" s="100"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -40825,35 +41184,35 @@
       <c r="AC146" s="5"/>
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A147" s="90" t="s">
+      <c r="A147" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="77"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="77"/>
-      <c r="I147" s="77"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="77"/>
-      <c r="M147" s="77"/>
-      <c r="N147" s="77"/>
-      <c r="O147" s="77"/>
-      <c r="P147" s="77"/>
-      <c r="Q147" s="77"/>
-      <c r="R147" s="77"/>
-      <c r="S147" s="77"/>
-      <c r="T147" s="77"/>
-      <c r="U147" s="77"/>
-      <c r="V147" s="77"/>
-      <c r="W147" s="77"/>
-      <c r="X147" s="77"/>
-      <c r="Y147" s="77"/>
-      <c r="Z147" s="77"/>
-      <c r="AA147" s="78"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="117"/>
+      <c r="E147" s="117"/>
+      <c r="F147" s="117"/>
+      <c r="G147" s="117"/>
+      <c r="H147" s="117"/>
+      <c r="I147" s="117"/>
+      <c r="J147" s="117"/>
+      <c r="K147" s="117"/>
+      <c r="L147" s="117"/>
+      <c r="M147" s="117"/>
+      <c r="N147" s="117"/>
+      <c r="O147" s="117"/>
+      <c r="P147" s="117"/>
+      <c r="Q147" s="117"/>
+      <c r="R147" s="117"/>
+      <c r="S147" s="117"/>
+      <c r="T147" s="117"/>
+      <c r="U147" s="117"/>
+      <c r="V147" s="117"/>
+      <c r="W147" s="117"/>
+      <c r="X147" s="117"/>
+      <c r="Y147" s="117"/>
+      <c r="Z147" s="117"/>
+      <c r="AA147" s="118"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
     </row>
@@ -40892,24 +41251,24 @@
       <c r="A149" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="108" t="s">
+      <c r="B149" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="79"/>
-      <c r="D149" s="79"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="79"/>
-      <c r="H149" s="80"/>
-      <c r="I149" s="108" t="s">
+      <c r="C149" s="120"/>
+      <c r="D149" s="120"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="120"/>
+      <c r="G149" s="120"/>
+      <c r="H149" s="121"/>
+      <c r="I149" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="J149" s="79"/>
-      <c r="K149" s="79"/>
-      <c r="L149" s="79"/>
-      <c r="M149" s="79"/>
-      <c r="N149" s="79"/>
-      <c r="O149" s="80"/>
+      <c r="J149" s="120"/>
+      <c r="K149" s="120"/>
+      <c r="L149" s="120"/>
+      <c r="M149" s="120"/>
+      <c r="N149" s="120"/>
+      <c r="O149" s="121"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
@@ -40929,22 +41288,22 @@
       <c r="A150" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="100" t="s">
+      <c r="B150" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="107"/>
-      <c r="J150" s="79"/>
-      <c r="K150" s="79"/>
-      <c r="L150" s="79"/>
-      <c r="M150" s="79"/>
-      <c r="N150" s="79"/>
-      <c r="O150" s="80"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="120"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="120"/>
+      <c r="G150" s="120"/>
+      <c r="H150" s="121"/>
+      <c r="I150" s="123"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="120"/>
+      <c r="M150" s="120"/>
+      <c r="N150" s="120"/>
+      <c r="O150" s="121"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -40964,22 +41323,22 @@
       <c r="A151" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="79"/>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="79"/>
-      <c r="H151" s="80"/>
-      <c r="I151" s="107"/>
-      <c r="J151" s="79"/>
-      <c r="K151" s="79"/>
-      <c r="L151" s="79"/>
-      <c r="M151" s="79"/>
-      <c r="N151" s="79"/>
-      <c r="O151" s="80"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="120"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="120"/>
+      <c r="G151" s="120"/>
+      <c r="H151" s="121"/>
+      <c r="I151" s="123"/>
+      <c r="J151" s="120"/>
+      <c r="K151" s="120"/>
+      <c r="L151" s="120"/>
+      <c r="M151" s="120"/>
+      <c r="N151" s="120"/>
+      <c r="O151" s="121"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
@@ -40999,24 +41358,24 @@
       <c r="A152" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="100" t="s">
+      <c r="C152" s="120"/>
+      <c r="D152" s="120"/>
+      <c r="E152" s="120"/>
+      <c r="F152" s="120"/>
+      <c r="G152" s="120"/>
+      <c r="H152" s="121"/>
+      <c r="I152" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="J152" s="79"/>
-      <c r="K152" s="79"/>
-      <c r="L152" s="79"/>
-      <c r="M152" s="79"/>
-      <c r="N152" s="79"/>
-      <c r="O152" s="80"/>
+      <c r="J152" s="120"/>
+      <c r="K152" s="120"/>
+      <c r="L152" s="120"/>
+      <c r="M152" s="120"/>
+      <c r="N152" s="120"/>
+      <c r="O152" s="121"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
@@ -41036,22 +41395,22 @@
       <c r="A153" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="100" t="s">
+      <c r="B153" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="107"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="79"/>
-      <c r="L153" s="79"/>
-      <c r="M153" s="79"/>
-      <c r="N153" s="79"/>
-      <c r="O153" s="80"/>
+      <c r="C153" s="120"/>
+      <c r="D153" s="120"/>
+      <c r="E153" s="120"/>
+      <c r="F153" s="120"/>
+      <c r="G153" s="120"/>
+      <c r="H153" s="121"/>
+      <c r="I153" s="123"/>
+      <c r="J153" s="120"/>
+      <c r="K153" s="120"/>
+      <c r="L153" s="120"/>
+      <c r="M153" s="120"/>
+      <c r="N153" s="120"/>
+      <c r="O153" s="121"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
@@ -41099,35 +41458,35 @@
       <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A155" s="90" t="s">
+      <c r="A155" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="77"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="77"/>
-      <c r="I155" s="77"/>
-      <c r="J155" s="77"/>
-      <c r="K155" s="77"/>
-      <c r="L155" s="77"/>
-      <c r="M155" s="77"/>
-      <c r="N155" s="77"/>
-      <c r="O155" s="77"/>
-      <c r="P155" s="77"/>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="77"/>
-      <c r="S155" s="77"/>
-      <c r="T155" s="77"/>
-      <c r="U155" s="77"/>
-      <c r="V155" s="77"/>
-      <c r="W155" s="77"/>
-      <c r="X155" s="77"/>
-      <c r="Y155" s="77"/>
-      <c r="Z155" s="77"/>
-      <c r="AA155" s="78"/>
+      <c r="B155" s="117"/>
+      <c r="C155" s="117"/>
+      <c r="D155" s="117"/>
+      <c r="E155" s="117"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="117"/>
+      <c r="J155" s="117"/>
+      <c r="K155" s="117"/>
+      <c r="L155" s="117"/>
+      <c r="M155" s="117"/>
+      <c r="N155" s="117"/>
+      <c r="O155" s="117"/>
+      <c r="P155" s="117"/>
+      <c r="Q155" s="117"/>
+      <c r="R155" s="117"/>
+      <c r="S155" s="117"/>
+      <c r="T155" s="117"/>
+      <c r="U155" s="117"/>
+      <c r="V155" s="117"/>
+      <c r="W155" s="117"/>
+      <c r="X155" s="117"/>
+      <c r="Y155" s="117"/>
+      <c r="Z155" s="117"/>
+      <c r="AA155" s="118"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
     </row>
@@ -41163,22 +41522,22 @@
       <c r="AC156" s="5"/>
     </row>
     <row r="157" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A157" s="92" t="s">
+      <c r="A157" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="76"/>
-      <c r="C157" s="76"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="76"/>
-      <c r="G157" s="76"/>
-      <c r="H157" s="76"/>
-      <c r="I157" s="76"/>
-      <c r="J157" s="76"/>
-      <c r="K157" s="76"/>
-      <c r="L157" s="76"/>
-      <c r="M157" s="76"/>
-      <c r="N157" s="76"/>
+      <c r="B157" s="127"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="127"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="127"/>
+      <c r="L157" s="127"/>
+      <c r="M157" s="127"/>
+      <c r="N157" s="127"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
@@ -41199,24 +41558,24 @@
       <c r="A158" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="108" t="s">
+      <c r="B158" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="80"/>
-      <c r="F158" s="108" t="s">
+      <c r="C158" s="120"/>
+      <c r="D158" s="120"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="G158" s="80"/>
-      <c r="H158" s="108" t="s">
+      <c r="G158" s="121"/>
+      <c r="H158" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="80"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="121"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -41238,22 +41597,22 @@
       <c r="A159" s="8">
         <v>1</v>
       </c>
-      <c r="B159" s="107" t="s">
+      <c r="B159" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="80"/>
-      <c r="F159" s="101" t="s">
+      <c r="C159" s="120"/>
+      <c r="D159" s="120"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G159" s="80"/>
-      <c r="H159" s="107"/>
-      <c r="I159" s="79"/>
-      <c r="J159" s="79"/>
-      <c r="K159" s="79"/>
-      <c r="L159" s="79"/>
-      <c r="M159" s="80"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="123"/>
+      <c r="I159" s="120"/>
+      <c r="J159" s="120"/>
+      <c r="K159" s="120"/>
+      <c r="L159" s="120"/>
+      <c r="M159" s="121"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -41275,22 +41634,22 @@
       <c r="A160" s="8">
         <v>2</v>
       </c>
-      <c r="B160" s="107" t="s">
+      <c r="B160" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C160" s="79"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="80"/>
-      <c r="F160" s="101" t="s">
+      <c r="C160" s="120"/>
+      <c r="D160" s="120"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="80"/>
-      <c r="H160" s="107"/>
-      <c r="I160" s="79"/>
-      <c r="J160" s="79"/>
-      <c r="K160" s="79"/>
-      <c r="L160" s="79"/>
-      <c r="M160" s="80"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="123"/>
+      <c r="I160" s="120"/>
+      <c r="J160" s="120"/>
+      <c r="K160" s="120"/>
+      <c r="L160" s="120"/>
+      <c r="M160" s="121"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -41312,22 +41671,22 @@
       <c r="A161" s="8">
         <v>3</v>
       </c>
-      <c r="B161" s="107" t="s">
+      <c r="B161" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="80"/>
-      <c r="F161" s="101" t="s">
+      <c r="C161" s="120"/>
+      <c r="D161" s="120"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G161" s="80"/>
-      <c r="H161" s="107"/>
-      <c r="I161" s="79"/>
-      <c r="J161" s="79"/>
-      <c r="K161" s="79"/>
-      <c r="L161" s="79"/>
-      <c r="M161" s="80"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="123"/>
+      <c r="I161" s="120"/>
+      <c r="J161" s="120"/>
+      <c r="K161" s="120"/>
+      <c r="L161" s="120"/>
+      <c r="M161" s="121"/>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
@@ -41349,24 +41708,24 @@
       <c r="A162" s="8">
         <v>4</v>
       </c>
-      <c r="B162" s="107" t="s">
+      <c r="B162" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="80"/>
-      <c r="F162" s="101" t="s">
+      <c r="C162" s="120"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G162" s="80"/>
-      <c r="H162" s="107" t="s">
+      <c r="G162" s="121"/>
+      <c r="H162" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="I162" s="79"/>
-      <c r="J162" s="79"/>
-      <c r="K162" s="79"/>
-      <c r="L162" s="79"/>
-      <c r="M162" s="80"/>
+      <c r="I162" s="120"/>
+      <c r="J162" s="120"/>
+      <c r="K162" s="120"/>
+      <c r="L162" s="120"/>
+      <c r="M162" s="121"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
@@ -41388,22 +41747,22 @@
       <c r="A163" s="8">
         <v>5</v>
       </c>
-      <c r="B163" s="107" t="s">
+      <c r="B163" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="110" t="s">
+      <c r="C163" s="120"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="G163" s="80"/>
-      <c r="H163" s="107"/>
-      <c r="I163" s="79"/>
-      <c r="J163" s="79"/>
-      <c r="K163" s="79"/>
-      <c r="L163" s="79"/>
-      <c r="M163" s="80"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="123"/>
+      <c r="I163" s="120"/>
+      <c r="J163" s="120"/>
+      <c r="K163" s="120"/>
+      <c r="L163" s="120"/>
+      <c r="M163" s="121"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
@@ -41425,22 +41784,22 @@
       <c r="A164" s="8">
         <v>6</v>
       </c>
-      <c r="B164" s="107" t="s">
+      <c r="B164" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="79"/>
-      <c r="D164" s="79"/>
-      <c r="E164" s="80"/>
-      <c r="F164" s="101" t="s">
+      <c r="C164" s="120"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G164" s="80"/>
-      <c r="H164" s="107"/>
-      <c r="I164" s="79"/>
-      <c r="J164" s="79"/>
-      <c r="K164" s="79"/>
-      <c r="L164" s="79"/>
-      <c r="M164" s="80"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="123"/>
+      <c r="I164" s="120"/>
+      <c r="J164" s="120"/>
+      <c r="K164" s="120"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="121"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
@@ -41462,22 +41821,22 @@
       <c r="A165" s="8">
         <v>7</v>
       </c>
-      <c r="B165" s="107" t="s">
+      <c r="B165" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C165" s="79"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="80"/>
-      <c r="F165" s="110" t="s">
+      <c r="C165" s="120"/>
+      <c r="D165" s="120"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="G165" s="80"/>
-      <c r="H165" s="107"/>
-      <c r="I165" s="79"/>
-      <c r="J165" s="79"/>
-      <c r="K165" s="79"/>
-      <c r="L165" s="79"/>
-      <c r="M165" s="80"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="123"/>
+      <c r="I165" s="120"/>
+      <c r="J165" s="120"/>
+      <c r="K165" s="120"/>
+      <c r="L165" s="120"/>
+      <c r="M165" s="121"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
@@ -41499,22 +41858,22 @@
       <c r="A166" s="8">
         <v>8</v>
       </c>
-      <c r="B166" s="107" t="s">
+      <c r="B166" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="79"/>
-      <c r="D166" s="79"/>
-      <c r="E166" s="80"/>
-      <c r="F166" s="101" t="s">
+      <c r="C166" s="120"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G166" s="80"/>
-      <c r="H166" s="107"/>
-      <c r="I166" s="79"/>
-      <c r="J166" s="79"/>
-      <c r="K166" s="79"/>
-      <c r="L166" s="79"/>
-      <c r="M166" s="80"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="123"/>
+      <c r="I166" s="120"/>
+      <c r="J166" s="120"/>
+      <c r="K166" s="120"/>
+      <c r="L166" s="120"/>
+      <c r="M166" s="121"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
@@ -41536,24 +41895,24 @@
       <c r="A167" s="8">
         <v>9</v>
       </c>
-      <c r="B167" s="107" t="s">
+      <c r="B167" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="79"/>
-      <c r="D167" s="79"/>
-      <c r="E167" s="80"/>
-      <c r="F167" s="101" t="s">
+      <c r="C167" s="120"/>
+      <c r="D167" s="120"/>
+      <c r="E167" s="121"/>
+      <c r="F167" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G167" s="80"/>
-      <c r="H167" s="107" t="s">
+      <c r="G167" s="121"/>
+      <c r="H167" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="I167" s="79"/>
-      <c r="J167" s="79"/>
-      <c r="K167" s="79"/>
-      <c r="L167" s="79"/>
-      <c r="M167" s="80"/>
+      <c r="I167" s="120"/>
+      <c r="J167" s="120"/>
+      <c r="K167" s="120"/>
+      <c r="L167" s="120"/>
+      <c r="M167" s="121"/>
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
@@ -41575,24 +41934,24 @@
       <c r="A168" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B168" s="107" t="s">
+      <c r="B168" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C168" s="79"/>
-      <c r="D168" s="79"/>
-      <c r="E168" s="80"/>
-      <c r="F168" s="101" t="s">
+      <c r="C168" s="120"/>
+      <c r="D168" s="120"/>
+      <c r="E168" s="121"/>
+      <c r="F168" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G168" s="80"/>
-      <c r="H168" s="107" t="s">
+      <c r="G168" s="121"/>
+      <c r="H168" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="I168" s="79"/>
-      <c r="J168" s="79"/>
-      <c r="K168" s="79"/>
-      <c r="L168" s="79"/>
-      <c r="M168" s="80"/>
+      <c r="I168" s="120"/>
+      <c r="J168" s="120"/>
+      <c r="K168" s="120"/>
+      <c r="L168" s="120"/>
+      <c r="M168" s="121"/>
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
@@ -41642,35 +42001,35 @@
       <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A170" s="90" t="s">
+      <c r="A170" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="77"/>
-      <c r="I170" s="77"/>
-      <c r="J170" s="77"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="77"/>
-      <c r="M170" s="77"/>
-      <c r="N170" s="77"/>
-      <c r="O170" s="77"/>
-      <c r="P170" s="77"/>
-      <c r="Q170" s="77"/>
-      <c r="R170" s="77"/>
-      <c r="S170" s="77"/>
-      <c r="T170" s="77"/>
-      <c r="U170" s="77"/>
-      <c r="V170" s="77"/>
-      <c r="W170" s="77"/>
-      <c r="X170" s="77"/>
-      <c r="Y170" s="77"/>
-      <c r="Z170" s="77"/>
-      <c r="AA170" s="78"/>
+      <c r="B170" s="117"/>
+      <c r="C170" s="117"/>
+      <c r="D170" s="117"/>
+      <c r="E170" s="117"/>
+      <c r="F170" s="117"/>
+      <c r="G170" s="117"/>
+      <c r="H170" s="117"/>
+      <c r="I170" s="117"/>
+      <c r="J170" s="117"/>
+      <c r="K170" s="117"/>
+      <c r="L170" s="117"/>
+      <c r="M170" s="117"/>
+      <c r="N170" s="117"/>
+      <c r="O170" s="117"/>
+      <c r="P170" s="117"/>
+      <c r="Q170" s="117"/>
+      <c r="R170" s="117"/>
+      <c r="S170" s="117"/>
+      <c r="T170" s="117"/>
+      <c r="U170" s="117"/>
+      <c r="V170" s="117"/>
+      <c r="W170" s="117"/>
+      <c r="X170" s="117"/>
+      <c r="Y170" s="117"/>
+      <c r="Z170" s="117"/>
+      <c r="AA170" s="118"/>
       <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
     </row>
@@ -41706,28 +42065,28 @@
       <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A172" s="108" t="s">
+      <c r="A172" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B172" s="79"/>
-      <c r="C172" s="79"/>
-      <c r="D172" s="80"/>
-      <c r="E172" s="108" t="s">
+      <c r="B172" s="120"/>
+      <c r="C172" s="120"/>
+      <c r="D172" s="121"/>
+      <c r="E172" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="F172" s="80"/>
-      <c r="G172" s="109"/>
-      <c r="H172" s="79"/>
-      <c r="I172" s="79"/>
-      <c r="J172" s="79"/>
-      <c r="K172" s="79"/>
-      <c r="L172" s="79"/>
-      <c r="M172" s="79"/>
-      <c r="N172" s="79"/>
-      <c r="O172" s="79"/>
-      <c r="P172" s="79"/>
-      <c r="Q172" s="79"/>
-      <c r="R172" s="80"/>
+      <c r="F172" s="121"/>
+      <c r="G172" s="128"/>
+      <c r="H172" s="120"/>
+      <c r="I172" s="120"/>
+      <c r="J172" s="120"/>
+      <c r="K172" s="120"/>
+      <c r="L172" s="120"/>
+      <c r="M172" s="120"/>
+      <c r="N172" s="120"/>
+      <c r="O172" s="120"/>
+      <c r="P172" s="120"/>
+      <c r="Q172" s="120"/>
+      <c r="R172" s="121"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -41741,30 +42100,30 @@
       <c r="AC172" s="5"/>
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A173" s="97" t="s">
+      <c r="A173" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B173" s="79"/>
-      <c r="C173" s="79"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="98" t="s">
+      <c r="B173" s="120"/>
+      <c r="C173" s="120"/>
+      <c r="D173" s="121"/>
+      <c r="E173" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="80"/>
-      <c r="G173" s="97" t="s">
+      <c r="F173" s="121"/>
+      <c r="G173" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="H173" s="79"/>
-      <c r="I173" s="79"/>
-      <c r="J173" s="79"/>
-      <c r="K173" s="79"/>
-      <c r="L173" s="79"/>
-      <c r="M173" s="79"/>
-      <c r="N173" s="79"/>
-      <c r="O173" s="79"/>
-      <c r="P173" s="79"/>
-      <c r="Q173" s="79"/>
-      <c r="R173" s="80"/>
+      <c r="H173" s="120"/>
+      <c r="I173" s="120"/>
+      <c r="J173" s="120"/>
+      <c r="K173" s="120"/>
+      <c r="L173" s="120"/>
+      <c r="M173" s="120"/>
+      <c r="N173" s="120"/>
+      <c r="O173" s="120"/>
+      <c r="P173" s="120"/>
+      <c r="Q173" s="120"/>
+      <c r="R173" s="121"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
@@ -41778,30 +42137,30 @@
       <c r="AC173" s="5"/>
     </row>
     <row r="174" spans="1:29" ht="45.75" customHeight="1">
-      <c r="A174" s="97" t="s">
+      <c r="A174" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="B174" s="79"/>
-      <c r="C174" s="79"/>
-      <c r="D174" s="80"/>
-      <c r="E174" s="99" t="s">
+      <c r="B174" s="120"/>
+      <c r="C174" s="120"/>
+      <c r="D174" s="121"/>
+      <c r="E174" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F174" s="80"/>
-      <c r="G174" s="97" t="s">
+      <c r="F174" s="121"/>
+      <c r="G174" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="H174" s="79"/>
-      <c r="I174" s="79"/>
-      <c r="J174" s="79"/>
-      <c r="K174" s="79"/>
-      <c r="L174" s="79"/>
-      <c r="M174" s="79"/>
-      <c r="N174" s="79"/>
-      <c r="O174" s="79"/>
-      <c r="P174" s="79"/>
-      <c r="Q174" s="79"/>
-      <c r="R174" s="80"/>
+      <c r="H174" s="120"/>
+      <c r="I174" s="120"/>
+      <c r="J174" s="120"/>
+      <c r="K174" s="120"/>
+      <c r="L174" s="120"/>
+      <c r="M174" s="120"/>
+      <c r="N174" s="120"/>
+      <c r="O174" s="120"/>
+      <c r="P174" s="120"/>
+      <c r="Q174" s="120"/>
+      <c r="R174" s="121"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -41815,30 +42174,30 @@
       <c r="AC174" s="5"/>
     </row>
     <row r="175" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A175" s="97" t="s">
+      <c r="A175" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="B175" s="79"/>
-      <c r="C175" s="79"/>
-      <c r="D175" s="80"/>
-      <c r="E175" s="98" t="s">
+      <c r="B175" s="120"/>
+      <c r="C175" s="120"/>
+      <c r="D175" s="121"/>
+      <c r="E175" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="F175" s="80"/>
-      <c r="G175" s="97" t="s">
+      <c r="F175" s="121"/>
+      <c r="G175" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="H175" s="79"/>
-      <c r="I175" s="79"/>
-      <c r="J175" s="79"/>
-      <c r="K175" s="79"/>
-      <c r="L175" s="79"/>
-      <c r="M175" s="79"/>
-      <c r="N175" s="79"/>
-      <c r="O175" s="79"/>
-      <c r="P175" s="79"/>
-      <c r="Q175" s="79"/>
-      <c r="R175" s="80"/>
+      <c r="H175" s="120"/>
+      <c r="I175" s="120"/>
+      <c r="J175" s="120"/>
+      <c r="K175" s="120"/>
+      <c r="L175" s="120"/>
+      <c r="M175" s="120"/>
+      <c r="N175" s="120"/>
+      <c r="O175" s="120"/>
+      <c r="P175" s="120"/>
+      <c r="Q175" s="120"/>
+      <c r="R175" s="121"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
@@ -41852,30 +42211,30 @@
       <c r="AC175" s="5"/>
     </row>
     <row r="176" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A176" s="100" t="s">
+      <c r="A176" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="79"/>
-      <c r="C176" s="79"/>
-      <c r="D176" s="80"/>
-      <c r="E176" s="101" t="s">
+      <c r="B176" s="120"/>
+      <c r="C176" s="120"/>
+      <c r="D176" s="121"/>
+      <c r="E176" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="F176" s="80"/>
-      <c r="G176" s="100" t="s">
+      <c r="F176" s="121"/>
+      <c r="G176" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="H176" s="79"/>
-      <c r="I176" s="79"/>
-      <c r="J176" s="79"/>
-      <c r="K176" s="79"/>
-      <c r="L176" s="79"/>
-      <c r="M176" s="79"/>
-      <c r="N176" s="79"/>
-      <c r="O176" s="79"/>
-      <c r="P176" s="79"/>
-      <c r="Q176" s="79"/>
-      <c r="R176" s="80"/>
+      <c r="H176" s="120"/>
+      <c r="I176" s="120"/>
+      <c r="J176" s="120"/>
+      <c r="K176" s="120"/>
+      <c r="L176" s="120"/>
+      <c r="M176" s="120"/>
+      <c r="N176" s="120"/>
+      <c r="O176" s="120"/>
+      <c r="P176" s="120"/>
+      <c r="Q176" s="120"/>
+      <c r="R176" s="121"/>
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
@@ -41920,35 +42279,35 @@
       <c r="AC177" s="5"/>
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A178" s="90" t="s">
+      <c r="A178" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B178" s="77"/>
-      <c r="C178" s="77"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="77"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="77"/>
-      <c r="H178" s="77"/>
-      <c r="I178" s="77"/>
-      <c r="J178" s="77"/>
-      <c r="K178" s="77"/>
-      <c r="L178" s="77"/>
-      <c r="M178" s="77"/>
-      <c r="N178" s="77"/>
-      <c r="O178" s="77"/>
-      <c r="P178" s="77"/>
-      <c r="Q178" s="77"/>
-      <c r="R178" s="77"/>
-      <c r="S178" s="77"/>
-      <c r="T178" s="77"/>
-      <c r="U178" s="77"/>
-      <c r="V178" s="77"/>
-      <c r="W178" s="77"/>
-      <c r="X178" s="77"/>
-      <c r="Y178" s="77"/>
-      <c r="Z178" s="77"/>
-      <c r="AA178" s="78"/>
+      <c r="B178" s="117"/>
+      <c r="C178" s="117"/>
+      <c r="D178" s="117"/>
+      <c r="E178" s="117"/>
+      <c r="F178" s="117"/>
+      <c r="G178" s="117"/>
+      <c r="H178" s="117"/>
+      <c r="I178" s="117"/>
+      <c r="J178" s="117"/>
+      <c r="K178" s="117"/>
+      <c r="L178" s="117"/>
+      <c r="M178" s="117"/>
+      <c r="N178" s="117"/>
+      <c r="O178" s="117"/>
+      <c r="P178" s="117"/>
+      <c r="Q178" s="117"/>
+      <c r="R178" s="117"/>
+      <c r="S178" s="117"/>
+      <c r="T178" s="117"/>
+      <c r="U178" s="117"/>
+      <c r="V178" s="117"/>
+      <c r="W178" s="117"/>
+      <c r="X178" s="117"/>
+      <c r="Y178" s="117"/>
+      <c r="Z178" s="117"/>
+      <c r="AA178" s="118"/>
       <c r="AB178" s="5"/>
       <c r="AC178" s="5"/>
     </row>
@@ -42046,21 +42405,21 @@
       <c r="AC181" s="5"/>
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A182" s="111" t="s">
+      <c r="A182" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="B182" s="77"/>
-      <c r="C182" s="77"/>
-      <c r="D182" s="77"/>
-      <c r="E182" s="77"/>
-      <c r="F182" s="77"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="77"/>
-      <c r="I182" s="77"/>
-      <c r="J182" s="77"/>
-      <c r="K182" s="77"/>
-      <c r="L182" s="77"/>
-      <c r="M182" s="78"/>
+      <c r="B182" s="117"/>
+      <c r="C182" s="117"/>
+      <c r="D182" s="117"/>
+      <c r="E182" s="117"/>
+      <c r="F182" s="117"/>
+      <c r="G182" s="117"/>
+      <c r="H182" s="117"/>
+      <c r="I182" s="117"/>
+      <c r="J182" s="117"/>
+      <c r="K182" s="117"/>
+      <c r="L182" s="117"/>
+      <c r="M182" s="118"/>
       <c r="N182" s="21"/>
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
@@ -44475,17 +44834,17 @@
       </c>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
-      <c r="I252" s="83"/>
-      <c r="J252" s="79"/>
-      <c r="K252" s="79"/>
-      <c r="L252" s="79"/>
-      <c r="M252" s="79"/>
-      <c r="N252" s="79"/>
-      <c r="O252" s="79"/>
-      <c r="P252" s="79"/>
-      <c r="Q252" s="79"/>
-      <c r="R252" s="79"/>
-      <c r="S252" s="80"/>
+      <c r="I252" s="133"/>
+      <c r="J252" s="120"/>
+      <c r="K252" s="120"/>
+      <c r="L252" s="120"/>
+      <c r="M252" s="120"/>
+      <c r="N252" s="120"/>
+      <c r="O252" s="120"/>
+      <c r="P252" s="120"/>
+      <c r="Q252" s="120"/>
+      <c r="R252" s="120"/>
+      <c r="S252" s="121"/>
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
       <c r="V252" s="5"/>
@@ -44512,17 +44871,17 @@
       </c>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="83"/>
-      <c r="J253" s="79"/>
-      <c r="K253" s="79"/>
-      <c r="L253" s="79"/>
-      <c r="M253" s="79"/>
-      <c r="N253" s="79"/>
-      <c r="O253" s="79"/>
-      <c r="P253" s="79"/>
-      <c r="Q253" s="79"/>
-      <c r="R253" s="79"/>
-      <c r="S253" s="80"/>
+      <c r="I253" s="133"/>
+      <c r="J253" s="120"/>
+      <c r="K253" s="120"/>
+      <c r="L253" s="120"/>
+      <c r="M253" s="120"/>
+      <c r="N253" s="120"/>
+      <c r="O253" s="120"/>
+      <c r="P253" s="120"/>
+      <c r="Q253" s="120"/>
+      <c r="R253" s="120"/>
+      <c r="S253" s="121"/>
       <c r="T253" s="5"/>
       <c r="U253" s="5"/>
       <c r="V253" s="5"/>
@@ -44608,10 +44967,10 @@
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="84" t="s">
+      <c r="D256" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="E256" s="84"/>
+      <c r="E256" s="138"/>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
@@ -62202,6 +62561,60 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A182:M182"/>
+    <mergeCell ref="A178:AA178"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:R175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:R176"/>
+    <mergeCell ref="I252:S252"/>
+    <mergeCell ref="I253:S253"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:R173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:R174"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:M168"/>
+    <mergeCell ref="A170:AA170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:R172"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:M166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:M167"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:M164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:M162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:M163"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:M160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:M158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:M159"/>
     <mergeCell ref="A157:N157"/>
     <mergeCell ref="A147:AA147"/>
     <mergeCell ref="B149:H149"/>
@@ -62215,60 +62628,6 @@
     <mergeCell ref="B153:H153"/>
     <mergeCell ref="I153:O153"/>
     <mergeCell ref="A155:AA155"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:M158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:M159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:M160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:M162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:M163"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:M164"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:M166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:M167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="H168:M168"/>
-    <mergeCell ref="A170:AA170"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:R172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:R173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:R174"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A182:M182"/>
-    <mergeCell ref="A178:AA178"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:R175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:R176"/>
-    <mergeCell ref="I252:S252"/>
-    <mergeCell ref="I253:S253"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -62276,7 +62635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EDCFE5-B10B-4CA5-9E07-30EBFAF361E5}">
   <dimension ref="B3:R29"/>
   <sheetViews>
@@ -62292,77 +62651,77 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="P4" s="120" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="P4" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="122"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="86"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="C5" s="115"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="115"/>
-      <c r="P5" s="123" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="79"/>
+      <c r="P5" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="125"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="C6" s="116"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="116"/>
-      <c r="P6" s="123" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="80"/>
+      <c r="P6" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="125"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="C7" s="116"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="116"/>
-      <c r="P7" s="123" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="80"/>
+      <c r="P7" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="125"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="C8" s="116"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
-      <c r="P8" s="123" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="80"/>
+      <c r="P8" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="125"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="C9" s="116"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="116"/>
-      <c r="P9" s="123" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="80"/>
+      <c r="P9" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="125"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1">
-      <c r="C10" s="116"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="116"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="80"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="C11" s="116"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="16" spans="2:18" ht="13.5" thickBot="1">
       <c r="B16" s="64" t="s">
@@ -62370,41 +62729,41 @@
       </c>
     </row>
     <row r="17" spans="3:18">
-      <c r="P17" s="129"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="133" t="s">
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="R18" s="125"/>
+      <c r="R18" s="89"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="P19" s="132"/>
-      <c r="Q19" s="134" t="s">
+      <c r="P19" s="96"/>
+      <c r="Q19" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="R19" s="125"/>
+      <c r="R19" s="89"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="P20" s="132"/>
-      <c r="Q20" s="134" t="s">
+      <c r="P20" s="96"/>
+      <c r="Q20" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="R20" s="125"/>
+      <c r="R20" s="89"/>
     </row>
     <row r="21" spans="3:18" ht="13.5" thickBot="1">
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
     </row>
     <row r="29" spans="3:18">
-      <c r="R29" s="119"/>
+      <c r="R29" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/specs/UserPage_Tai lieu phan tich.xlsx
+++ b/docs/specs/UserPage_Tai lieu phan tich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Template Source\VUE\vue-mocha\docs\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF3A8E0-D553-4F65-891B-8BF4E4508A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E9E39-DCE5-4AC3-9361-B897FC4AC260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="314">
   <si>
     <t>【画面遷移時にもらうパラメーター_Parameter sẽ nhận khi di chuyển màn hình】</t>
   </si>
@@ -1341,6 +1341,12 @@
   <si>
     <t>- Description của PR phải chụp evidence của UT, layout, và kết quả của run lint</t>
   </si>
+  <si>
+    <t>- Khi ở mode add/edit phải add loading cho table để không chọn được record khác</t>
+  </si>
+  <si>
+    <t>- Các case abnormal thì cũng cần check xly nếu cod</t>
+  </si>
 </sst>
 </file>
 
@@ -2089,104 +2095,8 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2202,6 +2112,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2662,195 +2668,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD7BFB6-9289-444C-900F-42A1430149A2}">
   <dimension ref="A2:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:24" ht="29.25" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="83"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="116" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="116" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="116" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="116" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="116" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="28.5" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="83"/>
     </row>
     <row r="12" spans="1:24" ht="26.25" customHeight="1">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
       <c r="I12" s="83"/>
-      <c r="O12" s="155" t="s">
+      <c r="O12" s="119" t="s">
         <v>300</v>
       </c>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
       <c r="X12" s="83"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="O13" s="152" t="s">
+      <c r="O13" s="116" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="O14" s="152" t="s">
+      <c r="O14" s="116" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="116" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="116" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:24">
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="116" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="116" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="154" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B20" s="155" t="s">
+    <row r="20" spans="2:24" s="118" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B20" s="119" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="160"/>
-      <c r="O20" s="155" t="s">
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="124"/>
+      <c r="O20" s="119" t="s">
         <v>306</v>
       </c>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
     </row>
     <row r="21" spans="2:24" ht="15.75">
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="O22" s="152" t="s">
+      <c r="O22" s="116" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="O23" s="152" t="s">
+      <c r="O23" s="116" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="O24" s="152" t="s">
+      <c r="O24" s="116" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="2:24">
-      <c r="Q25" s="157" t="s">
+      <c r="Q25" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
     </row>
     <row r="27" spans="2:24" ht="17.25" customHeight="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="O27" s="152" t="s">
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="O27" s="116" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7444,33 +7448,33 @@
       <c r="AC144" s="5"/>
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A145" s="116"/>
-      <c r="B145" s="117"/>
-      <c r="C145" s="117"/>
-      <c r="D145" s="117"/>
-      <c r="E145" s="117"/>
-      <c r="F145" s="117"/>
-      <c r="G145" s="117"/>
-      <c r="H145" s="117"/>
-      <c r="I145" s="117"/>
-      <c r="J145" s="117"/>
-      <c r="K145" s="117"/>
-      <c r="L145" s="117"/>
-      <c r="M145" s="117"/>
-      <c r="N145" s="117"/>
-      <c r="O145" s="117"/>
-      <c r="P145" s="117"/>
-      <c r="Q145" s="117"/>
-      <c r="R145" s="117"/>
-      <c r="S145" s="117"/>
-      <c r="T145" s="117"/>
-      <c r="U145" s="117"/>
-      <c r="V145" s="117"/>
-      <c r="W145" s="117"/>
-      <c r="X145" s="117"/>
-      <c r="Y145" s="117"/>
-      <c r="Z145" s="117"/>
-      <c r="AA145" s="118"/>
+      <c r="A145" s="136"/>
+      <c r="B145" s="137"/>
+      <c r="C145" s="137"/>
+      <c r="D145" s="137"/>
+      <c r="E145" s="137"/>
+      <c r="F145" s="137"/>
+      <c r="G145" s="137"/>
+      <c r="H145" s="137"/>
+      <c r="I145" s="137"/>
+      <c r="J145" s="137"/>
+      <c r="K145" s="137"/>
+      <c r="L145" s="137"/>
+      <c r="M145" s="137"/>
+      <c r="N145" s="137"/>
+      <c r="O145" s="137"/>
+      <c r="P145" s="137"/>
+      <c r="Q145" s="137"/>
+      <c r="R145" s="137"/>
+      <c r="S145" s="137"/>
+      <c r="T145" s="137"/>
+      <c r="U145" s="137"/>
+      <c r="V145" s="137"/>
+      <c r="W145" s="137"/>
+      <c r="X145" s="137"/>
+      <c r="Y145" s="137"/>
+      <c r="Z145" s="137"/>
+      <c r="AA145" s="138"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5"/>
     </row>
@@ -7507,20 +7511,20 @@
     </row>
     <row r="147" spans="1:29" ht="48" customHeight="1">
       <c r="A147" s="7"/>
-      <c r="B147" s="119"/>
-      <c r="C147" s="120"/>
-      <c r="D147" s="120"/>
-      <c r="E147" s="120"/>
-      <c r="F147" s="120"/>
-      <c r="G147" s="120"/>
-      <c r="H147" s="121"/>
-      <c r="I147" s="119"/>
-      <c r="J147" s="120"/>
-      <c r="K147" s="120"/>
-      <c r="L147" s="120"/>
-      <c r="M147" s="120"/>
-      <c r="N147" s="120"/>
-      <c r="O147" s="121"/>
+      <c r="B147" s="157"/>
+      <c r="C147" s="126"/>
+      <c r="D147" s="126"/>
+      <c r="E147" s="126"/>
+      <c r="F147" s="126"/>
+      <c r="G147" s="126"/>
+      <c r="H147" s="127"/>
+      <c r="I147" s="157"/>
+      <c r="J147" s="126"/>
+      <c r="K147" s="126"/>
+      <c r="L147" s="126"/>
+      <c r="M147" s="126"/>
+      <c r="N147" s="126"/>
+      <c r="O147" s="127"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
@@ -7538,20 +7542,20 @@
     </row>
     <row r="148" spans="1:29" ht="30" customHeight="1">
       <c r="A148" s="8"/>
-      <c r="B148" s="122"/>
-      <c r="C148" s="120"/>
-      <c r="D148" s="120"/>
-      <c r="E148" s="120"/>
-      <c r="F148" s="120"/>
-      <c r="G148" s="120"/>
-      <c r="H148" s="121"/>
-      <c r="I148" s="123"/>
-      <c r="J148" s="120"/>
-      <c r="K148" s="120"/>
-      <c r="L148" s="120"/>
-      <c r="M148" s="120"/>
-      <c r="N148" s="120"/>
-      <c r="O148" s="121"/>
+      <c r="B148" s="149"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="126"/>
+      <c r="E148" s="126"/>
+      <c r="F148" s="126"/>
+      <c r="G148" s="126"/>
+      <c r="H148" s="127"/>
+      <c r="I148" s="156"/>
+      <c r="J148" s="126"/>
+      <c r="K148" s="126"/>
+      <c r="L148" s="126"/>
+      <c r="M148" s="126"/>
+      <c r="N148" s="126"/>
+      <c r="O148" s="127"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
@@ -7569,20 +7573,20 @@
     </row>
     <row r="149" spans="1:29" ht="49.5" customHeight="1">
       <c r="A149" s="8"/>
-      <c r="B149" s="122"/>
-      <c r="C149" s="120"/>
-      <c r="D149" s="120"/>
-      <c r="E149" s="120"/>
-      <c r="F149" s="120"/>
-      <c r="G149" s="120"/>
-      <c r="H149" s="121"/>
-      <c r="I149" s="123"/>
-      <c r="J149" s="120"/>
-      <c r="K149" s="120"/>
-      <c r="L149" s="120"/>
-      <c r="M149" s="120"/>
-      <c r="N149" s="120"/>
-      <c r="O149" s="121"/>
+      <c r="B149" s="149"/>
+      <c r="C149" s="126"/>
+      <c r="D149" s="126"/>
+      <c r="E149" s="126"/>
+      <c r="F149" s="126"/>
+      <c r="G149" s="126"/>
+      <c r="H149" s="127"/>
+      <c r="I149" s="156"/>
+      <c r="J149" s="126"/>
+      <c r="K149" s="126"/>
+      <c r="L149" s="126"/>
+      <c r="M149" s="126"/>
+      <c r="N149" s="126"/>
+      <c r="O149" s="127"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
@@ -7600,20 +7604,20 @@
     </row>
     <row r="150" spans="1:29" ht="49.5" customHeight="1">
       <c r="A150" s="8"/>
-      <c r="B150" s="122"/>
-      <c r="C150" s="120"/>
-      <c r="D150" s="120"/>
-      <c r="E150" s="120"/>
-      <c r="F150" s="120"/>
-      <c r="G150" s="120"/>
-      <c r="H150" s="121"/>
-      <c r="I150" s="122"/>
-      <c r="J150" s="120"/>
-      <c r="K150" s="120"/>
-      <c r="L150" s="120"/>
-      <c r="M150" s="120"/>
-      <c r="N150" s="120"/>
-      <c r="O150" s="121"/>
+      <c r="B150" s="149"/>
+      <c r="C150" s="126"/>
+      <c r="D150" s="126"/>
+      <c r="E150" s="126"/>
+      <c r="F150" s="126"/>
+      <c r="G150" s="126"/>
+      <c r="H150" s="127"/>
+      <c r="I150" s="149"/>
+      <c r="J150" s="126"/>
+      <c r="K150" s="126"/>
+      <c r="L150" s="126"/>
+      <c r="M150" s="126"/>
+      <c r="N150" s="126"/>
+      <c r="O150" s="127"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -7631,20 +7635,20 @@
     </row>
     <row r="151" spans="1:29" ht="49.5" customHeight="1">
       <c r="A151" s="8"/>
-      <c r="B151" s="122"/>
-      <c r="C151" s="120"/>
-      <c r="D151" s="120"/>
-      <c r="E151" s="120"/>
-      <c r="F151" s="120"/>
-      <c r="G151" s="120"/>
-      <c r="H151" s="121"/>
-      <c r="I151" s="123"/>
-      <c r="J151" s="120"/>
-      <c r="K151" s="120"/>
-      <c r="L151" s="120"/>
-      <c r="M151" s="120"/>
-      <c r="N151" s="120"/>
-      <c r="O151" s="121"/>
+      <c r="B151" s="149"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
+      <c r="F151" s="126"/>
+      <c r="G151" s="126"/>
+      <c r="H151" s="127"/>
+      <c r="I151" s="156"/>
+      <c r="J151" s="126"/>
+      <c r="K151" s="126"/>
+      <c r="L151" s="126"/>
+      <c r="M151" s="126"/>
+      <c r="N151" s="126"/>
+      <c r="O151" s="127"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
@@ -7692,33 +7696,33 @@
       <c r="AC152" s="5"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A153" s="116"/>
-      <c r="B153" s="117"/>
-      <c r="C153" s="117"/>
-      <c r="D153" s="117"/>
-      <c r="E153" s="117"/>
-      <c r="F153" s="117"/>
-      <c r="G153" s="117"/>
-      <c r="H153" s="117"/>
-      <c r="I153" s="117"/>
-      <c r="J153" s="117"/>
-      <c r="K153" s="117"/>
-      <c r="L153" s="117"/>
-      <c r="M153" s="117"/>
-      <c r="N153" s="117"/>
-      <c r="O153" s="117"/>
-      <c r="P153" s="117"/>
-      <c r="Q153" s="117"/>
-      <c r="R153" s="117"/>
-      <c r="S153" s="117"/>
-      <c r="T153" s="117"/>
-      <c r="U153" s="117"/>
-      <c r="V153" s="117"/>
-      <c r="W153" s="117"/>
-      <c r="X153" s="117"/>
-      <c r="Y153" s="117"/>
-      <c r="Z153" s="117"/>
-      <c r="AA153" s="118"/>
+      <c r="A153" s="136"/>
+      <c r="B153" s="137"/>
+      <c r="C153" s="137"/>
+      <c r="D153" s="137"/>
+      <c r="E153" s="137"/>
+      <c r="F153" s="137"/>
+      <c r="G153" s="137"/>
+      <c r="H153" s="137"/>
+      <c r="I153" s="137"/>
+      <c r="J153" s="137"/>
+      <c r="K153" s="137"/>
+      <c r="L153" s="137"/>
+      <c r="M153" s="137"/>
+      <c r="N153" s="137"/>
+      <c r="O153" s="137"/>
+      <c r="P153" s="137"/>
+      <c r="Q153" s="137"/>
+      <c r="R153" s="137"/>
+      <c r="S153" s="137"/>
+      <c r="T153" s="137"/>
+      <c r="U153" s="137"/>
+      <c r="V153" s="137"/>
+      <c r="W153" s="137"/>
+      <c r="X153" s="137"/>
+      <c r="Y153" s="137"/>
+      <c r="Z153" s="137"/>
+      <c r="AA153" s="138"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5"/>
     </row>
@@ -7754,20 +7758,20 @@
       <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A155" s="126"/>
-      <c r="B155" s="127"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="127"/>
-      <c r="L155" s="127"/>
-      <c r="M155" s="127"/>
-      <c r="N155" s="127"/>
+      <c r="A155" s="141"/>
+      <c r="B155" s="140"/>
+      <c r="C155" s="140"/>
+      <c r="D155" s="140"/>
+      <c r="E155" s="140"/>
+      <c r="F155" s="140"/>
+      <c r="G155" s="140"/>
+      <c r="H155" s="140"/>
+      <c r="I155" s="140"/>
+      <c r="J155" s="140"/>
+      <c r="K155" s="140"/>
+      <c r="L155" s="140"/>
+      <c r="M155" s="140"/>
+      <c r="N155" s="140"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
@@ -7786,18 +7790,18 @@
     </row>
     <row r="156" spans="1:29" ht="33" customHeight="1">
       <c r="A156" s="10"/>
-      <c r="B156" s="119"/>
-      <c r="C156" s="120"/>
-      <c r="D156" s="120"/>
-      <c r="E156" s="121"/>
-      <c r="F156" s="119"/>
-      <c r="G156" s="121"/>
-      <c r="H156" s="119"/>
-      <c r="I156" s="120"/>
-      <c r="J156" s="120"/>
-      <c r="K156" s="120"/>
-      <c r="L156" s="120"/>
-      <c r="M156" s="121"/>
+      <c r="B156" s="157"/>
+      <c r="C156" s="126"/>
+      <c r="D156" s="126"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="157"/>
+      <c r="G156" s="127"/>
+      <c r="H156" s="157"/>
+      <c r="I156" s="126"/>
+      <c r="J156" s="126"/>
+      <c r="K156" s="126"/>
+      <c r="L156" s="126"/>
+      <c r="M156" s="127"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
@@ -7817,18 +7821,18 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="8"/>
-      <c r="B157" s="123"/>
-      <c r="C157" s="120"/>
-      <c r="D157" s="120"/>
-      <c r="E157" s="121"/>
-      <c r="F157" s="124"/>
-      <c r="G157" s="121"/>
-      <c r="H157" s="123"/>
-      <c r="I157" s="120"/>
-      <c r="J157" s="120"/>
-      <c r="K157" s="120"/>
-      <c r="L157" s="120"/>
-      <c r="M157" s="121"/>
+      <c r="B157" s="156"/>
+      <c r="C157" s="126"/>
+      <c r="D157" s="126"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="150"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="156"/>
+      <c r="I157" s="126"/>
+      <c r="J157" s="126"/>
+      <c r="K157" s="126"/>
+      <c r="L157" s="126"/>
+      <c r="M157" s="127"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
@@ -7848,18 +7852,18 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="8"/>
-      <c r="B158" s="123"/>
-      <c r="C158" s="120"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="121"/>
-      <c r="F158" s="124"/>
-      <c r="G158" s="121"/>
-      <c r="H158" s="123"/>
-      <c r="I158" s="120"/>
-      <c r="J158" s="120"/>
-      <c r="K158" s="120"/>
-      <c r="L158" s="120"/>
-      <c r="M158" s="121"/>
+      <c r="B158" s="156"/>
+      <c r="C158" s="126"/>
+      <c r="D158" s="126"/>
+      <c r="E158" s="127"/>
+      <c r="F158" s="150"/>
+      <c r="G158" s="127"/>
+      <c r="H158" s="156"/>
+      <c r="I158" s="126"/>
+      <c r="J158" s="126"/>
+      <c r="K158" s="126"/>
+      <c r="L158" s="126"/>
+      <c r="M158" s="127"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -7879,18 +7883,18 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="8"/>
-      <c r="B159" s="123"/>
-      <c r="C159" s="120"/>
-      <c r="D159" s="120"/>
-      <c r="E159" s="121"/>
-      <c r="F159" s="124"/>
-      <c r="G159" s="121"/>
-      <c r="H159" s="123"/>
-      <c r="I159" s="120"/>
-      <c r="J159" s="120"/>
-      <c r="K159" s="120"/>
-      <c r="L159" s="120"/>
-      <c r="M159" s="121"/>
+      <c r="B159" s="156"/>
+      <c r="C159" s="126"/>
+      <c r="D159" s="126"/>
+      <c r="E159" s="127"/>
+      <c r="F159" s="150"/>
+      <c r="G159" s="127"/>
+      <c r="H159" s="156"/>
+      <c r="I159" s="126"/>
+      <c r="J159" s="126"/>
+      <c r="K159" s="126"/>
+      <c r="L159" s="126"/>
+      <c r="M159" s="127"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -7910,18 +7914,18 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="8"/>
-      <c r="B160" s="123"/>
-      <c r="C160" s="120"/>
-      <c r="D160" s="120"/>
-      <c r="E160" s="121"/>
-      <c r="F160" s="124"/>
-      <c r="G160" s="121"/>
-      <c r="H160" s="123"/>
-      <c r="I160" s="120"/>
-      <c r="J160" s="120"/>
-      <c r="K160" s="120"/>
-      <c r="L160" s="120"/>
-      <c r="M160" s="121"/>
+      <c r="B160" s="156"/>
+      <c r="C160" s="126"/>
+      <c r="D160" s="126"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="150"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="156"/>
+      <c r="I160" s="126"/>
+      <c r="J160" s="126"/>
+      <c r="K160" s="126"/>
+      <c r="L160" s="126"/>
+      <c r="M160" s="127"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -7941,18 +7945,18 @@
     </row>
     <row r="161" spans="1:29" ht="39" customHeight="1">
       <c r="A161" s="8"/>
-      <c r="B161" s="123"/>
-      <c r="C161" s="120"/>
-      <c r="D161" s="120"/>
-      <c r="E161" s="121"/>
-      <c r="F161" s="125"/>
-      <c r="G161" s="121"/>
-      <c r="H161" s="123"/>
-      <c r="I161" s="120"/>
-      <c r="J161" s="120"/>
-      <c r="K161" s="120"/>
-      <c r="L161" s="120"/>
-      <c r="M161" s="121"/>
+      <c r="B161" s="156"/>
+      <c r="C161" s="126"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="159"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="156"/>
+      <c r="I161" s="126"/>
+      <c r="J161" s="126"/>
+      <c r="K161" s="126"/>
+      <c r="L161" s="126"/>
+      <c r="M161" s="127"/>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
@@ -7972,18 +7976,18 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
       <c r="A162" s="8"/>
-      <c r="B162" s="123"/>
-      <c r="C162" s="120"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="121"/>
-      <c r="F162" s="124"/>
-      <c r="G162" s="121"/>
-      <c r="H162" s="123"/>
-      <c r="I162" s="120"/>
-      <c r="J162" s="120"/>
-      <c r="K162" s="120"/>
-      <c r="L162" s="120"/>
-      <c r="M162" s="121"/>
+      <c r="B162" s="156"/>
+      <c r="C162" s="126"/>
+      <c r="D162" s="126"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="150"/>
+      <c r="G162" s="127"/>
+      <c r="H162" s="156"/>
+      <c r="I162" s="126"/>
+      <c r="J162" s="126"/>
+      <c r="K162" s="126"/>
+      <c r="L162" s="126"/>
+      <c r="M162" s="127"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
@@ -8003,18 +8007,18 @@
     </row>
     <row r="163" spans="1:29" ht="37.5" customHeight="1">
       <c r="A163" s="8"/>
-      <c r="B163" s="123"/>
-      <c r="C163" s="120"/>
-      <c r="D163" s="120"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="125"/>
-      <c r="G163" s="121"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="120"/>
-      <c r="J163" s="120"/>
-      <c r="K163" s="120"/>
-      <c r="L163" s="120"/>
-      <c r="M163" s="121"/>
+      <c r="B163" s="156"/>
+      <c r="C163" s="126"/>
+      <c r="D163" s="126"/>
+      <c r="E163" s="127"/>
+      <c r="F163" s="159"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="156"/>
+      <c r="I163" s="126"/>
+      <c r="J163" s="126"/>
+      <c r="K163" s="126"/>
+      <c r="L163" s="126"/>
+      <c r="M163" s="127"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
@@ -8034,18 +8038,18 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
       <c r="A164" s="8"/>
-      <c r="B164" s="123"/>
-      <c r="C164" s="120"/>
-      <c r="D164" s="120"/>
-      <c r="E164" s="121"/>
-      <c r="F164" s="124"/>
-      <c r="G164" s="121"/>
-      <c r="H164" s="123"/>
-      <c r="I164" s="120"/>
-      <c r="J164" s="120"/>
-      <c r="K164" s="120"/>
-      <c r="L164" s="120"/>
-      <c r="M164" s="121"/>
+      <c r="B164" s="156"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="126"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="150"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="156"/>
+      <c r="I164" s="126"/>
+      <c r="J164" s="126"/>
+      <c r="K164" s="126"/>
+      <c r="L164" s="126"/>
+      <c r="M164" s="127"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
@@ -8065,18 +8069,18 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
       <c r="A165" s="8"/>
-      <c r="B165" s="123"/>
-      <c r="C165" s="120"/>
-      <c r="D165" s="120"/>
-      <c r="E165" s="121"/>
-      <c r="F165" s="124"/>
-      <c r="G165" s="121"/>
-      <c r="H165" s="123"/>
-      <c r="I165" s="120"/>
-      <c r="J165" s="120"/>
-      <c r="K165" s="120"/>
-      <c r="L165" s="120"/>
-      <c r="M165" s="121"/>
+      <c r="B165" s="156"/>
+      <c r="C165" s="126"/>
+      <c r="D165" s="126"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="150"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="156"/>
+      <c r="I165" s="126"/>
+      <c r="J165" s="126"/>
+      <c r="K165" s="126"/>
+      <c r="L165" s="126"/>
+      <c r="M165" s="127"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
@@ -8096,18 +8100,18 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
       <c r="A166" s="8"/>
-      <c r="B166" s="123"/>
-      <c r="C166" s="120"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="121"/>
-      <c r="F166" s="124"/>
-      <c r="G166" s="121"/>
-      <c r="H166" s="123"/>
-      <c r="I166" s="120"/>
-      <c r="J166" s="120"/>
-      <c r="K166" s="120"/>
-      <c r="L166" s="120"/>
-      <c r="M166" s="121"/>
+      <c r="B166" s="156"/>
+      <c r="C166" s="126"/>
+      <c r="D166" s="126"/>
+      <c r="E166" s="127"/>
+      <c r="F166" s="150"/>
+      <c r="G166" s="127"/>
+      <c r="H166" s="156"/>
+      <c r="I166" s="126"/>
+      <c r="J166" s="126"/>
+      <c r="K166" s="126"/>
+      <c r="L166" s="126"/>
+      <c r="M166" s="127"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
@@ -8157,33 +8161,33 @@
       <c r="AC167" s="5"/>
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A168" s="116"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
-      <c r="D168" s="117"/>
-      <c r="E168" s="117"/>
-      <c r="F168" s="117"/>
-      <c r="G168" s="117"/>
-      <c r="H168" s="117"/>
-      <c r="I168" s="117"/>
-      <c r="J168" s="117"/>
-      <c r="K168" s="117"/>
-      <c r="L168" s="117"/>
-      <c r="M168" s="117"/>
-      <c r="N168" s="117"/>
-      <c r="O168" s="117"/>
-      <c r="P168" s="117"/>
-      <c r="Q168" s="117"/>
-      <c r="R168" s="117"/>
-      <c r="S168" s="117"/>
-      <c r="T168" s="117"/>
-      <c r="U168" s="117"/>
-      <c r="V168" s="117"/>
-      <c r="W168" s="117"/>
-      <c r="X168" s="117"/>
-      <c r="Y168" s="117"/>
-      <c r="Z168" s="117"/>
-      <c r="AA168" s="118"/>
+      <c r="A168" s="136"/>
+      <c r="B168" s="137"/>
+      <c r="C168" s="137"/>
+      <c r="D168" s="137"/>
+      <c r="E168" s="137"/>
+      <c r="F168" s="137"/>
+      <c r="G168" s="137"/>
+      <c r="H168" s="137"/>
+      <c r="I168" s="137"/>
+      <c r="J168" s="137"/>
+      <c r="K168" s="137"/>
+      <c r="L168" s="137"/>
+      <c r="M168" s="137"/>
+      <c r="N168" s="137"/>
+      <c r="O168" s="137"/>
+      <c r="P168" s="137"/>
+      <c r="Q168" s="137"/>
+      <c r="R168" s="137"/>
+      <c r="S168" s="137"/>
+      <c r="T168" s="137"/>
+      <c r="U168" s="137"/>
+      <c r="V168" s="137"/>
+      <c r="W168" s="137"/>
+      <c r="X168" s="137"/>
+      <c r="Y168" s="137"/>
+      <c r="Z168" s="137"/>
+      <c r="AA168" s="138"/>
       <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
     </row>
@@ -8219,24 +8223,24 @@
       <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A170" s="119"/>
-      <c r="B170" s="120"/>
-      <c r="C170" s="120"/>
-      <c r="D170" s="121"/>
-      <c r="E170" s="119"/>
-      <c r="F170" s="121"/>
-      <c r="G170" s="128"/>
-      <c r="H170" s="120"/>
-      <c r="I170" s="120"/>
-      <c r="J170" s="120"/>
-      <c r="K170" s="120"/>
-      <c r="L170" s="120"/>
-      <c r="M170" s="120"/>
-      <c r="N170" s="120"/>
-      <c r="O170" s="120"/>
-      <c r="P170" s="120"/>
-      <c r="Q170" s="120"/>
-      <c r="R170" s="121"/>
+      <c r="A170" s="157"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="126"/>
+      <c r="D170" s="127"/>
+      <c r="E170" s="157"/>
+      <c r="F170" s="127"/>
+      <c r="G170" s="158"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
+      <c r="J170" s="126"/>
+      <c r="K170" s="126"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="126"/>
+      <c r="N170" s="126"/>
+      <c r="O170" s="126"/>
+      <c r="P170" s="126"/>
+      <c r="Q170" s="126"/>
+      <c r="R170" s="127"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
@@ -8250,24 +8254,24 @@
       <c r="AC170" s="5"/>
     </row>
     <row r="171" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A171" s="144"/>
-      <c r="B171" s="120"/>
-      <c r="C171" s="120"/>
-      <c r="D171" s="121"/>
-      <c r="E171" s="145"/>
-      <c r="F171" s="121"/>
-      <c r="G171" s="144"/>
-      <c r="H171" s="120"/>
-      <c r="I171" s="120"/>
-      <c r="J171" s="120"/>
-      <c r="K171" s="120"/>
-      <c r="L171" s="120"/>
-      <c r="M171" s="120"/>
-      <c r="N171" s="120"/>
-      <c r="O171" s="120"/>
-      <c r="P171" s="120"/>
-      <c r="Q171" s="120"/>
-      <c r="R171" s="121"/>
+      <c r="A171" s="146"/>
+      <c r="B171" s="126"/>
+      <c r="C171" s="126"/>
+      <c r="D171" s="127"/>
+      <c r="E171" s="147"/>
+      <c r="F171" s="127"/>
+      <c r="G171" s="146"/>
+      <c r="H171" s="126"/>
+      <c r="I171" s="126"/>
+      <c r="J171" s="126"/>
+      <c r="K171" s="126"/>
+      <c r="L171" s="126"/>
+      <c r="M171" s="126"/>
+      <c r="N171" s="126"/>
+      <c r="O171" s="126"/>
+      <c r="P171" s="126"/>
+      <c r="Q171" s="126"/>
+      <c r="R171" s="127"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
@@ -8281,24 +8285,24 @@
       <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="1:29" ht="45.75" customHeight="1">
-      <c r="A172" s="144"/>
-      <c r="B172" s="120"/>
-      <c r="C172" s="120"/>
-      <c r="D172" s="121"/>
-      <c r="E172" s="146"/>
-      <c r="F172" s="121"/>
-      <c r="G172" s="144"/>
-      <c r="H172" s="120"/>
-      <c r="I172" s="120"/>
-      <c r="J172" s="120"/>
-      <c r="K172" s="120"/>
-      <c r="L172" s="120"/>
-      <c r="M172" s="120"/>
-      <c r="N172" s="120"/>
-      <c r="O172" s="120"/>
-      <c r="P172" s="120"/>
-      <c r="Q172" s="120"/>
-      <c r="R172" s="121"/>
+      <c r="A172" s="146"/>
+      <c r="B172" s="126"/>
+      <c r="C172" s="126"/>
+      <c r="D172" s="127"/>
+      <c r="E172" s="148"/>
+      <c r="F172" s="127"/>
+      <c r="G172" s="146"/>
+      <c r="H172" s="126"/>
+      <c r="I172" s="126"/>
+      <c r="J172" s="126"/>
+      <c r="K172" s="126"/>
+      <c r="L172" s="126"/>
+      <c r="M172" s="126"/>
+      <c r="N172" s="126"/>
+      <c r="O172" s="126"/>
+      <c r="P172" s="126"/>
+      <c r="Q172" s="126"/>
+      <c r="R172" s="127"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -8312,24 +8316,24 @@
       <c r="AC172" s="5"/>
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A173" s="144"/>
-      <c r="B173" s="120"/>
-      <c r="C173" s="120"/>
-      <c r="D173" s="121"/>
-      <c r="E173" s="145"/>
-      <c r="F173" s="121"/>
-      <c r="G173" s="144"/>
-      <c r="H173" s="120"/>
-      <c r="I173" s="120"/>
-      <c r="J173" s="120"/>
-      <c r="K173" s="120"/>
-      <c r="L173" s="120"/>
-      <c r="M173" s="120"/>
-      <c r="N173" s="120"/>
-      <c r="O173" s="120"/>
-      <c r="P173" s="120"/>
-      <c r="Q173" s="120"/>
-      <c r="R173" s="121"/>
+      <c r="A173" s="146"/>
+      <c r="B173" s="126"/>
+      <c r="C173" s="126"/>
+      <c r="D173" s="127"/>
+      <c r="E173" s="147"/>
+      <c r="F173" s="127"/>
+      <c r="G173" s="146"/>
+      <c r="H173" s="126"/>
+      <c r="I173" s="126"/>
+      <c r="J173" s="126"/>
+      <c r="K173" s="126"/>
+      <c r="L173" s="126"/>
+      <c r="M173" s="126"/>
+      <c r="N173" s="126"/>
+      <c r="O173" s="126"/>
+      <c r="P173" s="126"/>
+      <c r="Q173" s="126"/>
+      <c r="R173" s="127"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
@@ -8343,24 +8347,24 @@
       <c r="AC173" s="5"/>
     </row>
     <row r="174" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A174" s="122"/>
-      <c r="B174" s="120"/>
-      <c r="C174" s="120"/>
-      <c r="D174" s="121"/>
-      <c r="E174" s="124"/>
-      <c r="F174" s="121"/>
-      <c r="G174" s="122"/>
-      <c r="H174" s="120"/>
-      <c r="I174" s="120"/>
-      <c r="J174" s="120"/>
-      <c r="K174" s="120"/>
-      <c r="L174" s="120"/>
-      <c r="M174" s="120"/>
-      <c r="N174" s="120"/>
-      <c r="O174" s="120"/>
-      <c r="P174" s="120"/>
-      <c r="Q174" s="120"/>
-      <c r="R174" s="121"/>
+      <c r="A174" s="149"/>
+      <c r="B174" s="126"/>
+      <c r="C174" s="126"/>
+      <c r="D174" s="127"/>
+      <c r="E174" s="150"/>
+      <c r="F174" s="127"/>
+      <c r="G174" s="149"/>
+      <c r="H174" s="126"/>
+      <c r="I174" s="126"/>
+      <c r="J174" s="126"/>
+      <c r="K174" s="126"/>
+      <c r="L174" s="126"/>
+      <c r="M174" s="126"/>
+      <c r="N174" s="126"/>
+      <c r="O174" s="126"/>
+      <c r="P174" s="126"/>
+      <c r="Q174" s="126"/>
+      <c r="R174" s="127"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -8405,33 +8409,33 @@
       <c r="AC175" s="5"/>
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A176" s="116"/>
-      <c r="B176" s="117"/>
-      <c r="C176" s="117"/>
-      <c r="D176" s="117"/>
-      <c r="E176" s="117"/>
-      <c r="F176" s="117"/>
-      <c r="G176" s="117"/>
-      <c r="H176" s="117"/>
-      <c r="I176" s="117"/>
-      <c r="J176" s="117"/>
-      <c r="K176" s="117"/>
-      <c r="L176" s="117"/>
-      <c r="M176" s="117"/>
-      <c r="N176" s="117"/>
-      <c r="O176" s="117"/>
-      <c r="P176" s="117"/>
-      <c r="Q176" s="117"/>
-      <c r="R176" s="117"/>
-      <c r="S176" s="117"/>
-      <c r="T176" s="117"/>
-      <c r="U176" s="117"/>
-      <c r="V176" s="117"/>
-      <c r="W176" s="117"/>
-      <c r="X176" s="117"/>
-      <c r="Y176" s="117"/>
-      <c r="Z176" s="117"/>
-      <c r="AA176" s="118"/>
+      <c r="A176" s="136"/>
+      <c r="B176" s="137"/>
+      <c r="C176" s="137"/>
+      <c r="D176" s="137"/>
+      <c r="E176" s="137"/>
+      <c r="F176" s="137"/>
+      <c r="G176" s="137"/>
+      <c r="H176" s="137"/>
+      <c r="I176" s="137"/>
+      <c r="J176" s="137"/>
+      <c r="K176" s="137"/>
+      <c r="L176" s="137"/>
+      <c r="M176" s="137"/>
+      <c r="N176" s="137"/>
+      <c r="O176" s="137"/>
+      <c r="P176" s="137"/>
+      <c r="Q176" s="137"/>
+      <c r="R176" s="137"/>
+      <c r="S176" s="137"/>
+      <c r="T176" s="137"/>
+      <c r="U176" s="137"/>
+      <c r="V176" s="137"/>
+      <c r="W176" s="137"/>
+      <c r="X176" s="137"/>
+      <c r="Y176" s="137"/>
+      <c r="Z176" s="137"/>
+      <c r="AA176" s="138"/>
       <c r="AB176" s="5"/>
       <c r="AC176" s="5"/>
     </row>
@@ -8498,26 +8502,26 @@
       <c r="AC178" s="21"/>
     </row>
     <row r="179" spans="1:29" ht="47.25" customHeight="1">
-      <c r="A179" s="129"/>
-      <c r="B179" s="117"/>
-      <c r="C179" s="117"/>
-      <c r="D179" s="117"/>
-      <c r="E179" s="117"/>
-      <c r="F179" s="117"/>
-      <c r="G179" s="117"/>
-      <c r="H179" s="117"/>
-      <c r="I179" s="117"/>
-      <c r="J179" s="117"/>
-      <c r="K179" s="117"/>
-      <c r="L179" s="117"/>
-      <c r="M179" s="117"/>
-      <c r="N179" s="117"/>
-      <c r="O179" s="117"/>
-      <c r="P179" s="117"/>
-      <c r="Q179" s="117"/>
-      <c r="R179" s="117"/>
-      <c r="S179" s="117"/>
-      <c r="T179" s="118"/>
+      <c r="A179" s="154"/>
+      <c r="B179" s="137"/>
+      <c r="C179" s="137"/>
+      <c r="D179" s="137"/>
+      <c r="E179" s="137"/>
+      <c r="F179" s="137"/>
+      <c r="G179" s="137"/>
+      <c r="H179" s="137"/>
+      <c r="I179" s="137"/>
+      <c r="J179" s="137"/>
+      <c r="K179" s="137"/>
+      <c r="L179" s="137"/>
+      <c r="M179" s="137"/>
+      <c r="N179" s="137"/>
+      <c r="O179" s="137"/>
+      <c r="P179" s="137"/>
+      <c r="Q179" s="137"/>
+      <c r="R179" s="137"/>
+      <c r="S179" s="137"/>
+      <c r="T179" s="138"/>
       <c r="U179" s="22"/>
       <c r="V179" s="22"/>
       <c r="W179" s="22"/>
@@ -8529,26 +8533,26 @@
       <c r="AC179" s="21"/>
     </row>
     <row r="180" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A180" s="130"/>
-      <c r="B180" s="117"/>
-      <c r="C180" s="117"/>
-      <c r="D180" s="117"/>
-      <c r="E180" s="117"/>
-      <c r="F180" s="117"/>
-      <c r="G180" s="117"/>
-      <c r="H180" s="117"/>
-      <c r="I180" s="117"/>
-      <c r="J180" s="117"/>
-      <c r="K180" s="117"/>
-      <c r="L180" s="117"/>
-      <c r="M180" s="117"/>
-      <c r="N180" s="117"/>
-      <c r="O180" s="117"/>
-      <c r="P180" s="117"/>
-      <c r="Q180" s="117"/>
-      <c r="R180" s="117"/>
-      <c r="S180" s="117"/>
-      <c r="T180" s="118"/>
+      <c r="A180" s="155"/>
+      <c r="B180" s="137"/>
+      <c r="C180" s="137"/>
+      <c r="D180" s="137"/>
+      <c r="E180" s="137"/>
+      <c r="F180" s="137"/>
+      <c r="G180" s="137"/>
+      <c r="H180" s="137"/>
+      <c r="I180" s="137"/>
+      <c r="J180" s="137"/>
+      <c r="K180" s="137"/>
+      <c r="L180" s="137"/>
+      <c r="M180" s="137"/>
+      <c r="N180" s="137"/>
+      <c r="O180" s="137"/>
+      <c r="P180" s="137"/>
+      <c r="Q180" s="137"/>
+      <c r="R180" s="137"/>
+      <c r="S180" s="137"/>
+      <c r="T180" s="138"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
       <c r="W180" s="23"/>
@@ -8560,25 +8564,25 @@
       <c r="AC180" s="21"/>
     </row>
     <row r="181" spans="1:29" ht="27.75" customHeight="1">
-      <c r="B181" s="131"/>
-      <c r="C181" s="127"/>
-      <c r="D181" s="127"/>
-      <c r="E181" s="127"/>
-      <c r="F181" s="127"/>
-      <c r="G181" s="127"/>
-      <c r="H181" s="127"/>
-      <c r="I181" s="127"/>
-      <c r="J181" s="127"/>
-      <c r="K181" s="127"/>
-      <c r="L181" s="127"/>
-      <c r="M181" s="127"/>
-      <c r="N181" s="127"/>
-      <c r="O181" s="127"/>
-      <c r="P181" s="127"/>
-      <c r="Q181" s="127"/>
-      <c r="R181" s="127"/>
-      <c r="S181" s="127"/>
-      <c r="T181" s="127"/>
+      <c r="B181" s="139"/>
+      <c r="C181" s="140"/>
+      <c r="D181" s="140"/>
+      <c r="E181" s="140"/>
+      <c r="F181" s="140"/>
+      <c r="G181" s="140"/>
+      <c r="H181" s="140"/>
+      <c r="I181" s="140"/>
+      <c r="J181" s="140"/>
+      <c r="K181" s="140"/>
+      <c r="L181" s="140"/>
+      <c r="M181" s="140"/>
+      <c r="N181" s="140"/>
+      <c r="O181" s="140"/>
+      <c r="P181" s="140"/>
+      <c r="Q181" s="140"/>
+      <c r="R181" s="140"/>
+      <c r="S181" s="140"/>
+      <c r="T181" s="140"/>
       <c r="U181" s="9"/>
       <c r="V181" s="9"/>
       <c r="W181" s="9"/>
@@ -8591,25 +8595,25 @@
     </row>
     <row r="182" spans="1:29" ht="47.25" customHeight="1">
       <c r="B182" s="5"/>
-      <c r="C182" s="126"/>
-      <c r="D182" s="127"/>
-      <c r="E182" s="127"/>
-      <c r="F182" s="127"/>
-      <c r="G182" s="127"/>
-      <c r="H182" s="127"/>
-      <c r="I182" s="127"/>
-      <c r="J182" s="127"/>
-      <c r="K182" s="127"/>
-      <c r="L182" s="127"/>
-      <c r="M182" s="127"/>
-      <c r="N182" s="127"/>
-      <c r="O182" s="127"/>
-      <c r="P182" s="127"/>
-      <c r="Q182" s="127"/>
-      <c r="R182" s="127"/>
-      <c r="S182" s="127"/>
-      <c r="T182" s="127"/>
-      <c r="U182" s="127"/>
+      <c r="C182" s="141"/>
+      <c r="D182" s="140"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="140"/>
+      <c r="G182" s="140"/>
+      <c r="H182" s="140"/>
+      <c r="I182" s="140"/>
+      <c r="J182" s="140"/>
+      <c r="K182" s="140"/>
+      <c r="L182" s="140"/>
+      <c r="M182" s="140"/>
+      <c r="N182" s="140"/>
+      <c r="O182" s="140"/>
+      <c r="P182" s="140"/>
+      <c r="Q182" s="140"/>
+      <c r="R182" s="140"/>
+      <c r="S182" s="140"/>
+      <c r="T182" s="140"/>
+      <c r="U182" s="140"/>
       <c r="V182" s="9"/>
       <c r="W182" s="9"/>
       <c r="X182" s="21"/>
@@ -8650,25 +8654,25 @@
       <c r="AC183" s="21"/>
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
-      <c r="B184" s="131"/>
-      <c r="C184" s="127"/>
-      <c r="D184" s="127"/>
-      <c r="E184" s="127"/>
-      <c r="F184" s="127"/>
-      <c r="G184" s="127"/>
-      <c r="H184" s="127"/>
-      <c r="I184" s="127"/>
-      <c r="J184" s="127"/>
-      <c r="K184" s="127"/>
-      <c r="L184" s="127"/>
-      <c r="M184" s="127"/>
-      <c r="N184" s="127"/>
-      <c r="O184" s="127"/>
-      <c r="P184" s="127"/>
-      <c r="Q184" s="127"/>
-      <c r="R184" s="127"/>
-      <c r="S184" s="127"/>
-      <c r="T184" s="127"/>
+      <c r="B184" s="139"/>
+      <c r="C184" s="140"/>
+      <c r="D184" s="140"/>
+      <c r="E184" s="140"/>
+      <c r="F184" s="140"/>
+      <c r="G184" s="140"/>
+      <c r="H184" s="140"/>
+      <c r="I184" s="140"/>
+      <c r="J184" s="140"/>
+      <c r="K184" s="140"/>
+      <c r="L184" s="140"/>
+      <c r="M184" s="140"/>
+      <c r="N184" s="140"/>
+      <c r="O184" s="140"/>
+      <c r="P184" s="140"/>
+      <c r="Q184" s="140"/>
+      <c r="R184" s="140"/>
+      <c r="S184" s="140"/>
+      <c r="T184" s="140"/>
       <c r="U184" s="9"/>
       <c r="V184" s="9"/>
       <c r="W184" s="9"/>
@@ -8681,25 +8685,25 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="131"/>
-      <c r="D185" s="127"/>
-      <c r="E185" s="127"/>
-      <c r="F185" s="127"/>
-      <c r="G185" s="127"/>
-      <c r="H185" s="127"/>
-      <c r="I185" s="127"/>
-      <c r="J185" s="127"/>
-      <c r="K185" s="127"/>
-      <c r="L185" s="127"/>
-      <c r="M185" s="127"/>
-      <c r="N185" s="127"/>
-      <c r="O185" s="127"/>
-      <c r="P185" s="127"/>
-      <c r="Q185" s="127"/>
-      <c r="R185" s="127"/>
-      <c r="S185" s="127"/>
-      <c r="T185" s="127"/>
-      <c r="U185" s="127"/>
+      <c r="C185" s="139"/>
+      <c r="D185" s="140"/>
+      <c r="E185" s="140"/>
+      <c r="F185" s="140"/>
+      <c r="G185" s="140"/>
+      <c r="H185" s="140"/>
+      <c r="I185" s="140"/>
+      <c r="J185" s="140"/>
+      <c r="K185" s="140"/>
+      <c r="L185" s="140"/>
+      <c r="M185" s="140"/>
+      <c r="N185" s="140"/>
+      <c r="O185" s="140"/>
+      <c r="P185" s="140"/>
+      <c r="Q185" s="140"/>
+      <c r="R185" s="140"/>
+      <c r="S185" s="140"/>
+      <c r="T185" s="140"/>
+      <c r="U185" s="140"/>
       <c r="V185" s="21"/>
       <c r="W185" s="21"/>
       <c r="X185" s="21"/>
@@ -8711,25 +8715,25 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1">
       <c r="B186" s="5"/>
-      <c r="C186" s="131"/>
-      <c r="D186" s="127"/>
-      <c r="E186" s="127"/>
-      <c r="F186" s="127"/>
-      <c r="G186" s="127"/>
-      <c r="H186" s="127"/>
-      <c r="I186" s="127"/>
-      <c r="J186" s="127"/>
-      <c r="K186" s="127"/>
-      <c r="L186" s="127"/>
-      <c r="M186" s="127"/>
-      <c r="N186" s="127"/>
-      <c r="O186" s="127"/>
-      <c r="P186" s="127"/>
-      <c r="Q186" s="127"/>
-      <c r="R186" s="127"/>
-      <c r="S186" s="127"/>
-      <c r="T186" s="127"/>
-      <c r="U186" s="127"/>
+      <c r="C186" s="139"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="140"/>
+      <c r="I186" s="140"/>
+      <c r="J186" s="140"/>
+      <c r="K186" s="140"/>
+      <c r="L186" s="140"/>
+      <c r="M186" s="140"/>
+      <c r="N186" s="140"/>
+      <c r="O186" s="140"/>
+      <c r="P186" s="140"/>
+      <c r="Q186" s="140"/>
+      <c r="R186" s="140"/>
+      <c r="S186" s="140"/>
+      <c r="T186" s="140"/>
+      <c r="U186" s="140"/>
       <c r="V186" s="21"/>
       <c r="W186" s="21"/>
       <c r="X186" s="21"/>
@@ -8770,25 +8774,25 @@
       <c r="AC187" s="21"/>
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1">
-      <c r="B188" s="131"/>
-      <c r="C188" s="127"/>
-      <c r="D188" s="127"/>
-      <c r="E188" s="127"/>
-      <c r="F188" s="127"/>
-      <c r="G188" s="127"/>
-      <c r="H188" s="127"/>
-      <c r="I188" s="127"/>
-      <c r="J188" s="127"/>
-      <c r="K188" s="127"/>
-      <c r="L188" s="127"/>
-      <c r="M188" s="127"/>
-      <c r="N188" s="127"/>
-      <c r="O188" s="127"/>
-      <c r="P188" s="127"/>
-      <c r="Q188" s="127"/>
-      <c r="R188" s="127"/>
-      <c r="S188" s="127"/>
-      <c r="T188" s="127"/>
+      <c r="B188" s="139"/>
+      <c r="C188" s="140"/>
+      <c r="D188" s="140"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
+      <c r="G188" s="140"/>
+      <c r="H188" s="140"/>
+      <c r="I188" s="140"/>
+      <c r="J188" s="140"/>
+      <c r="K188" s="140"/>
+      <c r="L188" s="140"/>
+      <c r="M188" s="140"/>
+      <c r="N188" s="140"/>
+      <c r="O188" s="140"/>
+      <c r="P188" s="140"/>
+      <c r="Q188" s="140"/>
+      <c r="R188" s="140"/>
+      <c r="S188" s="140"/>
+      <c r="T188" s="140"/>
       <c r="U188" s="21"/>
       <c r="V188" s="21"/>
       <c r="W188" s="21"/>
@@ -8801,25 +8805,25 @@
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1">
       <c r="B189" s="5"/>
-      <c r="C189" s="131"/>
-      <c r="D189" s="127"/>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="127"/>
-      <c r="H189" s="127"/>
-      <c r="I189" s="127"/>
-      <c r="J189" s="127"/>
-      <c r="K189" s="127"/>
-      <c r="L189" s="127"/>
-      <c r="M189" s="127"/>
-      <c r="N189" s="127"/>
-      <c r="O189" s="127"/>
-      <c r="P189" s="127"/>
-      <c r="Q189" s="127"/>
-      <c r="R189" s="127"/>
-      <c r="S189" s="127"/>
-      <c r="T189" s="127"/>
-      <c r="U189" s="127"/>
+      <c r="C189" s="139"/>
+      <c r="D189" s="140"/>
+      <c r="E189" s="140"/>
+      <c r="F189" s="140"/>
+      <c r="G189" s="140"/>
+      <c r="H189" s="140"/>
+      <c r="I189" s="140"/>
+      <c r="J189" s="140"/>
+      <c r="K189" s="140"/>
+      <c r="L189" s="140"/>
+      <c r="M189" s="140"/>
+      <c r="N189" s="140"/>
+      <c r="O189" s="140"/>
+      <c r="P189" s="140"/>
+      <c r="Q189" s="140"/>
+      <c r="R189" s="140"/>
+      <c r="S189" s="140"/>
+      <c r="T189" s="140"/>
+      <c r="U189" s="140"/>
       <c r="V189" s="21"/>
       <c r="W189" s="21"/>
       <c r="X189" s="21"/>
@@ -8831,25 +8835,25 @@
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1">
       <c r="B190" s="5"/>
-      <c r="C190" s="131"/>
-      <c r="D190" s="127"/>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
-      <c r="G190" s="127"/>
-      <c r="H190" s="127"/>
-      <c r="I190" s="127"/>
-      <c r="J190" s="127"/>
-      <c r="K190" s="127"/>
-      <c r="L190" s="127"/>
-      <c r="M190" s="127"/>
-      <c r="N190" s="127"/>
-      <c r="O190" s="127"/>
-      <c r="P190" s="127"/>
-      <c r="Q190" s="127"/>
-      <c r="R190" s="127"/>
-      <c r="S190" s="127"/>
-      <c r="T190" s="127"/>
-      <c r="U190" s="127"/>
+      <c r="C190" s="139"/>
+      <c r="D190" s="140"/>
+      <c r="E190" s="140"/>
+      <c r="F190" s="140"/>
+      <c r="G190" s="140"/>
+      <c r="H190" s="140"/>
+      <c r="I190" s="140"/>
+      <c r="J190" s="140"/>
+      <c r="K190" s="140"/>
+      <c r="L190" s="140"/>
+      <c r="M190" s="140"/>
+      <c r="N190" s="140"/>
+      <c r="O190" s="140"/>
+      <c r="P190" s="140"/>
+      <c r="Q190" s="140"/>
+      <c r="R190" s="140"/>
+      <c r="S190" s="140"/>
+      <c r="T190" s="140"/>
+      <c r="U190" s="140"/>
       <c r="V190" s="21"/>
       <c r="W190" s="21"/>
       <c r="X190" s="21"/>
@@ -8861,25 +8865,25 @@
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1">
       <c r="B191" s="5"/>
-      <c r="C191" s="131"/>
-      <c r="D191" s="127"/>
-      <c r="E191" s="127"/>
-      <c r="F191" s="127"/>
-      <c r="G191" s="127"/>
-      <c r="H191" s="127"/>
-      <c r="I191" s="127"/>
-      <c r="J191" s="127"/>
-      <c r="K191" s="127"/>
-      <c r="L191" s="127"/>
-      <c r="M191" s="127"/>
-      <c r="N191" s="127"/>
-      <c r="O191" s="127"/>
-      <c r="P191" s="127"/>
-      <c r="Q191" s="127"/>
-      <c r="R191" s="127"/>
-      <c r="S191" s="127"/>
-      <c r="T191" s="127"/>
-      <c r="U191" s="127"/>
+      <c r="C191" s="139"/>
+      <c r="D191" s="140"/>
+      <c r="E191" s="140"/>
+      <c r="F191" s="140"/>
+      <c r="G191" s="140"/>
+      <c r="H191" s="140"/>
+      <c r="I191" s="140"/>
+      <c r="J191" s="140"/>
+      <c r="K191" s="140"/>
+      <c r="L191" s="140"/>
+      <c r="M191" s="140"/>
+      <c r="N191" s="140"/>
+      <c r="O191" s="140"/>
+      <c r="P191" s="140"/>
+      <c r="Q191" s="140"/>
+      <c r="R191" s="140"/>
+      <c r="S191" s="140"/>
+      <c r="T191" s="140"/>
+      <c r="U191" s="140"/>
       <c r="V191" s="21"/>
       <c r="W191" s="21"/>
       <c r="X191" s="21"/>
@@ -8891,25 +8895,25 @@
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1">
       <c r="B192" s="5"/>
-      <c r="C192" s="131"/>
-      <c r="D192" s="127"/>
-      <c r="E192" s="127"/>
-      <c r="F192" s="127"/>
-      <c r="G192" s="127"/>
-      <c r="H192" s="127"/>
-      <c r="I192" s="127"/>
-      <c r="J192" s="127"/>
-      <c r="K192" s="127"/>
-      <c r="L192" s="127"/>
-      <c r="M192" s="127"/>
-      <c r="N192" s="127"/>
-      <c r="O192" s="127"/>
-      <c r="P192" s="127"/>
-      <c r="Q192" s="127"/>
-      <c r="R192" s="127"/>
-      <c r="S192" s="127"/>
-      <c r="T192" s="127"/>
-      <c r="U192" s="127"/>
+      <c r="C192" s="139"/>
+      <c r="D192" s="140"/>
+      <c r="E192" s="140"/>
+      <c r="F192" s="140"/>
+      <c r="G192" s="140"/>
+      <c r="H192" s="140"/>
+      <c r="I192" s="140"/>
+      <c r="J192" s="140"/>
+      <c r="K192" s="140"/>
+      <c r="L192" s="140"/>
+      <c r="M192" s="140"/>
+      <c r="N192" s="140"/>
+      <c r="O192" s="140"/>
+      <c r="P192" s="140"/>
+      <c r="Q192" s="140"/>
+      <c r="R192" s="140"/>
+      <c r="S192" s="140"/>
+      <c r="T192" s="140"/>
+      <c r="U192" s="140"/>
       <c r="V192" s="21"/>
       <c r="W192" s="21"/>
       <c r="X192" s="21"/>
@@ -8921,25 +8925,25 @@
     </row>
     <row r="193" spans="2:29" ht="15.75" customHeight="1">
       <c r="B193" s="5"/>
-      <c r="C193" s="131"/>
-      <c r="D193" s="127"/>
-      <c r="E193" s="127"/>
-      <c r="F193" s="127"/>
-      <c r="G193" s="127"/>
-      <c r="H193" s="127"/>
-      <c r="I193" s="127"/>
-      <c r="J193" s="127"/>
-      <c r="K193" s="127"/>
-      <c r="L193" s="127"/>
-      <c r="M193" s="127"/>
-      <c r="N193" s="127"/>
-      <c r="O193" s="127"/>
-      <c r="P193" s="127"/>
-      <c r="Q193" s="127"/>
-      <c r="R193" s="127"/>
-      <c r="S193" s="127"/>
-      <c r="T193" s="127"/>
-      <c r="U193" s="127"/>
+      <c r="C193" s="139"/>
+      <c r="D193" s="140"/>
+      <c r="E193" s="140"/>
+      <c r="F193" s="140"/>
+      <c r="G193" s="140"/>
+      <c r="H193" s="140"/>
+      <c r="I193" s="140"/>
+      <c r="J193" s="140"/>
+      <c r="K193" s="140"/>
+      <c r="L193" s="140"/>
+      <c r="M193" s="140"/>
+      <c r="N193" s="140"/>
+      <c r="O193" s="140"/>
+      <c r="P193" s="140"/>
+      <c r="Q193" s="140"/>
+      <c r="R193" s="140"/>
+      <c r="S193" s="140"/>
+      <c r="T193" s="140"/>
+      <c r="U193" s="140"/>
       <c r="V193" s="21"/>
       <c r="W193" s="21"/>
       <c r="X193" s="21"/>
@@ -8980,25 +8984,25 @@
       <c r="AC194" s="21"/>
     </row>
     <row r="195" spans="2:29" ht="19.5" customHeight="1">
-      <c r="B195" s="131"/>
-      <c r="C195" s="127"/>
-      <c r="D195" s="127"/>
-      <c r="E195" s="127"/>
-      <c r="F195" s="127"/>
-      <c r="G195" s="127"/>
-      <c r="H195" s="127"/>
-      <c r="I195" s="127"/>
-      <c r="J195" s="127"/>
-      <c r="K195" s="127"/>
-      <c r="L195" s="127"/>
-      <c r="M195" s="127"/>
-      <c r="N195" s="127"/>
-      <c r="O195" s="127"/>
-      <c r="P195" s="127"/>
-      <c r="Q195" s="127"/>
-      <c r="R195" s="127"/>
-      <c r="S195" s="127"/>
-      <c r="T195" s="127"/>
+      <c r="B195" s="139"/>
+      <c r="C195" s="140"/>
+      <c r="D195" s="140"/>
+      <c r="E195" s="140"/>
+      <c r="F195" s="140"/>
+      <c r="G195" s="140"/>
+      <c r="H195" s="140"/>
+      <c r="I195" s="140"/>
+      <c r="J195" s="140"/>
+      <c r="K195" s="140"/>
+      <c r="L195" s="140"/>
+      <c r="M195" s="140"/>
+      <c r="N195" s="140"/>
+      <c r="O195" s="140"/>
+      <c r="P195" s="140"/>
+      <c r="Q195" s="140"/>
+      <c r="R195" s="140"/>
+      <c r="S195" s="140"/>
+      <c r="T195" s="140"/>
       <c r="U195" s="21"/>
       <c r="V195" s="21"/>
       <c r="W195" s="21"/>
@@ -9011,25 +9015,25 @@
     </row>
     <row r="196" spans="2:29" ht="39" customHeight="1">
       <c r="B196" s="5"/>
-      <c r="C196" s="126"/>
-      <c r="D196" s="127"/>
-      <c r="E196" s="127"/>
-      <c r="F196" s="127"/>
-      <c r="G196" s="127"/>
-      <c r="H196" s="127"/>
-      <c r="I196" s="127"/>
-      <c r="J196" s="127"/>
-      <c r="K196" s="127"/>
-      <c r="L196" s="127"/>
-      <c r="M196" s="127"/>
-      <c r="N196" s="127"/>
-      <c r="O196" s="127"/>
-      <c r="P196" s="127"/>
-      <c r="Q196" s="127"/>
-      <c r="R196" s="127"/>
-      <c r="S196" s="127"/>
-      <c r="T196" s="127"/>
-      <c r="U196" s="127"/>
+      <c r="C196" s="141"/>
+      <c r="D196" s="140"/>
+      <c r="E196" s="140"/>
+      <c r="F196" s="140"/>
+      <c r="G196" s="140"/>
+      <c r="H196" s="140"/>
+      <c r="I196" s="140"/>
+      <c r="J196" s="140"/>
+      <c r="K196" s="140"/>
+      <c r="L196" s="140"/>
+      <c r="M196" s="140"/>
+      <c r="N196" s="140"/>
+      <c r="O196" s="140"/>
+      <c r="P196" s="140"/>
+      <c r="Q196" s="140"/>
+      <c r="R196" s="140"/>
+      <c r="S196" s="140"/>
+      <c r="T196" s="140"/>
+      <c r="U196" s="140"/>
       <c r="V196" s="21"/>
       <c r="W196" s="21"/>
       <c r="X196" s="21"/>
@@ -9070,25 +9074,25 @@
       <c r="AC197" s="21"/>
     </row>
     <row r="198" spans="2:29" ht="15.75" customHeight="1">
-      <c r="B198" s="131"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="127"/>
-      <c r="L198" s="127"/>
-      <c r="M198" s="127"/>
-      <c r="N198" s="127"/>
-      <c r="O198" s="127"/>
-      <c r="P198" s="127"/>
-      <c r="Q198" s="127"/>
-      <c r="R198" s="127"/>
-      <c r="S198" s="127"/>
-      <c r="T198" s="127"/>
+      <c r="B198" s="139"/>
+      <c r="C198" s="140"/>
+      <c r="D198" s="140"/>
+      <c r="E198" s="140"/>
+      <c r="F198" s="140"/>
+      <c r="G198" s="140"/>
+      <c r="H198" s="140"/>
+      <c r="I198" s="140"/>
+      <c r="J198" s="140"/>
+      <c r="K198" s="140"/>
+      <c r="L198" s="140"/>
+      <c r="M198" s="140"/>
+      <c r="N198" s="140"/>
+      <c r="O198" s="140"/>
+      <c r="P198" s="140"/>
+      <c r="Q198" s="140"/>
+      <c r="R198" s="140"/>
+      <c r="S198" s="140"/>
+      <c r="T198" s="140"/>
       <c r="U198" s="21"/>
       <c r="V198" s="21"/>
       <c r="W198" s="21"/>
@@ -9101,25 +9105,25 @@
     </row>
     <row r="199" spans="2:29" ht="15.75" customHeight="1">
       <c r="B199" s="5"/>
-      <c r="C199" s="131"/>
-      <c r="D199" s="127"/>
-      <c r="E199" s="127"/>
-      <c r="F199" s="127"/>
-      <c r="G199" s="127"/>
-      <c r="H199" s="127"/>
-      <c r="I199" s="127"/>
-      <c r="J199" s="127"/>
-      <c r="K199" s="127"/>
-      <c r="L199" s="127"/>
-      <c r="M199" s="127"/>
-      <c r="N199" s="127"/>
-      <c r="O199" s="127"/>
-      <c r="P199" s="127"/>
-      <c r="Q199" s="127"/>
-      <c r="R199" s="127"/>
-      <c r="S199" s="127"/>
-      <c r="T199" s="127"/>
-      <c r="U199" s="127"/>
+      <c r="C199" s="139"/>
+      <c r="D199" s="140"/>
+      <c r="E199" s="140"/>
+      <c r="F199" s="140"/>
+      <c r="G199" s="140"/>
+      <c r="H199" s="140"/>
+      <c r="I199" s="140"/>
+      <c r="J199" s="140"/>
+      <c r="K199" s="140"/>
+      <c r="L199" s="140"/>
+      <c r="M199" s="140"/>
+      <c r="N199" s="140"/>
+      <c r="O199" s="140"/>
+      <c r="P199" s="140"/>
+      <c r="Q199" s="140"/>
+      <c r="R199" s="140"/>
+      <c r="S199" s="140"/>
+      <c r="T199" s="140"/>
+      <c r="U199" s="140"/>
       <c r="V199" s="21"/>
       <c r="W199" s="21"/>
       <c r="X199" s="21"/>
@@ -9131,25 +9135,25 @@
     </row>
     <row r="200" spans="2:29" ht="15.75" customHeight="1">
       <c r="B200" s="5"/>
-      <c r="C200" s="131"/>
-      <c r="D200" s="127"/>
-      <c r="E200" s="127"/>
-      <c r="F200" s="127"/>
-      <c r="G200" s="127"/>
-      <c r="H200" s="127"/>
-      <c r="I200" s="127"/>
-      <c r="J200" s="127"/>
-      <c r="K200" s="127"/>
-      <c r="L200" s="127"/>
-      <c r="M200" s="127"/>
-      <c r="N200" s="127"/>
-      <c r="O200" s="127"/>
-      <c r="P200" s="127"/>
-      <c r="Q200" s="127"/>
-      <c r="R200" s="127"/>
-      <c r="S200" s="127"/>
-      <c r="T200" s="127"/>
-      <c r="U200" s="127"/>
+      <c r="C200" s="139"/>
+      <c r="D200" s="140"/>
+      <c r="E200" s="140"/>
+      <c r="F200" s="140"/>
+      <c r="G200" s="140"/>
+      <c r="H200" s="140"/>
+      <c r="I200" s="140"/>
+      <c r="J200" s="140"/>
+      <c r="K200" s="140"/>
+      <c r="L200" s="140"/>
+      <c r="M200" s="140"/>
+      <c r="N200" s="140"/>
+      <c r="O200" s="140"/>
+      <c r="P200" s="140"/>
+      <c r="Q200" s="140"/>
+      <c r="R200" s="140"/>
+      <c r="S200" s="140"/>
+      <c r="T200" s="140"/>
+      <c r="U200" s="140"/>
       <c r="V200" s="21"/>
       <c r="W200" s="21"/>
       <c r="X200" s="21"/>
@@ -9161,25 +9165,25 @@
     </row>
     <row r="201" spans="2:29" ht="15.75" customHeight="1">
       <c r="B201" s="5"/>
-      <c r="C201" s="131"/>
-      <c r="D201" s="127"/>
-      <c r="E201" s="127"/>
-      <c r="F201" s="127"/>
-      <c r="G201" s="127"/>
-      <c r="H201" s="127"/>
-      <c r="I201" s="127"/>
-      <c r="J201" s="127"/>
-      <c r="K201" s="127"/>
-      <c r="L201" s="127"/>
-      <c r="M201" s="127"/>
-      <c r="N201" s="127"/>
-      <c r="O201" s="127"/>
-      <c r="P201" s="127"/>
-      <c r="Q201" s="127"/>
-      <c r="R201" s="127"/>
-      <c r="S201" s="127"/>
-      <c r="T201" s="127"/>
-      <c r="U201" s="127"/>
+      <c r="C201" s="139"/>
+      <c r="D201" s="140"/>
+      <c r="E201" s="140"/>
+      <c r="F201" s="140"/>
+      <c r="G201" s="140"/>
+      <c r="H201" s="140"/>
+      <c r="I201" s="140"/>
+      <c r="J201" s="140"/>
+      <c r="K201" s="140"/>
+      <c r="L201" s="140"/>
+      <c r="M201" s="140"/>
+      <c r="N201" s="140"/>
+      <c r="O201" s="140"/>
+      <c r="P201" s="140"/>
+      <c r="Q201" s="140"/>
+      <c r="R201" s="140"/>
+      <c r="S201" s="140"/>
+      <c r="T201" s="140"/>
+      <c r="U201" s="140"/>
       <c r="V201" s="21"/>
       <c r="W201" s="21"/>
       <c r="X201" s="21"/>
@@ -9191,25 +9195,25 @@
     </row>
     <row r="202" spans="2:29" ht="15.75" customHeight="1">
       <c r="B202" s="5"/>
-      <c r="C202" s="131"/>
-      <c r="D202" s="127"/>
-      <c r="E202" s="127"/>
-      <c r="F202" s="127"/>
-      <c r="G202" s="127"/>
-      <c r="H202" s="127"/>
-      <c r="I202" s="127"/>
-      <c r="J202" s="127"/>
-      <c r="K202" s="127"/>
-      <c r="L202" s="127"/>
-      <c r="M202" s="127"/>
-      <c r="N202" s="127"/>
-      <c r="O202" s="127"/>
-      <c r="P202" s="127"/>
-      <c r="Q202" s="127"/>
-      <c r="R202" s="127"/>
-      <c r="S202" s="127"/>
-      <c r="T202" s="127"/>
-      <c r="U202" s="127"/>
+      <c r="C202" s="139"/>
+      <c r="D202" s="140"/>
+      <c r="E202" s="140"/>
+      <c r="F202" s="140"/>
+      <c r="G202" s="140"/>
+      <c r="H202" s="140"/>
+      <c r="I202" s="140"/>
+      <c r="J202" s="140"/>
+      <c r="K202" s="140"/>
+      <c r="L202" s="140"/>
+      <c r="M202" s="140"/>
+      <c r="N202" s="140"/>
+      <c r="O202" s="140"/>
+      <c r="P202" s="140"/>
+      <c r="Q202" s="140"/>
+      <c r="R202" s="140"/>
+      <c r="S202" s="140"/>
+      <c r="T202" s="140"/>
+      <c r="U202" s="140"/>
       <c r="V202" s="21"/>
       <c r="W202" s="21"/>
       <c r="X202" s="21"/>
@@ -9221,25 +9225,25 @@
     </row>
     <row r="203" spans="2:29" ht="15.75" customHeight="1">
       <c r="B203" s="5"/>
-      <c r="C203" s="131"/>
-      <c r="D203" s="127"/>
-      <c r="E203" s="127"/>
-      <c r="F203" s="127"/>
-      <c r="G203" s="127"/>
-      <c r="H203" s="127"/>
-      <c r="I203" s="127"/>
-      <c r="J203" s="127"/>
-      <c r="K203" s="127"/>
-      <c r="L203" s="127"/>
-      <c r="M203" s="127"/>
-      <c r="N203" s="127"/>
-      <c r="O203" s="127"/>
-      <c r="P203" s="127"/>
-      <c r="Q203" s="127"/>
-      <c r="R203" s="127"/>
-      <c r="S203" s="127"/>
-      <c r="T203" s="127"/>
-      <c r="U203" s="127"/>
+      <c r="C203" s="139"/>
+      <c r="D203" s="140"/>
+      <c r="E203" s="140"/>
+      <c r="F203" s="140"/>
+      <c r="G203" s="140"/>
+      <c r="H203" s="140"/>
+      <c r="I203" s="140"/>
+      <c r="J203" s="140"/>
+      <c r="K203" s="140"/>
+      <c r="L203" s="140"/>
+      <c r="M203" s="140"/>
+      <c r="N203" s="140"/>
+      <c r="O203" s="140"/>
+      <c r="P203" s="140"/>
+      <c r="Q203" s="140"/>
+      <c r="R203" s="140"/>
+      <c r="S203" s="140"/>
+      <c r="T203" s="140"/>
+      <c r="U203" s="140"/>
       <c r="V203" s="21"/>
       <c r="W203" s="21"/>
       <c r="X203" s="21"/>
@@ -9280,25 +9284,25 @@
       <c r="AC204" s="21"/>
     </row>
     <row r="205" spans="2:29" ht="23.25" customHeight="1">
-      <c r="B205" s="131"/>
-      <c r="C205" s="127"/>
-      <c r="D205" s="127"/>
-      <c r="E205" s="127"/>
-      <c r="F205" s="127"/>
-      <c r="G205" s="127"/>
-      <c r="H205" s="127"/>
-      <c r="I205" s="127"/>
-      <c r="J205" s="127"/>
-      <c r="K205" s="127"/>
-      <c r="L205" s="127"/>
-      <c r="M205" s="127"/>
-      <c r="N205" s="127"/>
-      <c r="O205" s="127"/>
-      <c r="P205" s="127"/>
-      <c r="Q205" s="127"/>
-      <c r="R205" s="127"/>
-      <c r="S205" s="127"/>
-      <c r="T205" s="127"/>
+      <c r="B205" s="139"/>
+      <c r="C205" s="140"/>
+      <c r="D205" s="140"/>
+      <c r="E205" s="140"/>
+      <c r="F205" s="140"/>
+      <c r="G205" s="140"/>
+      <c r="H205" s="140"/>
+      <c r="I205" s="140"/>
+      <c r="J205" s="140"/>
+      <c r="K205" s="140"/>
+      <c r="L205" s="140"/>
+      <c r="M205" s="140"/>
+      <c r="N205" s="140"/>
+      <c r="O205" s="140"/>
+      <c r="P205" s="140"/>
+      <c r="Q205" s="140"/>
+      <c r="R205" s="140"/>
+      <c r="S205" s="140"/>
+      <c r="T205" s="140"/>
       <c r="U205" s="21"/>
       <c r="V205" s="21"/>
       <c r="W205" s="21"/>
@@ -9311,25 +9315,25 @@
     </row>
     <row r="206" spans="2:29" ht="33.75" customHeight="1">
       <c r="B206" s="5"/>
-      <c r="C206" s="126"/>
-      <c r="D206" s="127"/>
-      <c r="E206" s="127"/>
-      <c r="F206" s="127"/>
-      <c r="G206" s="127"/>
-      <c r="H206" s="127"/>
-      <c r="I206" s="127"/>
-      <c r="J206" s="127"/>
-      <c r="K206" s="127"/>
-      <c r="L206" s="127"/>
-      <c r="M206" s="127"/>
-      <c r="N206" s="127"/>
-      <c r="O206" s="127"/>
-      <c r="P206" s="127"/>
-      <c r="Q206" s="127"/>
-      <c r="R206" s="127"/>
-      <c r="S206" s="127"/>
-      <c r="T206" s="127"/>
-      <c r="U206" s="127"/>
+      <c r="C206" s="141"/>
+      <c r="D206" s="140"/>
+      <c r="E206" s="140"/>
+      <c r="F206" s="140"/>
+      <c r="G206" s="140"/>
+      <c r="H206" s="140"/>
+      <c r="I206" s="140"/>
+      <c r="J206" s="140"/>
+      <c r="K206" s="140"/>
+      <c r="L206" s="140"/>
+      <c r="M206" s="140"/>
+      <c r="N206" s="140"/>
+      <c r="O206" s="140"/>
+      <c r="P206" s="140"/>
+      <c r="Q206" s="140"/>
+      <c r="R206" s="140"/>
+      <c r="S206" s="140"/>
+      <c r="T206" s="140"/>
+      <c r="U206" s="140"/>
       <c r="V206" s="21"/>
       <c r="W206" s="21"/>
       <c r="X206" s="21"/>
@@ -9370,25 +9374,25 @@
       <c r="AC207" s="21"/>
     </row>
     <row r="208" spans="2:29" ht="45.75" customHeight="1">
-      <c r="B208" s="131"/>
-      <c r="C208" s="127"/>
-      <c r="D208" s="127"/>
-      <c r="E208" s="127"/>
-      <c r="F208" s="127"/>
-      <c r="G208" s="127"/>
-      <c r="H208" s="127"/>
-      <c r="I208" s="127"/>
-      <c r="J208" s="127"/>
-      <c r="K208" s="127"/>
-      <c r="L208" s="127"/>
-      <c r="M208" s="127"/>
-      <c r="N208" s="127"/>
-      <c r="O208" s="127"/>
-      <c r="P208" s="127"/>
-      <c r="Q208" s="127"/>
-      <c r="R208" s="127"/>
-      <c r="S208" s="127"/>
-      <c r="T208" s="127"/>
+      <c r="B208" s="139"/>
+      <c r="C208" s="140"/>
+      <c r="D208" s="140"/>
+      <c r="E208" s="140"/>
+      <c r="F208" s="140"/>
+      <c r="G208" s="140"/>
+      <c r="H208" s="140"/>
+      <c r="I208" s="140"/>
+      <c r="J208" s="140"/>
+      <c r="K208" s="140"/>
+      <c r="L208" s="140"/>
+      <c r="M208" s="140"/>
+      <c r="N208" s="140"/>
+      <c r="O208" s="140"/>
+      <c r="P208" s="140"/>
+      <c r="Q208" s="140"/>
+      <c r="R208" s="140"/>
+      <c r="S208" s="140"/>
+      <c r="T208" s="140"/>
       <c r="U208" s="21"/>
       <c r="V208" s="21"/>
       <c r="W208" s="21"/>
@@ -9401,25 +9405,25 @@
     </row>
     <row r="209" spans="1:29" ht="45" customHeight="1">
       <c r="B209" s="5"/>
-      <c r="C209" s="126"/>
-      <c r="D209" s="127"/>
-      <c r="E209" s="127"/>
-      <c r="F209" s="127"/>
-      <c r="G209" s="127"/>
-      <c r="H209" s="127"/>
-      <c r="I209" s="127"/>
-      <c r="J209" s="127"/>
-      <c r="K209" s="127"/>
-      <c r="L209" s="127"/>
-      <c r="M209" s="127"/>
-      <c r="N209" s="127"/>
-      <c r="O209" s="127"/>
-      <c r="P209" s="127"/>
-      <c r="Q209" s="127"/>
-      <c r="R209" s="127"/>
-      <c r="S209" s="127"/>
-      <c r="T209" s="127"/>
-      <c r="U209" s="127"/>
+      <c r="C209" s="141"/>
+      <c r="D209" s="140"/>
+      <c r="E209" s="140"/>
+      <c r="F209" s="140"/>
+      <c r="G209" s="140"/>
+      <c r="H209" s="140"/>
+      <c r="I209" s="140"/>
+      <c r="J209" s="140"/>
+      <c r="K209" s="140"/>
+      <c r="L209" s="140"/>
+      <c r="M209" s="140"/>
+      <c r="N209" s="140"/>
+      <c r="O209" s="140"/>
+      <c r="P209" s="140"/>
+      <c r="Q209" s="140"/>
+      <c r="R209" s="140"/>
+      <c r="S209" s="140"/>
+      <c r="T209" s="140"/>
+      <c r="U209" s="140"/>
       <c r="V209" s="21"/>
       <c r="W209" s="21"/>
       <c r="X209" s="21"/>
@@ -9431,25 +9435,25 @@
     </row>
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
       <c r="B210" s="5"/>
-      <c r="C210" s="131"/>
-      <c r="D210" s="127"/>
-      <c r="E210" s="127"/>
-      <c r="F210" s="127"/>
-      <c r="G210" s="127"/>
-      <c r="H210" s="127"/>
-      <c r="I210" s="127"/>
-      <c r="J210" s="127"/>
-      <c r="K210" s="127"/>
-      <c r="L210" s="127"/>
-      <c r="M210" s="127"/>
-      <c r="N210" s="127"/>
-      <c r="O210" s="127"/>
-      <c r="P210" s="127"/>
-      <c r="Q210" s="127"/>
-      <c r="R210" s="127"/>
-      <c r="S210" s="127"/>
-      <c r="T210" s="127"/>
-      <c r="U210" s="127"/>
+      <c r="C210" s="139"/>
+      <c r="D210" s="140"/>
+      <c r="E210" s="140"/>
+      <c r="F210" s="140"/>
+      <c r="G210" s="140"/>
+      <c r="H210" s="140"/>
+      <c r="I210" s="140"/>
+      <c r="J210" s="140"/>
+      <c r="K210" s="140"/>
+      <c r="L210" s="140"/>
+      <c r="M210" s="140"/>
+      <c r="N210" s="140"/>
+      <c r="O210" s="140"/>
+      <c r="P210" s="140"/>
+      <c r="Q210" s="140"/>
+      <c r="R210" s="140"/>
+      <c r="S210" s="140"/>
+      <c r="T210" s="140"/>
+      <c r="U210" s="140"/>
       <c r="V210" s="21"/>
       <c r="W210" s="21"/>
       <c r="X210" s="21"/>
@@ -9461,25 +9465,25 @@
     </row>
     <row r="211" spans="1:29" ht="15.75" customHeight="1">
       <c r="B211" s="5"/>
-      <c r="C211" s="131"/>
-      <c r="D211" s="127"/>
-      <c r="E211" s="127"/>
-      <c r="F211" s="127"/>
-      <c r="G211" s="127"/>
-      <c r="H211" s="127"/>
-      <c r="I211" s="127"/>
-      <c r="J211" s="127"/>
-      <c r="K211" s="127"/>
-      <c r="L211" s="127"/>
-      <c r="M211" s="127"/>
-      <c r="N211" s="127"/>
-      <c r="O211" s="127"/>
-      <c r="P211" s="127"/>
-      <c r="Q211" s="127"/>
-      <c r="R211" s="127"/>
-      <c r="S211" s="127"/>
-      <c r="T211" s="127"/>
-      <c r="U211" s="127"/>
+      <c r="C211" s="139"/>
+      <c r="D211" s="140"/>
+      <c r="E211" s="140"/>
+      <c r="F211" s="140"/>
+      <c r="G211" s="140"/>
+      <c r="H211" s="140"/>
+      <c r="I211" s="140"/>
+      <c r="J211" s="140"/>
+      <c r="K211" s="140"/>
+      <c r="L211" s="140"/>
+      <c r="M211" s="140"/>
+      <c r="N211" s="140"/>
+      <c r="O211" s="140"/>
+      <c r="P211" s="140"/>
+      <c r="Q211" s="140"/>
+      <c r="R211" s="140"/>
+      <c r="S211" s="140"/>
+      <c r="T211" s="140"/>
+      <c r="U211" s="140"/>
       <c r="V211" s="21"/>
       <c r="W211" s="21"/>
       <c r="X211" s="21"/>
@@ -9492,25 +9496,25 @@
     <row r="212" spans="1:29" ht="15.75" customHeight="1">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="131"/>
-      <c r="E212" s="127"/>
-      <c r="F212" s="127"/>
-      <c r="G212" s="127"/>
-      <c r="H212" s="127"/>
-      <c r="I212" s="127"/>
-      <c r="J212" s="127"/>
-      <c r="K212" s="127"/>
-      <c r="L212" s="127"/>
-      <c r="M212" s="127"/>
-      <c r="N212" s="127"/>
-      <c r="O212" s="127"/>
-      <c r="P212" s="127"/>
-      <c r="Q212" s="127"/>
-      <c r="R212" s="127"/>
-      <c r="S212" s="127"/>
-      <c r="T212" s="127"/>
-      <c r="U212" s="127"/>
-      <c r="V212" s="127"/>
+      <c r="D212" s="139"/>
+      <c r="E212" s="140"/>
+      <c r="F212" s="140"/>
+      <c r="G212" s="140"/>
+      <c r="H212" s="140"/>
+      <c r="I212" s="140"/>
+      <c r="J212" s="140"/>
+      <c r="K212" s="140"/>
+      <c r="L212" s="140"/>
+      <c r="M212" s="140"/>
+      <c r="N212" s="140"/>
+      <c r="O212" s="140"/>
+      <c r="P212" s="140"/>
+      <c r="Q212" s="140"/>
+      <c r="R212" s="140"/>
+      <c r="S212" s="140"/>
+      <c r="T212" s="140"/>
+      <c r="U212" s="140"/>
+      <c r="V212" s="140"/>
       <c r="W212" s="21"/>
       <c r="X212" s="21"/>
       <c r="Y212" s="21"/>
@@ -9523,25 +9527,25 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="21"/>
-      <c r="E213" s="131"/>
-      <c r="F213" s="127"/>
-      <c r="G213" s="127"/>
-      <c r="H213" s="127"/>
-      <c r="I213" s="127"/>
-      <c r="J213" s="127"/>
-      <c r="K213" s="127"/>
-      <c r="L213" s="127"/>
-      <c r="M213" s="127"/>
-      <c r="N213" s="127"/>
-      <c r="O213" s="127"/>
-      <c r="P213" s="127"/>
-      <c r="Q213" s="127"/>
-      <c r="R213" s="127"/>
-      <c r="S213" s="127"/>
-      <c r="T213" s="127"/>
-      <c r="U213" s="127"/>
-      <c r="V213" s="127"/>
-      <c r="W213" s="127"/>
+      <c r="E213" s="139"/>
+      <c r="F213" s="140"/>
+      <c r="G213" s="140"/>
+      <c r="H213" s="140"/>
+      <c r="I213" s="140"/>
+      <c r="J213" s="140"/>
+      <c r="K213" s="140"/>
+      <c r="L213" s="140"/>
+      <c r="M213" s="140"/>
+      <c r="N213" s="140"/>
+      <c r="O213" s="140"/>
+      <c r="P213" s="140"/>
+      <c r="Q213" s="140"/>
+      <c r="R213" s="140"/>
+      <c r="S213" s="140"/>
+      <c r="T213" s="140"/>
+      <c r="U213" s="140"/>
+      <c r="V213" s="140"/>
+      <c r="W213" s="140"/>
       <c r="X213" s="21"/>
       <c r="Y213" s="21"/>
       <c r="Z213" s="21"/>
@@ -9553,25 +9557,25 @@
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="21"/>
-      <c r="E214" s="131"/>
-      <c r="F214" s="127"/>
-      <c r="G214" s="127"/>
-      <c r="H214" s="127"/>
-      <c r="I214" s="127"/>
-      <c r="J214" s="127"/>
-      <c r="K214" s="127"/>
-      <c r="L214" s="127"/>
-      <c r="M214" s="127"/>
-      <c r="N214" s="127"/>
-      <c r="O214" s="127"/>
-      <c r="P214" s="127"/>
-      <c r="Q214" s="127"/>
-      <c r="R214" s="127"/>
-      <c r="S214" s="127"/>
-      <c r="T214" s="127"/>
-      <c r="U214" s="127"/>
-      <c r="V214" s="127"/>
-      <c r="W214" s="127"/>
+      <c r="E214" s="139"/>
+      <c r="F214" s="140"/>
+      <c r="G214" s="140"/>
+      <c r="H214" s="140"/>
+      <c r="I214" s="140"/>
+      <c r="J214" s="140"/>
+      <c r="K214" s="140"/>
+      <c r="L214" s="140"/>
+      <c r="M214" s="140"/>
+      <c r="N214" s="140"/>
+      <c r="O214" s="140"/>
+      <c r="P214" s="140"/>
+      <c r="Q214" s="140"/>
+      <c r="R214" s="140"/>
+      <c r="S214" s="140"/>
+      <c r="T214" s="140"/>
+      <c r="U214" s="140"/>
+      <c r="V214" s="140"/>
+      <c r="W214" s="140"/>
       <c r="X214" s="21"/>
       <c r="Y214" s="21"/>
       <c r="Z214" s="21"/>
@@ -9583,25 +9587,25 @@
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="131"/>
-      <c r="F215" s="127"/>
-      <c r="G215" s="127"/>
-      <c r="H215" s="127"/>
-      <c r="I215" s="127"/>
-      <c r="J215" s="127"/>
-      <c r="K215" s="127"/>
-      <c r="L215" s="127"/>
-      <c r="M215" s="127"/>
-      <c r="N215" s="127"/>
-      <c r="O215" s="127"/>
-      <c r="P215" s="127"/>
-      <c r="Q215" s="127"/>
-      <c r="R215" s="127"/>
-      <c r="S215" s="127"/>
-      <c r="T215" s="127"/>
-      <c r="U215" s="127"/>
-      <c r="V215" s="127"/>
-      <c r="W215" s="127"/>
+      <c r="E215" s="139"/>
+      <c r="F215" s="140"/>
+      <c r="G215" s="140"/>
+      <c r="H215" s="140"/>
+      <c r="I215" s="140"/>
+      <c r="J215" s="140"/>
+      <c r="K215" s="140"/>
+      <c r="L215" s="140"/>
+      <c r="M215" s="140"/>
+      <c r="N215" s="140"/>
+      <c r="O215" s="140"/>
+      <c r="P215" s="140"/>
+      <c r="Q215" s="140"/>
+      <c r="R215" s="140"/>
+      <c r="S215" s="140"/>
+      <c r="T215" s="140"/>
+      <c r="U215" s="140"/>
+      <c r="V215" s="140"/>
+      <c r="W215" s="140"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
@@ -9643,25 +9647,25 @@
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="131"/>
-      <c r="F217" s="127"/>
-      <c r="G217" s="127"/>
-      <c r="H217" s="127"/>
-      <c r="I217" s="127"/>
-      <c r="J217" s="127"/>
-      <c r="K217" s="127"/>
-      <c r="L217" s="127"/>
-      <c r="M217" s="127"/>
-      <c r="N217" s="127"/>
-      <c r="O217" s="127"/>
-      <c r="P217" s="127"/>
-      <c r="Q217" s="127"/>
-      <c r="R217" s="127"/>
-      <c r="S217" s="127"/>
-      <c r="T217" s="127"/>
-      <c r="U217" s="127"/>
-      <c r="V217" s="127"/>
-      <c r="W217" s="127"/>
+      <c r="E217" s="139"/>
+      <c r="F217" s="140"/>
+      <c r="G217" s="140"/>
+      <c r="H217" s="140"/>
+      <c r="I217" s="140"/>
+      <c r="J217" s="140"/>
+      <c r="K217" s="140"/>
+      <c r="L217" s="140"/>
+      <c r="M217" s="140"/>
+      <c r="N217" s="140"/>
+      <c r="O217" s="140"/>
+      <c r="P217" s="140"/>
+      <c r="Q217" s="140"/>
+      <c r="R217" s="140"/>
+      <c r="S217" s="140"/>
+      <c r="T217" s="140"/>
+      <c r="U217" s="140"/>
+      <c r="V217" s="140"/>
+      <c r="W217" s="140"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
@@ -9700,25 +9704,25 @@
       <c r="AC218" s="5"/>
     </row>
     <row r="219" spans="1:29" ht="22.5" customHeight="1">
-      <c r="B219" s="147"/>
-      <c r="C219" s="148"/>
-      <c r="D219" s="148"/>
-      <c r="E219" s="148"/>
-      <c r="F219" s="148"/>
-      <c r="G219" s="148"/>
-      <c r="H219" s="148"/>
-      <c r="I219" s="148"/>
-      <c r="J219" s="148"/>
-      <c r="K219" s="148"/>
-      <c r="L219" s="148"/>
-      <c r="M219" s="148"/>
-      <c r="N219" s="148"/>
-      <c r="O219" s="148"/>
-      <c r="P219" s="148"/>
-      <c r="Q219" s="148"/>
-      <c r="R219" s="148"/>
-      <c r="S219" s="148"/>
-      <c r="T219" s="148"/>
+      <c r="B219" s="142"/>
+      <c r="C219" s="143"/>
+      <c r="D219" s="143"/>
+      <c r="E219" s="143"/>
+      <c r="F219" s="143"/>
+      <c r="G219" s="143"/>
+      <c r="H219" s="143"/>
+      <c r="I219" s="143"/>
+      <c r="J219" s="143"/>
+      <c r="K219" s="143"/>
+      <c r="L219" s="143"/>
+      <c r="M219" s="143"/>
+      <c r="N219" s="143"/>
+      <c r="O219" s="143"/>
+      <c r="P219" s="143"/>
+      <c r="Q219" s="143"/>
+      <c r="R219" s="143"/>
+      <c r="S219" s="143"/>
+      <c r="T219" s="143"/>
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
@@ -9732,19 +9736,19 @@
     <row r="220" spans="1:29" ht="24.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="60"/>
-      <c r="C220" s="149"/>
-      <c r="D220" s="148"/>
-      <c r="E220" s="148"/>
-      <c r="F220" s="148"/>
-      <c r="G220" s="148"/>
-      <c r="H220" s="148"/>
-      <c r="I220" s="148"/>
-      <c r="J220" s="148"/>
-      <c r="K220" s="148"/>
-      <c r="L220" s="148"/>
-      <c r="M220" s="148"/>
-      <c r="N220" s="148"/>
-      <c r="O220" s="148"/>
+      <c r="C220" s="144"/>
+      <c r="D220" s="143"/>
+      <c r="E220" s="143"/>
+      <c r="F220" s="143"/>
+      <c r="G220" s="143"/>
+      <c r="H220" s="143"/>
+      <c r="I220" s="143"/>
+      <c r="J220" s="143"/>
+      <c r="K220" s="143"/>
+      <c r="L220" s="143"/>
+      <c r="M220" s="143"/>
+      <c r="N220" s="143"/>
+      <c r="O220" s="143"/>
       <c r="P220" s="60"/>
       <c r="Q220" s="60"/>
       <c r="R220" s="60"/>
@@ -9984,16 +9988,16 @@
       <c r="D228" s="27"/>
       <c r="E228" s="28"/>
       <c r="F228" s="29"/>
-      <c r="G228" s="150"/>
-      <c r="H228" s="120"/>
-      <c r="I228" s="120"/>
-      <c r="J228" s="120"/>
-      <c r="K228" s="120"/>
-      <c r="L228" s="120"/>
-      <c r="M228" s="120"/>
-      <c r="N228" s="120"/>
-      <c r="O228" s="120"/>
-      <c r="P228" s="121"/>
+      <c r="G228" s="145"/>
+      <c r="H228" s="126"/>
+      <c r="I228" s="126"/>
+      <c r="J228" s="126"/>
+      <c r="K228" s="126"/>
+      <c r="L228" s="126"/>
+      <c r="M228" s="126"/>
+      <c r="N228" s="126"/>
+      <c r="O228" s="126"/>
+      <c r="P228" s="127"/>
       <c r="Q228" s="25"/>
       <c r="R228" s="25"/>
       <c r="S228" s="25"/>
@@ -10389,17 +10393,17 @@
       <c r="F241" s="14"/>
       <c r="G241" s="14"/>
       <c r="H241" s="14"/>
-      <c r="I241" s="139"/>
-      <c r="J241" s="120"/>
-      <c r="K241" s="120"/>
-      <c r="L241" s="120"/>
-      <c r="M241" s="120"/>
-      <c r="N241" s="120"/>
-      <c r="O241" s="120"/>
-      <c r="P241" s="120"/>
-      <c r="Q241" s="120"/>
-      <c r="R241" s="120"/>
-      <c r="S241" s="121"/>
+      <c r="I241" s="130"/>
+      <c r="J241" s="126"/>
+      <c r="K241" s="126"/>
+      <c r="L241" s="126"/>
+      <c r="M241" s="126"/>
+      <c r="N241" s="126"/>
+      <c r="O241" s="126"/>
+      <c r="P241" s="126"/>
+      <c r="Q241" s="126"/>
+      <c r="R241" s="126"/>
+      <c r="S241" s="127"/>
       <c r="T241" s="25"/>
       <c r="U241" s="25"/>
       <c r="V241" s="25"/>
@@ -10420,17 +10424,17 @@
       <c r="F242" s="18"/>
       <c r="G242" s="18"/>
       <c r="H242" s="18"/>
-      <c r="I242" s="136"/>
-      <c r="J242" s="120"/>
-      <c r="K242" s="120"/>
-      <c r="L242" s="120"/>
-      <c r="M242" s="120"/>
-      <c r="N242" s="120"/>
-      <c r="O242" s="120"/>
-      <c r="P242" s="120"/>
-      <c r="Q242" s="120"/>
-      <c r="R242" s="120"/>
-      <c r="S242" s="121"/>
+      <c r="I242" s="131"/>
+      <c r="J242" s="126"/>
+      <c r="K242" s="126"/>
+      <c r="L242" s="126"/>
+      <c r="M242" s="126"/>
+      <c r="N242" s="126"/>
+      <c r="O242" s="126"/>
+      <c r="P242" s="126"/>
+      <c r="Q242" s="126"/>
+      <c r="R242" s="126"/>
+      <c r="S242" s="127"/>
       <c r="T242" s="25"/>
       <c r="U242" s="25"/>
       <c r="V242" s="25"/>
@@ -10544,17 +10548,17 @@
       <c r="F246" s="14"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
-      <c r="I246" s="139"/>
-      <c r="J246" s="120"/>
-      <c r="K246" s="120"/>
-      <c r="L246" s="120"/>
-      <c r="M246" s="120"/>
-      <c r="N246" s="120"/>
-      <c r="O246" s="120"/>
-      <c r="P246" s="120"/>
-      <c r="Q246" s="120"/>
-      <c r="R246" s="120"/>
-      <c r="S246" s="121"/>
+      <c r="I246" s="130"/>
+      <c r="J246" s="126"/>
+      <c r="K246" s="126"/>
+      <c r="L246" s="126"/>
+      <c r="M246" s="126"/>
+      <c r="N246" s="126"/>
+      <c r="O246" s="126"/>
+      <c r="P246" s="126"/>
+      <c r="Q246" s="126"/>
+      <c r="R246" s="126"/>
+      <c r="S246" s="127"/>
       <c r="T246" s="25"/>
       <c r="U246" s="25"/>
       <c r="V246" s="25"/>
@@ -10575,17 +10579,17 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
       <c r="H247" s="18"/>
-      <c r="I247" s="136"/>
-      <c r="J247" s="120"/>
-      <c r="K247" s="120"/>
-      <c r="L247" s="120"/>
-      <c r="M247" s="120"/>
-      <c r="N247" s="120"/>
-      <c r="O247" s="120"/>
-      <c r="P247" s="120"/>
-      <c r="Q247" s="120"/>
-      <c r="R247" s="120"/>
-      <c r="S247" s="121"/>
+      <c r="I247" s="131"/>
+      <c r="J247" s="126"/>
+      <c r="K247" s="126"/>
+      <c r="L247" s="126"/>
+      <c r="M247" s="126"/>
+      <c r="N247" s="126"/>
+      <c r="O247" s="126"/>
+      <c r="P247" s="126"/>
+      <c r="Q247" s="126"/>
+      <c r="R247" s="126"/>
+      <c r="S247" s="127"/>
       <c r="T247" s="25"/>
       <c r="U247" s="25"/>
       <c r="V247" s="25"/>
@@ -10606,17 +10610,17 @@
       <c r="F248" s="18"/>
       <c r="G248" s="18"/>
       <c r="H248" s="18"/>
-      <c r="I248" s="133"/>
-      <c r="J248" s="120"/>
-      <c r="K248" s="120"/>
-      <c r="L248" s="120"/>
-      <c r="M248" s="120"/>
-      <c r="N248" s="120"/>
-      <c r="O248" s="120"/>
-      <c r="P248" s="120"/>
-      <c r="Q248" s="120"/>
-      <c r="R248" s="120"/>
-      <c r="S248" s="121"/>
+      <c r="I248" s="128"/>
+      <c r="J248" s="126"/>
+      <c r="K248" s="126"/>
+      <c r="L248" s="126"/>
+      <c r="M248" s="126"/>
+      <c r="N248" s="126"/>
+      <c r="O248" s="126"/>
+      <c r="P248" s="126"/>
+      <c r="Q248" s="126"/>
+      <c r="R248" s="126"/>
+      <c r="S248" s="127"/>
       <c r="T248" s="25"/>
       <c r="U248" s="25"/>
       <c r="V248" s="25"/>
@@ -10637,17 +10641,17 @@
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
       <c r="H249" s="16"/>
-      <c r="I249" s="137"/>
-      <c r="J249" s="120"/>
-      <c r="K249" s="120"/>
-      <c r="L249" s="120"/>
-      <c r="M249" s="120"/>
-      <c r="N249" s="120"/>
-      <c r="O249" s="120"/>
-      <c r="P249" s="120"/>
-      <c r="Q249" s="120"/>
-      <c r="R249" s="120"/>
-      <c r="S249" s="121"/>
+      <c r="I249" s="153"/>
+      <c r="J249" s="126"/>
+      <c r="K249" s="126"/>
+      <c r="L249" s="126"/>
+      <c r="M249" s="126"/>
+      <c r="N249" s="126"/>
+      <c r="O249" s="126"/>
+      <c r="P249" s="126"/>
+      <c r="Q249" s="126"/>
+      <c r="R249" s="126"/>
+      <c r="S249" s="127"/>
       <c r="T249" s="25"/>
       <c r="U249" s="25"/>
       <c r="V249" s="25"/>
@@ -10730,17 +10734,17 @@
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
       <c r="H252" s="14"/>
-      <c r="I252" s="139"/>
-      <c r="J252" s="120"/>
-      <c r="K252" s="120"/>
-      <c r="L252" s="120"/>
-      <c r="M252" s="120"/>
-      <c r="N252" s="120"/>
-      <c r="O252" s="120"/>
-      <c r="P252" s="120"/>
-      <c r="Q252" s="120"/>
-      <c r="R252" s="120"/>
-      <c r="S252" s="121"/>
+      <c r="I252" s="130"/>
+      <c r="J252" s="126"/>
+      <c r="K252" s="126"/>
+      <c r="L252" s="126"/>
+      <c r="M252" s="126"/>
+      <c r="N252" s="126"/>
+      <c r="O252" s="126"/>
+      <c r="P252" s="126"/>
+      <c r="Q252" s="126"/>
+      <c r="R252" s="126"/>
+      <c r="S252" s="127"/>
       <c r="T252" s="25"/>
       <c r="U252" s="25"/>
       <c r="V252" s="25"/>
@@ -10761,17 +10765,17 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="132"/>
-      <c r="J253" s="120"/>
-      <c r="K253" s="120"/>
-      <c r="L253" s="120"/>
-      <c r="M253" s="120"/>
-      <c r="N253" s="120"/>
-      <c r="O253" s="120"/>
-      <c r="P253" s="120"/>
-      <c r="Q253" s="120"/>
-      <c r="R253" s="120"/>
-      <c r="S253" s="121"/>
+      <c r="I253" s="125"/>
+      <c r="J253" s="126"/>
+      <c r="K253" s="126"/>
+      <c r="L253" s="126"/>
+      <c r="M253" s="126"/>
+      <c r="N253" s="126"/>
+      <c r="O253" s="126"/>
+      <c r="P253" s="126"/>
+      <c r="Q253" s="126"/>
+      <c r="R253" s="126"/>
+      <c r="S253" s="127"/>
       <c r="T253" s="25"/>
       <c r="U253" s="25"/>
       <c r="V253" s="25"/>
@@ -10792,17 +10796,17 @@
       <c r="F254" s="18"/>
       <c r="G254" s="18"/>
       <c r="H254" s="18"/>
-      <c r="I254" s="133"/>
-      <c r="J254" s="120"/>
-      <c r="K254" s="120"/>
-      <c r="L254" s="120"/>
-      <c r="M254" s="120"/>
-      <c r="N254" s="120"/>
-      <c r="O254" s="120"/>
-      <c r="P254" s="120"/>
-      <c r="Q254" s="120"/>
-      <c r="R254" s="120"/>
-      <c r="S254" s="121"/>
+      <c r="I254" s="128"/>
+      <c r="J254" s="126"/>
+      <c r="K254" s="126"/>
+      <c r="L254" s="126"/>
+      <c r="M254" s="126"/>
+      <c r="N254" s="126"/>
+      <c r="O254" s="126"/>
+      <c r="P254" s="126"/>
+      <c r="Q254" s="126"/>
+      <c r="R254" s="126"/>
+      <c r="S254" s="127"/>
       <c r="T254" s="25"/>
       <c r="U254" s="25"/>
       <c r="V254" s="25"/>
@@ -10823,17 +10827,17 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
       <c r="H255" s="18"/>
-      <c r="I255" s="133"/>
-      <c r="J255" s="120"/>
-      <c r="K255" s="120"/>
-      <c r="L255" s="120"/>
-      <c r="M255" s="120"/>
-      <c r="N255" s="120"/>
-      <c r="O255" s="120"/>
-      <c r="P255" s="120"/>
-      <c r="Q255" s="120"/>
-      <c r="R255" s="120"/>
-      <c r="S255" s="121"/>
+      <c r="I255" s="128"/>
+      <c r="J255" s="126"/>
+      <c r="K255" s="126"/>
+      <c r="L255" s="126"/>
+      <c r="M255" s="126"/>
+      <c r="N255" s="126"/>
+      <c r="O255" s="126"/>
+      <c r="P255" s="126"/>
+      <c r="Q255" s="126"/>
+      <c r="R255" s="126"/>
+      <c r="S255" s="127"/>
       <c r="T255" s="25"/>
       <c r="U255" s="25"/>
       <c r="V255" s="25"/>
@@ -10854,17 +10858,17 @@
       <c r="F256" s="18"/>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
-      <c r="I256" s="133"/>
-      <c r="J256" s="120"/>
-      <c r="K256" s="120"/>
-      <c r="L256" s="120"/>
-      <c r="M256" s="120"/>
-      <c r="N256" s="120"/>
-      <c r="O256" s="120"/>
-      <c r="P256" s="120"/>
-      <c r="Q256" s="120"/>
-      <c r="R256" s="120"/>
-      <c r="S256" s="121"/>
+      <c r="I256" s="128"/>
+      <c r="J256" s="126"/>
+      <c r="K256" s="126"/>
+      <c r="L256" s="126"/>
+      <c r="M256" s="126"/>
+      <c r="N256" s="126"/>
+      <c r="O256" s="126"/>
+      <c r="P256" s="126"/>
+      <c r="Q256" s="126"/>
+      <c r="R256" s="126"/>
+      <c r="S256" s="127"/>
       <c r="T256" s="25"/>
       <c r="U256" s="25"/>
       <c r="V256" s="25"/>
@@ -10885,17 +10889,17 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
-      <c r="I257" s="133"/>
-      <c r="J257" s="134"/>
-      <c r="K257" s="134"/>
-      <c r="L257" s="134"/>
-      <c r="M257" s="134"/>
-      <c r="N257" s="134"/>
-      <c r="O257" s="134"/>
-      <c r="P257" s="134"/>
-      <c r="Q257" s="134"/>
-      <c r="R257" s="134"/>
-      <c r="S257" s="135"/>
+      <c r="I257" s="128"/>
+      <c r="J257" s="151"/>
+      <c r="K257" s="151"/>
+      <c r="L257" s="151"/>
+      <c r="M257" s="151"/>
+      <c r="N257" s="151"/>
+      <c r="O257" s="151"/>
+      <c r="P257" s="151"/>
+      <c r="Q257" s="151"/>
+      <c r="R257" s="151"/>
+      <c r="S257" s="152"/>
       <c r="T257" s="25"/>
       <c r="U257" s="25"/>
       <c r="V257" s="25"/>
@@ -11071,17 +11075,17 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
-      <c r="I263" s="133"/>
-      <c r="J263" s="120"/>
-      <c r="K263" s="120"/>
-      <c r="L263" s="120"/>
-      <c r="M263" s="120"/>
-      <c r="N263" s="120"/>
-      <c r="O263" s="120"/>
-      <c r="P263" s="120"/>
-      <c r="Q263" s="120"/>
-      <c r="R263" s="120"/>
-      <c r="S263" s="121"/>
+      <c r="I263" s="128"/>
+      <c r="J263" s="126"/>
+      <c r="K263" s="126"/>
+      <c r="L263" s="126"/>
+      <c r="M263" s="126"/>
+      <c r="N263" s="126"/>
+      <c r="O263" s="126"/>
+      <c r="P263" s="126"/>
+      <c r="Q263" s="126"/>
+      <c r="R263" s="126"/>
+      <c r="S263" s="127"/>
       <c r="T263" s="25"/>
       <c r="U263" s="25"/>
       <c r="V263" s="25"/>
@@ -11102,17 +11106,17 @@
       <c r="F264" s="18"/>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
-      <c r="I264" s="133"/>
-      <c r="J264" s="120"/>
-      <c r="K264" s="120"/>
-      <c r="L264" s="120"/>
-      <c r="M264" s="120"/>
-      <c r="N264" s="120"/>
-      <c r="O264" s="120"/>
-      <c r="P264" s="120"/>
-      <c r="Q264" s="120"/>
-      <c r="R264" s="120"/>
-      <c r="S264" s="121"/>
+      <c r="I264" s="128"/>
+      <c r="J264" s="126"/>
+      <c r="K264" s="126"/>
+      <c r="L264" s="126"/>
+      <c r="M264" s="126"/>
+      <c r="N264" s="126"/>
+      <c r="O264" s="126"/>
+      <c r="P264" s="126"/>
+      <c r="Q264" s="126"/>
+      <c r="R264" s="126"/>
+      <c r="S264" s="127"/>
       <c r="T264" s="25"/>
       <c r="U264" s="25"/>
       <c r="V264" s="25"/>
@@ -11775,17 +11779,17 @@
       <c r="F287" s="14"/>
       <c r="G287" s="14"/>
       <c r="H287" s="14"/>
-      <c r="I287" s="139"/>
-      <c r="J287" s="120"/>
-      <c r="K287" s="120"/>
-      <c r="L287" s="120"/>
-      <c r="M287" s="120"/>
-      <c r="N287" s="120"/>
-      <c r="O287" s="120"/>
-      <c r="P287" s="120"/>
-      <c r="Q287" s="120"/>
-      <c r="R287" s="120"/>
-      <c r="S287" s="121"/>
+      <c r="I287" s="130"/>
+      <c r="J287" s="126"/>
+      <c r="K287" s="126"/>
+      <c r="L287" s="126"/>
+      <c r="M287" s="126"/>
+      <c r="N287" s="126"/>
+      <c r="O287" s="126"/>
+      <c r="P287" s="126"/>
+      <c r="Q287" s="126"/>
+      <c r="R287" s="126"/>
+      <c r="S287" s="127"/>
       <c r="T287" s="25"/>
       <c r="U287" s="25"/>
       <c r="V287" s="25"/>
@@ -11806,17 +11810,17 @@
       <c r="F288" s="18"/>
       <c r="G288" s="18"/>
       <c r="H288" s="18"/>
-      <c r="I288" s="132"/>
-      <c r="J288" s="120"/>
-      <c r="K288" s="120"/>
-      <c r="L288" s="120"/>
-      <c r="M288" s="120"/>
-      <c r="N288" s="120"/>
-      <c r="O288" s="120"/>
-      <c r="P288" s="120"/>
-      <c r="Q288" s="120"/>
-      <c r="R288" s="120"/>
-      <c r="S288" s="121"/>
+      <c r="I288" s="125"/>
+      <c r="J288" s="126"/>
+      <c r="K288" s="126"/>
+      <c r="L288" s="126"/>
+      <c r="M288" s="126"/>
+      <c r="N288" s="126"/>
+      <c r="O288" s="126"/>
+      <c r="P288" s="126"/>
+      <c r="Q288" s="126"/>
+      <c r="R288" s="126"/>
+      <c r="S288" s="127"/>
       <c r="T288" s="25"/>
       <c r="U288" s="25"/>
       <c r="V288" s="25"/>
@@ -11894,8 +11898,8 @@
       <c r="A291" s="24"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
-      <c r="D291" s="138"/>
-      <c r="E291" s="138"/>
+      <c r="D291" s="129"/>
+      <c r="E291" s="129"/>
       <c r="F291" s="9"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
@@ -11961,17 +11965,17 @@
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
       <c r="H293" s="14"/>
-      <c r="I293" s="139"/>
-      <c r="J293" s="120"/>
-      <c r="K293" s="120"/>
-      <c r="L293" s="120"/>
-      <c r="M293" s="120"/>
-      <c r="N293" s="120"/>
-      <c r="O293" s="120"/>
-      <c r="P293" s="120"/>
-      <c r="Q293" s="120"/>
-      <c r="R293" s="120"/>
-      <c r="S293" s="121"/>
+      <c r="I293" s="130"/>
+      <c r="J293" s="126"/>
+      <c r="K293" s="126"/>
+      <c r="L293" s="126"/>
+      <c r="M293" s="126"/>
+      <c r="N293" s="126"/>
+      <c r="O293" s="126"/>
+      <c r="P293" s="126"/>
+      <c r="Q293" s="126"/>
+      <c r="R293" s="126"/>
+      <c r="S293" s="127"/>
       <c r="T293" s="25"/>
       <c r="U293" s="25"/>
       <c r="V293" s="25"/>
@@ -11992,17 +11996,17 @@
       <c r="F294" s="18"/>
       <c r="G294" s="18"/>
       <c r="H294" s="18"/>
-      <c r="I294" s="136"/>
-      <c r="J294" s="140"/>
-      <c r="K294" s="140"/>
-      <c r="L294" s="140"/>
-      <c r="M294" s="140"/>
-      <c r="N294" s="140"/>
-      <c r="O294" s="140"/>
-      <c r="P294" s="140"/>
-      <c r="Q294" s="140"/>
-      <c r="R294" s="140"/>
-      <c r="S294" s="141"/>
+      <c r="I294" s="131"/>
+      <c r="J294" s="132"/>
+      <c r="K294" s="132"/>
+      <c r="L294" s="132"/>
+      <c r="M294" s="132"/>
+      <c r="N294" s="132"/>
+      <c r="O294" s="132"/>
+      <c r="P294" s="132"/>
+      <c r="Q294" s="132"/>
+      <c r="R294" s="132"/>
+      <c r="S294" s="133"/>
       <c r="T294" s="25"/>
       <c r="U294" s="25"/>
       <c r="V294" s="25"/>
@@ -12023,17 +12027,17 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
       <c r="H295" s="18"/>
-      <c r="I295" s="136"/>
-      <c r="J295" s="142"/>
-      <c r="K295" s="142"/>
-      <c r="L295" s="142"/>
-      <c r="M295" s="142"/>
-      <c r="N295" s="142"/>
-      <c r="O295" s="142"/>
-      <c r="P295" s="142"/>
-      <c r="Q295" s="142"/>
-      <c r="R295" s="142"/>
-      <c r="S295" s="143"/>
+      <c r="I295" s="131"/>
+      <c r="J295" s="134"/>
+      <c r="K295" s="134"/>
+      <c r="L295" s="134"/>
+      <c r="M295" s="134"/>
+      <c r="N295" s="134"/>
+      <c r="O295" s="134"/>
+      <c r="P295" s="134"/>
+      <c r="Q295" s="134"/>
+      <c r="R295" s="134"/>
+      <c r="S295" s="135"/>
       <c r="T295" s="25"/>
       <c r="U295" s="25"/>
       <c r="V295" s="25"/>
@@ -12054,17 +12058,17 @@
       <c r="F296" s="18"/>
       <c r="G296" s="18"/>
       <c r="H296" s="18"/>
-      <c r="I296" s="132"/>
-      <c r="J296" s="120"/>
-      <c r="K296" s="120"/>
-      <c r="L296" s="120"/>
-      <c r="M296" s="120"/>
-      <c r="N296" s="120"/>
-      <c r="O296" s="120"/>
-      <c r="P296" s="120"/>
-      <c r="Q296" s="120"/>
-      <c r="R296" s="120"/>
-      <c r="S296" s="121"/>
+      <c r="I296" s="125"/>
+      <c r="J296" s="126"/>
+      <c r="K296" s="126"/>
+      <c r="L296" s="126"/>
+      <c r="M296" s="126"/>
+      <c r="N296" s="126"/>
+      <c r="O296" s="126"/>
+      <c r="P296" s="126"/>
+      <c r="Q296" s="126"/>
+      <c r="R296" s="126"/>
+      <c r="S296" s="127"/>
       <c r="T296" s="25"/>
       <c r="U296" s="25"/>
       <c r="V296" s="25"/>
@@ -12085,17 +12089,17 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
       <c r="H297" s="18"/>
-      <c r="I297" s="132"/>
-      <c r="J297" s="120"/>
-      <c r="K297" s="120"/>
-      <c r="L297" s="120"/>
-      <c r="M297" s="120"/>
-      <c r="N297" s="120"/>
-      <c r="O297" s="120"/>
-      <c r="P297" s="120"/>
-      <c r="Q297" s="120"/>
-      <c r="R297" s="120"/>
-      <c r="S297" s="121"/>
+      <c r="I297" s="125"/>
+      <c r="J297" s="126"/>
+      <c r="K297" s="126"/>
+      <c r="L297" s="126"/>
+      <c r="M297" s="126"/>
+      <c r="N297" s="126"/>
+      <c r="O297" s="126"/>
+      <c r="P297" s="126"/>
+      <c r="Q297" s="126"/>
+      <c r="R297" s="126"/>
+      <c r="S297" s="127"/>
       <c r="T297" s="25"/>
       <c r="U297" s="25"/>
       <c r="V297" s="25"/>
@@ -12116,17 +12120,17 @@
       <c r="F298" s="18"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
-      <c r="I298" s="132"/>
-      <c r="J298" s="120"/>
-      <c r="K298" s="120"/>
-      <c r="L298" s="120"/>
-      <c r="M298" s="120"/>
-      <c r="N298" s="120"/>
-      <c r="O298" s="120"/>
-      <c r="P298" s="120"/>
-      <c r="Q298" s="120"/>
-      <c r="R298" s="120"/>
-      <c r="S298" s="121"/>
+      <c r="I298" s="125"/>
+      <c r="J298" s="126"/>
+      <c r="K298" s="126"/>
+      <c r="L298" s="126"/>
+      <c r="M298" s="126"/>
+      <c r="N298" s="126"/>
+      <c r="O298" s="126"/>
+      <c r="P298" s="126"/>
+      <c r="Q298" s="126"/>
+      <c r="R298" s="126"/>
+      <c r="S298" s="127"/>
       <c r="T298" s="25"/>
       <c r="U298" s="25"/>
       <c r="V298" s="25"/>
@@ -12147,17 +12151,17 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
-      <c r="I299" s="132"/>
-      <c r="J299" s="120"/>
-      <c r="K299" s="120"/>
-      <c r="L299" s="120"/>
-      <c r="M299" s="120"/>
-      <c r="N299" s="120"/>
-      <c r="O299" s="120"/>
-      <c r="P299" s="120"/>
-      <c r="Q299" s="120"/>
-      <c r="R299" s="120"/>
-      <c r="S299" s="121"/>
+      <c r="I299" s="125"/>
+      <c r="J299" s="126"/>
+      <c r="K299" s="126"/>
+      <c r="L299" s="126"/>
+      <c r="M299" s="126"/>
+      <c r="N299" s="126"/>
+      <c r="O299" s="126"/>
+      <c r="P299" s="126"/>
+      <c r="Q299" s="126"/>
+      <c r="R299" s="126"/>
+      <c r="S299" s="127"/>
       <c r="T299" s="25"/>
       <c r="U299" s="25"/>
       <c r="V299" s="25"/>
@@ -15317,17 +15321,17 @@
       <c r="F402" s="14"/>
       <c r="G402" s="14"/>
       <c r="H402" s="14"/>
-      <c r="I402" s="139"/>
-      <c r="J402" s="120"/>
-      <c r="K402" s="120"/>
-      <c r="L402" s="120"/>
-      <c r="M402" s="120"/>
-      <c r="N402" s="120"/>
-      <c r="O402" s="120"/>
-      <c r="P402" s="120"/>
-      <c r="Q402" s="120"/>
-      <c r="R402" s="120"/>
-      <c r="S402" s="121"/>
+      <c r="I402" s="130"/>
+      <c r="J402" s="126"/>
+      <c r="K402" s="126"/>
+      <c r="L402" s="126"/>
+      <c r="M402" s="126"/>
+      <c r="N402" s="126"/>
+      <c r="O402" s="126"/>
+      <c r="P402" s="126"/>
+      <c r="Q402" s="126"/>
+      <c r="R402" s="126"/>
+      <c r="S402" s="127"/>
       <c r="T402" s="35"/>
       <c r="U402" s="35"/>
       <c r="V402" s="35"/>
@@ -15348,17 +15352,17 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
       <c r="H403" s="18"/>
-      <c r="I403" s="136"/>
-      <c r="J403" s="120"/>
-      <c r="K403" s="120"/>
-      <c r="L403" s="120"/>
-      <c r="M403" s="120"/>
-      <c r="N403" s="120"/>
-      <c r="O403" s="120"/>
-      <c r="P403" s="120"/>
-      <c r="Q403" s="120"/>
-      <c r="R403" s="120"/>
-      <c r="S403" s="121"/>
+      <c r="I403" s="131"/>
+      <c r="J403" s="126"/>
+      <c r="K403" s="126"/>
+      <c r="L403" s="126"/>
+      <c r="M403" s="126"/>
+      <c r="N403" s="126"/>
+      <c r="O403" s="126"/>
+      <c r="P403" s="126"/>
+      <c r="Q403" s="126"/>
+      <c r="R403" s="126"/>
+      <c r="S403" s="127"/>
       <c r="T403" s="35"/>
       <c r="U403" s="35"/>
       <c r="V403" s="35"/>
@@ -15472,17 +15476,17 @@
       <c r="F407" s="14"/>
       <c r="G407" s="14"/>
       <c r="H407" s="14"/>
-      <c r="I407" s="139"/>
-      <c r="J407" s="120"/>
-      <c r="K407" s="120"/>
-      <c r="L407" s="120"/>
-      <c r="M407" s="120"/>
-      <c r="N407" s="120"/>
-      <c r="O407" s="120"/>
-      <c r="P407" s="120"/>
-      <c r="Q407" s="120"/>
-      <c r="R407" s="120"/>
-      <c r="S407" s="121"/>
+      <c r="I407" s="130"/>
+      <c r="J407" s="126"/>
+      <c r="K407" s="126"/>
+      <c r="L407" s="126"/>
+      <c r="M407" s="126"/>
+      <c r="N407" s="126"/>
+      <c r="O407" s="126"/>
+      <c r="P407" s="126"/>
+      <c r="Q407" s="126"/>
+      <c r="R407" s="126"/>
+      <c r="S407" s="127"/>
       <c r="T407" s="35"/>
       <c r="U407" s="35"/>
       <c r="V407" s="35"/>
@@ -15503,17 +15507,17 @@
       <c r="F408" s="18"/>
       <c r="G408" s="18"/>
       <c r="H408" s="18"/>
-      <c r="I408" s="136"/>
-      <c r="J408" s="120"/>
-      <c r="K408" s="120"/>
-      <c r="L408" s="120"/>
-      <c r="M408" s="120"/>
-      <c r="N408" s="120"/>
-      <c r="O408" s="120"/>
-      <c r="P408" s="120"/>
-      <c r="Q408" s="120"/>
-      <c r="R408" s="120"/>
-      <c r="S408" s="121"/>
+      <c r="I408" s="131"/>
+      <c r="J408" s="126"/>
+      <c r="K408" s="126"/>
+      <c r="L408" s="126"/>
+      <c r="M408" s="126"/>
+      <c r="N408" s="126"/>
+      <c r="O408" s="126"/>
+      <c r="P408" s="126"/>
+      <c r="Q408" s="126"/>
+      <c r="R408" s="126"/>
+      <c r="S408" s="127"/>
       <c r="T408" s="35"/>
       <c r="U408" s="35"/>
       <c r="V408" s="35"/>
@@ -15534,17 +15538,17 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
       <c r="H409" s="18"/>
-      <c r="I409" s="133"/>
-      <c r="J409" s="120"/>
-      <c r="K409" s="120"/>
-      <c r="L409" s="120"/>
-      <c r="M409" s="120"/>
-      <c r="N409" s="120"/>
-      <c r="O409" s="120"/>
-      <c r="P409" s="120"/>
-      <c r="Q409" s="120"/>
-      <c r="R409" s="120"/>
-      <c r="S409" s="121"/>
+      <c r="I409" s="128"/>
+      <c r="J409" s="126"/>
+      <c r="K409" s="126"/>
+      <c r="L409" s="126"/>
+      <c r="M409" s="126"/>
+      <c r="N409" s="126"/>
+      <c r="O409" s="126"/>
+      <c r="P409" s="126"/>
+      <c r="Q409" s="126"/>
+      <c r="R409" s="126"/>
+      <c r="S409" s="127"/>
       <c r="T409" s="35"/>
       <c r="U409" s="35"/>
       <c r="V409" s="35"/>
@@ -15565,17 +15569,17 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
       <c r="H410" s="16"/>
-      <c r="I410" s="137"/>
-      <c r="J410" s="120"/>
-      <c r="K410" s="120"/>
-      <c r="L410" s="120"/>
-      <c r="M410" s="120"/>
-      <c r="N410" s="120"/>
-      <c r="O410" s="120"/>
-      <c r="P410" s="120"/>
-      <c r="Q410" s="120"/>
-      <c r="R410" s="120"/>
-      <c r="S410" s="121"/>
+      <c r="I410" s="153"/>
+      <c r="J410" s="126"/>
+      <c r="K410" s="126"/>
+      <c r="L410" s="126"/>
+      <c r="M410" s="126"/>
+      <c r="N410" s="126"/>
+      <c r="O410" s="126"/>
+      <c r="P410" s="126"/>
+      <c r="Q410" s="126"/>
+      <c r="R410" s="126"/>
+      <c r="S410" s="127"/>
       <c r="T410" s="35"/>
       <c r="U410" s="35"/>
       <c r="V410" s="35"/>
@@ -15658,17 +15662,17 @@
       <c r="F413" s="14"/>
       <c r="G413" s="14"/>
       <c r="H413" s="14"/>
-      <c r="I413" s="139"/>
-      <c r="J413" s="120"/>
-      <c r="K413" s="120"/>
-      <c r="L413" s="120"/>
-      <c r="M413" s="120"/>
-      <c r="N413" s="120"/>
-      <c r="O413" s="120"/>
-      <c r="P413" s="120"/>
-      <c r="Q413" s="120"/>
-      <c r="R413" s="120"/>
-      <c r="S413" s="121"/>
+      <c r="I413" s="130"/>
+      <c r="J413" s="126"/>
+      <c r="K413" s="126"/>
+      <c r="L413" s="126"/>
+      <c r="M413" s="126"/>
+      <c r="N413" s="126"/>
+      <c r="O413" s="126"/>
+      <c r="P413" s="126"/>
+      <c r="Q413" s="126"/>
+      <c r="R413" s="126"/>
+      <c r="S413" s="127"/>
       <c r="T413" s="35"/>
       <c r="U413" s="35"/>
       <c r="V413" s="35"/>
@@ -15689,17 +15693,17 @@
       <c r="F414" s="18"/>
       <c r="G414" s="18"/>
       <c r="H414" s="18"/>
-      <c r="I414" s="132"/>
-      <c r="J414" s="120"/>
-      <c r="K414" s="120"/>
-      <c r="L414" s="120"/>
-      <c r="M414" s="120"/>
-      <c r="N414" s="120"/>
-      <c r="O414" s="120"/>
-      <c r="P414" s="120"/>
-      <c r="Q414" s="120"/>
-      <c r="R414" s="120"/>
-      <c r="S414" s="121"/>
+      <c r="I414" s="125"/>
+      <c r="J414" s="126"/>
+      <c r="K414" s="126"/>
+      <c r="L414" s="126"/>
+      <c r="M414" s="126"/>
+      <c r="N414" s="126"/>
+      <c r="O414" s="126"/>
+      <c r="P414" s="126"/>
+      <c r="Q414" s="126"/>
+      <c r="R414" s="126"/>
+      <c r="S414" s="127"/>
       <c r="T414" s="35"/>
       <c r="U414" s="35"/>
       <c r="V414" s="35"/>
@@ -15720,17 +15724,17 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
       <c r="H415" s="18"/>
-      <c r="I415" s="133"/>
-      <c r="J415" s="120"/>
-      <c r="K415" s="120"/>
-      <c r="L415" s="120"/>
-      <c r="M415" s="120"/>
-      <c r="N415" s="120"/>
-      <c r="O415" s="120"/>
-      <c r="P415" s="120"/>
-      <c r="Q415" s="120"/>
-      <c r="R415" s="120"/>
-      <c r="S415" s="121"/>
+      <c r="I415" s="128"/>
+      <c r="J415" s="126"/>
+      <c r="K415" s="126"/>
+      <c r="L415" s="126"/>
+      <c r="M415" s="126"/>
+      <c r="N415" s="126"/>
+      <c r="O415" s="126"/>
+      <c r="P415" s="126"/>
+      <c r="Q415" s="126"/>
+      <c r="R415" s="126"/>
+      <c r="S415" s="127"/>
       <c r="T415" s="35"/>
       <c r="U415" s="35"/>
       <c r="V415" s="35"/>
@@ -15751,17 +15755,17 @@
       <c r="F416" s="18"/>
       <c r="G416" s="18"/>
       <c r="H416" s="18"/>
-      <c r="I416" s="133"/>
-      <c r="J416" s="120"/>
-      <c r="K416" s="120"/>
-      <c r="L416" s="120"/>
-      <c r="M416" s="120"/>
-      <c r="N416" s="120"/>
-      <c r="O416" s="120"/>
-      <c r="P416" s="120"/>
-      <c r="Q416" s="120"/>
-      <c r="R416" s="120"/>
-      <c r="S416" s="121"/>
+      <c r="I416" s="128"/>
+      <c r="J416" s="126"/>
+      <c r="K416" s="126"/>
+      <c r="L416" s="126"/>
+      <c r="M416" s="126"/>
+      <c r="N416" s="126"/>
+      <c r="O416" s="126"/>
+      <c r="P416" s="126"/>
+      <c r="Q416" s="126"/>
+      <c r="R416" s="126"/>
+      <c r="S416" s="127"/>
       <c r="T416" s="35"/>
       <c r="U416" s="35"/>
       <c r="V416" s="35"/>
@@ -15782,17 +15786,17 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
       <c r="H417" s="18"/>
-      <c r="I417" s="133"/>
-      <c r="J417" s="120"/>
-      <c r="K417" s="120"/>
-      <c r="L417" s="120"/>
-      <c r="M417" s="120"/>
-      <c r="N417" s="120"/>
-      <c r="O417" s="120"/>
-      <c r="P417" s="120"/>
-      <c r="Q417" s="120"/>
-      <c r="R417" s="120"/>
-      <c r="S417" s="121"/>
+      <c r="I417" s="128"/>
+      <c r="J417" s="126"/>
+      <c r="K417" s="126"/>
+      <c r="L417" s="126"/>
+      <c r="M417" s="126"/>
+      <c r="N417" s="126"/>
+      <c r="O417" s="126"/>
+      <c r="P417" s="126"/>
+      <c r="Q417" s="126"/>
+      <c r="R417" s="126"/>
+      <c r="S417" s="127"/>
       <c r="T417" s="35"/>
       <c r="U417" s="35"/>
       <c r="V417" s="35"/>
@@ -15813,17 +15817,17 @@
       <c r="F418" s="18"/>
       <c r="G418" s="18"/>
       <c r="H418" s="18"/>
-      <c r="I418" s="133"/>
-      <c r="J418" s="134"/>
-      <c r="K418" s="134"/>
-      <c r="L418" s="134"/>
-      <c r="M418" s="134"/>
-      <c r="N418" s="134"/>
-      <c r="O418" s="134"/>
-      <c r="P418" s="134"/>
-      <c r="Q418" s="134"/>
-      <c r="R418" s="134"/>
-      <c r="S418" s="135"/>
+      <c r="I418" s="128"/>
+      <c r="J418" s="151"/>
+      <c r="K418" s="151"/>
+      <c r="L418" s="151"/>
+      <c r="M418" s="151"/>
+      <c r="N418" s="151"/>
+      <c r="O418" s="151"/>
+      <c r="P418" s="151"/>
+      <c r="Q418" s="151"/>
+      <c r="R418" s="151"/>
+      <c r="S418" s="152"/>
       <c r="T418" s="35"/>
       <c r="U418" s="35"/>
       <c r="V418" s="35"/>
@@ -15999,17 +16003,17 @@
       <c r="F424" s="18"/>
       <c r="G424" s="18"/>
       <c r="H424" s="18"/>
-      <c r="I424" s="133"/>
-      <c r="J424" s="120"/>
-      <c r="K424" s="120"/>
-      <c r="L424" s="120"/>
-      <c r="M424" s="120"/>
-      <c r="N424" s="120"/>
-      <c r="O424" s="120"/>
-      <c r="P424" s="120"/>
-      <c r="Q424" s="120"/>
-      <c r="R424" s="120"/>
-      <c r="S424" s="121"/>
+      <c r="I424" s="128"/>
+      <c r="J424" s="126"/>
+      <c r="K424" s="126"/>
+      <c r="L424" s="126"/>
+      <c r="M424" s="126"/>
+      <c r="N424" s="126"/>
+      <c r="O424" s="126"/>
+      <c r="P424" s="126"/>
+      <c r="Q424" s="126"/>
+      <c r="R424" s="126"/>
+      <c r="S424" s="127"/>
       <c r="T424" s="35"/>
       <c r="U424" s="35"/>
       <c r="V424" s="35"/>
@@ -16030,17 +16034,17 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
       <c r="H425" s="18"/>
-      <c r="I425" s="133"/>
-      <c r="J425" s="120"/>
-      <c r="K425" s="120"/>
-      <c r="L425" s="120"/>
-      <c r="M425" s="120"/>
-      <c r="N425" s="120"/>
-      <c r="O425" s="120"/>
-      <c r="P425" s="120"/>
-      <c r="Q425" s="120"/>
-      <c r="R425" s="120"/>
-      <c r="S425" s="121"/>
+      <c r="I425" s="128"/>
+      <c r="J425" s="126"/>
+      <c r="K425" s="126"/>
+      <c r="L425" s="126"/>
+      <c r="M425" s="126"/>
+      <c r="N425" s="126"/>
+      <c r="O425" s="126"/>
+      <c r="P425" s="126"/>
+      <c r="Q425" s="126"/>
+      <c r="R425" s="126"/>
+      <c r="S425" s="127"/>
       <c r="T425" s="35"/>
       <c r="U425" s="35"/>
       <c r="V425" s="35"/>
@@ -16640,17 +16644,17 @@
       <c r="F446" s="14"/>
       <c r="G446" s="14"/>
       <c r="H446" s="14"/>
-      <c r="I446" s="139"/>
-      <c r="J446" s="120"/>
-      <c r="K446" s="120"/>
-      <c r="L446" s="120"/>
-      <c r="M446" s="120"/>
-      <c r="N446" s="120"/>
-      <c r="O446" s="120"/>
-      <c r="P446" s="120"/>
-      <c r="Q446" s="120"/>
-      <c r="R446" s="120"/>
-      <c r="S446" s="121"/>
+      <c r="I446" s="130"/>
+      <c r="J446" s="126"/>
+      <c r="K446" s="126"/>
+      <c r="L446" s="126"/>
+      <c r="M446" s="126"/>
+      <c r="N446" s="126"/>
+      <c r="O446" s="126"/>
+      <c r="P446" s="126"/>
+      <c r="Q446" s="126"/>
+      <c r="R446" s="126"/>
+      <c r="S446" s="127"/>
       <c r="T446" s="35"/>
       <c r="U446" s="35"/>
       <c r="V446" s="35"/>
@@ -16671,17 +16675,17 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
       <c r="H447" s="18"/>
-      <c r="I447" s="132"/>
-      <c r="J447" s="120"/>
-      <c r="K447" s="120"/>
-      <c r="L447" s="120"/>
-      <c r="M447" s="120"/>
-      <c r="N447" s="120"/>
-      <c r="O447" s="120"/>
-      <c r="P447" s="120"/>
-      <c r="Q447" s="120"/>
-      <c r="R447" s="120"/>
-      <c r="S447" s="121"/>
+      <c r="I447" s="125"/>
+      <c r="J447" s="126"/>
+      <c r="K447" s="126"/>
+      <c r="L447" s="126"/>
+      <c r="M447" s="126"/>
+      <c r="N447" s="126"/>
+      <c r="O447" s="126"/>
+      <c r="P447" s="126"/>
+      <c r="Q447" s="126"/>
+      <c r="R447" s="126"/>
+      <c r="S447" s="127"/>
       <c r="T447" s="35"/>
       <c r="U447" s="35"/>
       <c r="V447" s="35"/>
@@ -16759,8 +16763,8 @@
       <c r="A450" s="35"/>
       <c r="B450" s="35"/>
       <c r="C450" s="9"/>
-      <c r="D450" s="138"/>
-      <c r="E450" s="138"/>
+      <c r="D450" s="129"/>
+      <c r="E450" s="129"/>
       <c r="F450" s="9"/>
       <c r="G450" s="9"/>
       <c r="H450" s="9"/>
@@ -16826,17 +16830,17 @@
       <c r="F452" s="14"/>
       <c r="G452" s="14"/>
       <c r="H452" s="14"/>
-      <c r="I452" s="139"/>
-      <c r="J452" s="120"/>
-      <c r="K452" s="120"/>
-      <c r="L452" s="120"/>
-      <c r="M452" s="120"/>
-      <c r="N452" s="120"/>
-      <c r="O452" s="120"/>
-      <c r="P452" s="120"/>
-      <c r="Q452" s="120"/>
-      <c r="R452" s="120"/>
-      <c r="S452" s="121"/>
+      <c r="I452" s="130"/>
+      <c r="J452" s="126"/>
+      <c r="K452" s="126"/>
+      <c r="L452" s="126"/>
+      <c r="M452" s="126"/>
+      <c r="N452" s="126"/>
+      <c r="O452" s="126"/>
+      <c r="P452" s="126"/>
+      <c r="Q452" s="126"/>
+      <c r="R452" s="126"/>
+      <c r="S452" s="127"/>
       <c r="T452" s="35"/>
       <c r="U452" s="35"/>
       <c r="V452" s="35"/>
@@ -16857,17 +16861,17 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
       <c r="H453" s="18"/>
-      <c r="I453" s="136"/>
-      <c r="J453" s="140"/>
-      <c r="K453" s="140"/>
-      <c r="L453" s="140"/>
-      <c r="M453" s="140"/>
-      <c r="N453" s="140"/>
-      <c r="O453" s="140"/>
-      <c r="P453" s="140"/>
-      <c r="Q453" s="140"/>
-      <c r="R453" s="140"/>
-      <c r="S453" s="141"/>
+      <c r="I453" s="131"/>
+      <c r="J453" s="132"/>
+      <c r="K453" s="132"/>
+      <c r="L453" s="132"/>
+      <c r="M453" s="132"/>
+      <c r="N453" s="132"/>
+      <c r="O453" s="132"/>
+      <c r="P453" s="132"/>
+      <c r="Q453" s="132"/>
+      <c r="R453" s="132"/>
+      <c r="S453" s="133"/>
       <c r="T453" s="35"/>
       <c r="U453" s="35"/>
       <c r="V453" s="35"/>
@@ -16888,17 +16892,17 @@
       <c r="F454" s="18"/>
       <c r="G454" s="18"/>
       <c r="H454" s="18"/>
-      <c r="I454" s="136"/>
-      <c r="J454" s="142"/>
-      <c r="K454" s="142"/>
-      <c r="L454" s="142"/>
-      <c r="M454" s="142"/>
-      <c r="N454" s="142"/>
-      <c r="O454" s="142"/>
-      <c r="P454" s="142"/>
-      <c r="Q454" s="142"/>
-      <c r="R454" s="142"/>
-      <c r="S454" s="143"/>
+      <c r="I454" s="131"/>
+      <c r="J454" s="134"/>
+      <c r="K454" s="134"/>
+      <c r="L454" s="134"/>
+      <c r="M454" s="134"/>
+      <c r="N454" s="134"/>
+      <c r="O454" s="134"/>
+      <c r="P454" s="134"/>
+      <c r="Q454" s="134"/>
+      <c r="R454" s="134"/>
+      <c r="S454" s="135"/>
       <c r="T454" s="35"/>
       <c r="U454" s="35"/>
       <c r="V454" s="35"/>
@@ -16919,17 +16923,17 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
       <c r="H455" s="18"/>
-      <c r="I455" s="132"/>
-      <c r="J455" s="120"/>
-      <c r="K455" s="120"/>
-      <c r="L455" s="120"/>
-      <c r="M455" s="120"/>
-      <c r="N455" s="120"/>
-      <c r="O455" s="120"/>
-      <c r="P455" s="120"/>
-      <c r="Q455" s="120"/>
-      <c r="R455" s="120"/>
-      <c r="S455" s="121"/>
+      <c r="I455" s="125"/>
+      <c r="J455" s="126"/>
+      <c r="K455" s="126"/>
+      <c r="L455" s="126"/>
+      <c r="M455" s="126"/>
+      <c r="N455" s="126"/>
+      <c r="O455" s="126"/>
+      <c r="P455" s="126"/>
+      <c r="Q455" s="126"/>
+      <c r="R455" s="126"/>
+      <c r="S455" s="127"/>
       <c r="T455" s="35"/>
       <c r="U455" s="35"/>
       <c r="V455" s="35"/>
@@ -16950,17 +16954,17 @@
       <c r="F456" s="18"/>
       <c r="G456" s="18"/>
       <c r="H456" s="18"/>
-      <c r="I456" s="132"/>
-      <c r="J456" s="120"/>
-      <c r="K456" s="120"/>
-      <c r="L456" s="120"/>
-      <c r="M456" s="120"/>
-      <c r="N456" s="120"/>
-      <c r="O456" s="120"/>
-      <c r="P456" s="120"/>
-      <c r="Q456" s="120"/>
-      <c r="R456" s="120"/>
-      <c r="S456" s="121"/>
+      <c r="I456" s="125"/>
+      <c r="J456" s="126"/>
+      <c r="K456" s="126"/>
+      <c r="L456" s="126"/>
+      <c r="M456" s="126"/>
+      <c r="N456" s="126"/>
+      <c r="O456" s="126"/>
+      <c r="P456" s="126"/>
+      <c r="Q456" s="126"/>
+      <c r="R456" s="126"/>
+      <c r="S456" s="127"/>
       <c r="T456" s="35"/>
       <c r="U456" s="35"/>
       <c r="V456" s="35"/>
@@ -16981,17 +16985,17 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
       <c r="H457" s="18"/>
-      <c r="I457" s="132"/>
-      <c r="J457" s="120"/>
-      <c r="K457" s="120"/>
-      <c r="L457" s="120"/>
-      <c r="M457" s="120"/>
-      <c r="N457" s="120"/>
-      <c r="O457" s="120"/>
-      <c r="P457" s="120"/>
-      <c r="Q457" s="120"/>
-      <c r="R457" s="120"/>
-      <c r="S457" s="121"/>
+      <c r="I457" s="125"/>
+      <c r="J457" s="126"/>
+      <c r="K457" s="126"/>
+      <c r="L457" s="126"/>
+      <c r="M457" s="126"/>
+      <c r="N457" s="126"/>
+      <c r="O457" s="126"/>
+      <c r="P457" s="126"/>
+      <c r="Q457" s="126"/>
+      <c r="R457" s="126"/>
+      <c r="S457" s="127"/>
       <c r="T457" s="35"/>
       <c r="U457" s="35"/>
       <c r="V457" s="35"/>
@@ -17012,17 +17016,17 @@
       <c r="F458" s="18"/>
       <c r="G458" s="18"/>
       <c r="H458" s="18"/>
-      <c r="I458" s="132"/>
-      <c r="J458" s="120"/>
-      <c r="K458" s="120"/>
-      <c r="L458" s="120"/>
-      <c r="M458" s="120"/>
-      <c r="N458" s="120"/>
-      <c r="O458" s="120"/>
-      <c r="P458" s="120"/>
-      <c r="Q458" s="120"/>
-      <c r="R458" s="120"/>
-      <c r="S458" s="121"/>
+      <c r="I458" s="125"/>
+      <c r="J458" s="126"/>
+      <c r="K458" s="126"/>
+      <c r="L458" s="126"/>
+      <c r="M458" s="126"/>
+      <c r="N458" s="126"/>
+      <c r="O458" s="126"/>
+      <c r="P458" s="126"/>
+      <c r="Q458" s="126"/>
+      <c r="R458" s="126"/>
+      <c r="S458" s="127"/>
       <c r="T458" s="35"/>
       <c r="U458" s="35"/>
       <c r="V458" s="35"/>
@@ -36358,18 +36362,116 @@
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="I414:S414"/>
-    <mergeCell ref="I415:S415"/>
-    <mergeCell ref="I416:S416"/>
-    <mergeCell ref="I417:S417"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="I293:S293"/>
-    <mergeCell ref="I294:S294"/>
-    <mergeCell ref="I295:S295"/>
-    <mergeCell ref="I296:S296"/>
-    <mergeCell ref="I297:S297"/>
-    <mergeCell ref="I298:S298"/>
-    <mergeCell ref="I299:S299"/>
+    <mergeCell ref="A145:AA145"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="I147:O147"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="I148:O148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="I149:O149"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="I150:O150"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="I151:O151"/>
+    <mergeCell ref="A153:AA153"/>
+    <mergeCell ref="A155:N155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="H159:M159"/>
+    <mergeCell ref="H160:M160"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:M156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:M157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:M158"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:M166"/>
+    <mergeCell ref="A168:AA168"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:R170"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:M162"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:M163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:M164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="A179:T179"/>
+    <mergeCell ref="A180:T180"/>
+    <mergeCell ref="B181:T181"/>
+    <mergeCell ref="C182:U182"/>
+    <mergeCell ref="I253:S253"/>
+    <mergeCell ref="I254:S254"/>
+    <mergeCell ref="I255:S255"/>
+    <mergeCell ref="I256:S256"/>
+    <mergeCell ref="I257:S257"/>
+    <mergeCell ref="C202:U202"/>
+    <mergeCell ref="C203:U203"/>
+    <mergeCell ref="E213:W213"/>
+    <mergeCell ref="B184:T184"/>
+    <mergeCell ref="C185:U185"/>
+    <mergeCell ref="C186:U186"/>
+    <mergeCell ref="B188:T188"/>
+    <mergeCell ref="C189:U189"/>
+    <mergeCell ref="C190:U190"/>
+    <mergeCell ref="C191:U191"/>
+    <mergeCell ref="C192:U192"/>
+    <mergeCell ref="C193:U193"/>
+    <mergeCell ref="I247:S247"/>
+    <mergeCell ref="I248:S248"/>
+    <mergeCell ref="I249:S249"/>
+    <mergeCell ref="D212:V212"/>
+    <mergeCell ref="I263:S263"/>
+    <mergeCell ref="I264:S264"/>
+    <mergeCell ref="I458:S458"/>
+    <mergeCell ref="D450:E450"/>
+    <mergeCell ref="I407:S407"/>
+    <mergeCell ref="I446:S446"/>
+    <mergeCell ref="I447:S447"/>
+    <mergeCell ref="I241:S241"/>
+    <mergeCell ref="I242:S242"/>
+    <mergeCell ref="I246:S246"/>
+    <mergeCell ref="I252:S252"/>
+    <mergeCell ref="I418:S418"/>
+    <mergeCell ref="I424:S424"/>
+    <mergeCell ref="I425:S425"/>
+    <mergeCell ref="I452:S452"/>
+    <mergeCell ref="I453:S453"/>
+    <mergeCell ref="I454:S454"/>
+    <mergeCell ref="I455:S455"/>
+    <mergeCell ref="I456:S456"/>
+    <mergeCell ref="I457:S457"/>
+    <mergeCell ref="I409:S409"/>
+    <mergeCell ref="I410:S410"/>
+    <mergeCell ref="I413:S413"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:R171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:R172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:R174"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:R173"/>
     <mergeCell ref="A176:AA176"/>
     <mergeCell ref="I402:S402"/>
     <mergeCell ref="I403:S403"/>
@@ -36394,116 +36496,18 @@
     <mergeCell ref="C209:U209"/>
     <mergeCell ref="C210:U210"/>
     <mergeCell ref="C211:U211"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:R171"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:R172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:R174"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:R173"/>
-    <mergeCell ref="D212:V212"/>
-    <mergeCell ref="I263:S263"/>
-    <mergeCell ref="I264:S264"/>
-    <mergeCell ref="I458:S458"/>
-    <mergeCell ref="D450:E450"/>
-    <mergeCell ref="I407:S407"/>
-    <mergeCell ref="I446:S446"/>
-    <mergeCell ref="I447:S447"/>
-    <mergeCell ref="I241:S241"/>
-    <mergeCell ref="I242:S242"/>
-    <mergeCell ref="I246:S246"/>
-    <mergeCell ref="I252:S252"/>
-    <mergeCell ref="I418:S418"/>
-    <mergeCell ref="I424:S424"/>
-    <mergeCell ref="I425:S425"/>
-    <mergeCell ref="I452:S452"/>
-    <mergeCell ref="I453:S453"/>
-    <mergeCell ref="I454:S454"/>
-    <mergeCell ref="I455:S455"/>
-    <mergeCell ref="I456:S456"/>
-    <mergeCell ref="I457:S457"/>
-    <mergeCell ref="I409:S409"/>
-    <mergeCell ref="I410:S410"/>
-    <mergeCell ref="I413:S413"/>
-    <mergeCell ref="A179:T179"/>
-    <mergeCell ref="A180:T180"/>
-    <mergeCell ref="B181:T181"/>
-    <mergeCell ref="C182:U182"/>
-    <mergeCell ref="I253:S253"/>
-    <mergeCell ref="I254:S254"/>
-    <mergeCell ref="I255:S255"/>
-    <mergeCell ref="I256:S256"/>
-    <mergeCell ref="I257:S257"/>
-    <mergeCell ref="C202:U202"/>
-    <mergeCell ref="C203:U203"/>
-    <mergeCell ref="E213:W213"/>
-    <mergeCell ref="B184:T184"/>
-    <mergeCell ref="C185:U185"/>
-    <mergeCell ref="C186:U186"/>
-    <mergeCell ref="B188:T188"/>
-    <mergeCell ref="C189:U189"/>
-    <mergeCell ref="C190:U190"/>
-    <mergeCell ref="C191:U191"/>
-    <mergeCell ref="C192:U192"/>
-    <mergeCell ref="C193:U193"/>
-    <mergeCell ref="I247:S247"/>
-    <mergeCell ref="I248:S248"/>
-    <mergeCell ref="I249:S249"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:M166"/>
-    <mergeCell ref="A168:AA168"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:R170"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:M162"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:M163"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:M164"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="I151:O151"/>
-    <mergeCell ref="A153:AA153"/>
-    <mergeCell ref="A155:N155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="H159:M159"/>
-    <mergeCell ref="H160:M160"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:M156"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:M157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:M158"/>
-    <mergeCell ref="A145:AA145"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="I147:O147"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="I148:O148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="I149:O149"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="I150:O150"/>
+    <mergeCell ref="I414:S414"/>
+    <mergeCell ref="I415:S415"/>
+    <mergeCell ref="I416:S416"/>
+    <mergeCell ref="I417:S417"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="I293:S293"/>
+    <mergeCell ref="I294:S294"/>
+    <mergeCell ref="I295:S295"/>
+    <mergeCell ref="I296:S296"/>
+    <mergeCell ref="I297:S297"/>
+    <mergeCell ref="I298:S298"/>
+    <mergeCell ref="I299:S299"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -36518,8 +36522,8 @@
   </sheetPr>
   <dimension ref="A1:AC816"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -38741,7 +38745,9 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="100"/>
+      <c r="J69" s="114" t="s">
+        <v>312</v>
+      </c>
       <c r="K69" s="100"/>
       <c r="L69" s="100"/>
       <c r="M69" s="100"/>
@@ -38807,7 +38813,9 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="100"/>
+      <c r="J71" s="114" t="s">
+        <v>313</v>
+      </c>
       <c r="K71" s="100"/>
       <c r="L71" s="100"/>
       <c r="M71" s="100"/>
@@ -41184,35 +41192,35 @@
       <c r="AC146" s="5"/>
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A147" s="116" t="s">
+      <c r="A147" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="117"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="117"/>
-      <c r="E147" s="117"/>
-      <c r="F147" s="117"/>
-      <c r="G147" s="117"/>
-      <c r="H147" s="117"/>
-      <c r="I147" s="117"/>
-      <c r="J147" s="117"/>
-      <c r="K147" s="117"/>
-      <c r="L147" s="117"/>
-      <c r="M147" s="117"/>
-      <c r="N147" s="117"/>
-      <c r="O147" s="117"/>
-      <c r="P147" s="117"/>
-      <c r="Q147" s="117"/>
-      <c r="R147" s="117"/>
-      <c r="S147" s="117"/>
-      <c r="T147" s="117"/>
-      <c r="U147" s="117"/>
-      <c r="V147" s="117"/>
-      <c r="W147" s="117"/>
-      <c r="X147" s="117"/>
-      <c r="Y147" s="117"/>
-      <c r="Z147" s="117"/>
-      <c r="AA147" s="118"/>
+      <c r="B147" s="137"/>
+      <c r="C147" s="137"/>
+      <c r="D147" s="137"/>
+      <c r="E147" s="137"/>
+      <c r="F147" s="137"/>
+      <c r="G147" s="137"/>
+      <c r="H147" s="137"/>
+      <c r="I147" s="137"/>
+      <c r="J147" s="137"/>
+      <c r="K147" s="137"/>
+      <c r="L147" s="137"/>
+      <c r="M147" s="137"/>
+      <c r="N147" s="137"/>
+      <c r="O147" s="137"/>
+      <c r="P147" s="137"/>
+      <c r="Q147" s="137"/>
+      <c r="R147" s="137"/>
+      <c r="S147" s="137"/>
+      <c r="T147" s="137"/>
+      <c r="U147" s="137"/>
+      <c r="V147" s="137"/>
+      <c r="W147" s="137"/>
+      <c r="X147" s="137"/>
+      <c r="Y147" s="137"/>
+      <c r="Z147" s="137"/>
+      <c r="AA147" s="138"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5"/>
     </row>
@@ -41251,24 +41259,24 @@
       <c r="A149" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="119" t="s">
+      <c r="B149" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="120"/>
-      <c r="D149" s="120"/>
-      <c r="E149" s="120"/>
-      <c r="F149" s="120"/>
-      <c r="G149" s="120"/>
-      <c r="H149" s="121"/>
-      <c r="I149" s="119" t="s">
+      <c r="C149" s="126"/>
+      <c r="D149" s="126"/>
+      <c r="E149" s="126"/>
+      <c r="F149" s="126"/>
+      <c r="G149" s="126"/>
+      <c r="H149" s="127"/>
+      <c r="I149" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="J149" s="120"/>
-      <c r="K149" s="120"/>
-      <c r="L149" s="120"/>
-      <c r="M149" s="120"/>
-      <c r="N149" s="120"/>
-      <c r="O149" s="121"/>
+      <c r="J149" s="126"/>
+      <c r="K149" s="126"/>
+      <c r="L149" s="126"/>
+      <c r="M149" s="126"/>
+      <c r="N149" s="126"/>
+      <c r="O149" s="127"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
@@ -41288,22 +41296,22 @@
       <c r="A150" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="122" t="s">
+      <c r="B150" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="120"/>
-      <c r="D150" s="120"/>
-      <c r="E150" s="120"/>
-      <c r="F150" s="120"/>
-      <c r="G150" s="120"/>
-      <c r="H150" s="121"/>
-      <c r="I150" s="123"/>
-      <c r="J150" s="120"/>
-      <c r="K150" s="120"/>
-      <c r="L150" s="120"/>
-      <c r="M150" s="120"/>
-      <c r="N150" s="120"/>
-      <c r="O150" s="121"/>
+      <c r="C150" s="126"/>
+      <c r="D150" s="126"/>
+      <c r="E150" s="126"/>
+      <c r="F150" s="126"/>
+      <c r="G150" s="126"/>
+      <c r="H150" s="127"/>
+      <c r="I150" s="156"/>
+      <c r="J150" s="126"/>
+      <c r="K150" s="126"/>
+      <c r="L150" s="126"/>
+      <c r="M150" s="126"/>
+      <c r="N150" s="126"/>
+      <c r="O150" s="127"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -41323,22 +41331,22 @@
       <c r="A151" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="122" t="s">
+      <c r="B151" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="120"/>
-      <c r="D151" s="120"/>
-      <c r="E151" s="120"/>
-      <c r="F151" s="120"/>
-      <c r="G151" s="120"/>
-      <c r="H151" s="121"/>
-      <c r="I151" s="123"/>
-      <c r="J151" s="120"/>
-      <c r="K151" s="120"/>
-      <c r="L151" s="120"/>
-      <c r="M151" s="120"/>
-      <c r="N151" s="120"/>
-      <c r="O151" s="121"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
+      <c r="F151" s="126"/>
+      <c r="G151" s="126"/>
+      <c r="H151" s="127"/>
+      <c r="I151" s="156"/>
+      <c r="J151" s="126"/>
+      <c r="K151" s="126"/>
+      <c r="L151" s="126"/>
+      <c r="M151" s="126"/>
+      <c r="N151" s="126"/>
+      <c r="O151" s="127"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
@@ -41358,24 +41366,24 @@
       <c r="A152" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="122" t="s">
+      <c r="B152" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="120"/>
-      <c r="D152" s="120"/>
-      <c r="E152" s="120"/>
-      <c r="F152" s="120"/>
-      <c r="G152" s="120"/>
-      <c r="H152" s="121"/>
-      <c r="I152" s="122" t="s">
+      <c r="C152" s="126"/>
+      <c r="D152" s="126"/>
+      <c r="E152" s="126"/>
+      <c r="F152" s="126"/>
+      <c r="G152" s="126"/>
+      <c r="H152" s="127"/>
+      <c r="I152" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="J152" s="120"/>
-      <c r="K152" s="120"/>
-      <c r="L152" s="120"/>
-      <c r="M152" s="120"/>
-      <c r="N152" s="120"/>
-      <c r="O152" s="121"/>
+      <c r="J152" s="126"/>
+      <c r="K152" s="126"/>
+      <c r="L152" s="126"/>
+      <c r="M152" s="126"/>
+      <c r="N152" s="126"/>
+      <c r="O152" s="127"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
@@ -41395,22 +41403,22 @@
       <c r="A153" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="122" t="s">
+      <c r="B153" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="120"/>
-      <c r="D153" s="120"/>
-      <c r="E153" s="120"/>
-      <c r="F153" s="120"/>
-      <c r="G153" s="120"/>
-      <c r="H153" s="121"/>
-      <c r="I153" s="123"/>
-      <c r="J153" s="120"/>
-      <c r="K153" s="120"/>
-      <c r="L153" s="120"/>
-      <c r="M153" s="120"/>
-      <c r="N153" s="120"/>
-      <c r="O153" s="121"/>
+      <c r="C153" s="126"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="126"/>
+      <c r="H153" s="127"/>
+      <c r="I153" s="156"/>
+      <c r="J153" s="126"/>
+      <c r="K153" s="126"/>
+      <c r="L153" s="126"/>
+      <c r="M153" s="126"/>
+      <c r="N153" s="126"/>
+      <c r="O153" s="127"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
@@ -41458,35 +41466,35 @@
       <c r="AC154" s="5"/>
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A155" s="116" t="s">
+      <c r="A155" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="117"/>
-      <c r="C155" s="117"/>
-      <c r="D155" s="117"/>
-      <c r="E155" s="117"/>
-      <c r="F155" s="117"/>
-      <c r="G155" s="117"/>
-      <c r="H155" s="117"/>
-      <c r="I155" s="117"/>
-      <c r="J155" s="117"/>
-      <c r="K155" s="117"/>
-      <c r="L155" s="117"/>
-      <c r="M155" s="117"/>
-      <c r="N155" s="117"/>
-      <c r="O155" s="117"/>
-      <c r="P155" s="117"/>
-      <c r="Q155" s="117"/>
-      <c r="R155" s="117"/>
-      <c r="S155" s="117"/>
-      <c r="T155" s="117"/>
-      <c r="U155" s="117"/>
-      <c r="V155" s="117"/>
-      <c r="W155" s="117"/>
-      <c r="X155" s="117"/>
-      <c r="Y155" s="117"/>
-      <c r="Z155" s="117"/>
-      <c r="AA155" s="118"/>
+      <c r="B155" s="137"/>
+      <c r="C155" s="137"/>
+      <c r="D155" s="137"/>
+      <c r="E155" s="137"/>
+      <c r="F155" s="137"/>
+      <c r="G155" s="137"/>
+      <c r="H155" s="137"/>
+      <c r="I155" s="137"/>
+      <c r="J155" s="137"/>
+      <c r="K155" s="137"/>
+      <c r="L155" s="137"/>
+      <c r="M155" s="137"/>
+      <c r="N155" s="137"/>
+      <c r="O155" s="137"/>
+      <c r="P155" s="137"/>
+      <c r="Q155" s="137"/>
+      <c r="R155" s="137"/>
+      <c r="S155" s="137"/>
+      <c r="T155" s="137"/>
+      <c r="U155" s="137"/>
+      <c r="V155" s="137"/>
+      <c r="W155" s="137"/>
+      <c r="X155" s="137"/>
+      <c r="Y155" s="137"/>
+      <c r="Z155" s="137"/>
+      <c r="AA155" s="138"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5"/>
     </row>
@@ -41522,22 +41530,22 @@
       <c r="AC156" s="5"/>
     </row>
     <row r="157" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A157" s="126" t="s">
+      <c r="A157" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="127"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="127"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="127"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="127"/>
-      <c r="L157" s="127"/>
-      <c r="M157" s="127"/>
-      <c r="N157" s="127"/>
+      <c r="B157" s="140"/>
+      <c r="C157" s="140"/>
+      <c r="D157" s="140"/>
+      <c r="E157" s="140"/>
+      <c r="F157" s="140"/>
+      <c r="G157" s="140"/>
+      <c r="H157" s="140"/>
+      <c r="I157" s="140"/>
+      <c r="J157" s="140"/>
+      <c r="K157" s="140"/>
+      <c r="L157" s="140"/>
+      <c r="M157" s="140"/>
+      <c r="N157" s="140"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
@@ -41558,24 +41566,24 @@
       <c r="A158" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="119" t="s">
+      <c r="B158" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C158" s="120"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="121"/>
-      <c r="F158" s="119" t="s">
+      <c r="C158" s="126"/>
+      <c r="D158" s="126"/>
+      <c r="E158" s="127"/>
+      <c r="F158" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="G158" s="121"/>
-      <c r="H158" s="119" t="s">
+      <c r="G158" s="127"/>
+      <c r="H158" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="I158" s="120"/>
-      <c r="J158" s="120"/>
-      <c r="K158" s="120"/>
-      <c r="L158" s="120"/>
-      <c r="M158" s="121"/>
+      <c r="I158" s="126"/>
+      <c r="J158" s="126"/>
+      <c r="K158" s="126"/>
+      <c r="L158" s="126"/>
+      <c r="M158" s="127"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -41597,22 +41605,22 @@
       <c r="A159" s="8">
         <v>1</v>
       </c>
-      <c r="B159" s="123" t="s">
+      <c r="B159" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="120"/>
-      <c r="D159" s="120"/>
-      <c r="E159" s="121"/>
-      <c r="F159" s="124" t="s">
+      <c r="C159" s="126"/>
+      <c r="D159" s="126"/>
+      <c r="E159" s="127"/>
+      <c r="F159" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G159" s="121"/>
-      <c r="H159" s="123"/>
-      <c r="I159" s="120"/>
-      <c r="J159" s="120"/>
-      <c r="K159" s="120"/>
-      <c r="L159" s="120"/>
-      <c r="M159" s="121"/>
+      <c r="G159" s="127"/>
+      <c r="H159" s="156"/>
+      <c r="I159" s="126"/>
+      <c r="J159" s="126"/>
+      <c r="K159" s="126"/>
+      <c r="L159" s="126"/>
+      <c r="M159" s="127"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -41634,22 +41642,22 @@
       <c r="A160" s="8">
         <v>2</v>
       </c>
-      <c r="B160" s="123" t="s">
+      <c r="B160" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C160" s="120"/>
-      <c r="D160" s="120"/>
-      <c r="E160" s="121"/>
-      <c r="F160" s="124" t="s">
+      <c r="C160" s="126"/>
+      <c r="D160" s="126"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="121"/>
-      <c r="H160" s="123"/>
-      <c r="I160" s="120"/>
-      <c r="J160" s="120"/>
-      <c r="K160" s="120"/>
-      <c r="L160" s="120"/>
-      <c r="M160" s="121"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="156"/>
+      <c r="I160" s="126"/>
+      <c r="J160" s="126"/>
+      <c r="K160" s="126"/>
+      <c r="L160" s="126"/>
+      <c r="M160" s="127"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -41671,22 +41679,22 @@
       <c r="A161" s="8">
         <v>3</v>
       </c>
-      <c r="B161" s="123" t="s">
+      <c r="B161" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="120"/>
-      <c r="D161" s="120"/>
-      <c r="E161" s="121"/>
-      <c r="F161" s="124" t="s">
+      <c r="C161" s="126"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G161" s="121"/>
-      <c r="H161" s="123"/>
-      <c r="I161" s="120"/>
-      <c r="J161" s="120"/>
-      <c r="K161" s="120"/>
-      <c r="L161" s="120"/>
-      <c r="M161" s="121"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="156"/>
+      <c r="I161" s="126"/>
+      <c r="J161" s="126"/>
+      <c r="K161" s="126"/>
+      <c r="L161" s="126"/>
+      <c r="M161" s="127"/>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
@@ -41708,24 +41716,24 @@
       <c r="A162" s="8">
         <v>4</v>
       </c>
-      <c r="B162" s="123" t="s">
+      <c r="B162" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C162" s="120"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="121"/>
-      <c r="F162" s="124" t="s">
+      <c r="C162" s="126"/>
+      <c r="D162" s="126"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G162" s="121"/>
-      <c r="H162" s="123" t="s">
+      <c r="G162" s="127"/>
+      <c r="H162" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="I162" s="120"/>
-      <c r="J162" s="120"/>
-      <c r="K162" s="120"/>
-      <c r="L162" s="120"/>
-      <c r="M162" s="121"/>
+      <c r="I162" s="126"/>
+      <c r="J162" s="126"/>
+      <c r="K162" s="126"/>
+      <c r="L162" s="126"/>
+      <c r="M162" s="127"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
@@ -41747,22 +41755,22 @@
       <c r="A163" s="8">
         <v>5</v>
       </c>
-      <c r="B163" s="123" t="s">
+      <c r="B163" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C163" s="120"/>
-      <c r="D163" s="120"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="125" t="s">
+      <c r="C163" s="126"/>
+      <c r="D163" s="126"/>
+      <c r="E163" s="127"/>
+      <c r="F163" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="G163" s="121"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="120"/>
-      <c r="J163" s="120"/>
-      <c r="K163" s="120"/>
-      <c r="L163" s="120"/>
-      <c r="M163" s="121"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="156"/>
+      <c r="I163" s="126"/>
+      <c r="J163" s="126"/>
+      <c r="K163" s="126"/>
+      <c r="L163" s="126"/>
+      <c r="M163" s="127"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
@@ -41784,22 +41792,22 @@
       <c r="A164" s="8">
         <v>6</v>
       </c>
-      <c r="B164" s="123" t="s">
+      <c r="B164" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="120"/>
-      <c r="D164" s="120"/>
-      <c r="E164" s="121"/>
-      <c r="F164" s="124" t="s">
+      <c r="C164" s="126"/>
+      <c r="D164" s="126"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G164" s="121"/>
-      <c r="H164" s="123"/>
-      <c r="I164" s="120"/>
-      <c r="J164" s="120"/>
-      <c r="K164" s="120"/>
-      <c r="L164" s="120"/>
-      <c r="M164" s="121"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="156"/>
+      <c r="I164" s="126"/>
+      <c r="J164" s="126"/>
+      <c r="K164" s="126"/>
+      <c r="L164" s="126"/>
+      <c r="M164" s="127"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
@@ -41821,22 +41829,22 @@
       <c r="A165" s="8">
         <v>7</v>
       </c>
-      <c r="B165" s="123" t="s">
+      <c r="B165" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C165" s="120"/>
-      <c r="D165" s="120"/>
-      <c r="E165" s="121"/>
-      <c r="F165" s="125" t="s">
+      <c r="C165" s="126"/>
+      <c r="D165" s="126"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="G165" s="121"/>
-      <c r="H165" s="123"/>
-      <c r="I165" s="120"/>
-      <c r="J165" s="120"/>
-      <c r="K165" s="120"/>
-      <c r="L165" s="120"/>
-      <c r="M165" s="121"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="156"/>
+      <c r="I165" s="126"/>
+      <c r="J165" s="126"/>
+      <c r="K165" s="126"/>
+      <c r="L165" s="126"/>
+      <c r="M165" s="127"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
@@ -41858,22 +41866,22 @@
       <c r="A166" s="8">
         <v>8</v>
       </c>
-      <c r="B166" s="123" t="s">
+      <c r="B166" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="120"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="121"/>
-      <c r="F166" s="124" t="s">
+      <c r="C166" s="126"/>
+      <c r="D166" s="126"/>
+      <c r="E166" s="127"/>
+      <c r="F166" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G166" s="121"/>
-      <c r="H166" s="123"/>
-      <c r="I166" s="120"/>
-      <c r="J166" s="120"/>
-      <c r="K166" s="120"/>
-      <c r="L166" s="120"/>
-      <c r="M166" s="121"/>
+      <c r="G166" s="127"/>
+      <c r="H166" s="156"/>
+      <c r="I166" s="126"/>
+      <c r="J166" s="126"/>
+      <c r="K166" s="126"/>
+      <c r="L166" s="126"/>
+      <c r="M166" s="127"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
@@ -41895,24 +41903,24 @@
       <c r="A167" s="8">
         <v>9</v>
       </c>
-      <c r="B167" s="123" t="s">
+      <c r="B167" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="120"/>
-      <c r="D167" s="120"/>
-      <c r="E167" s="121"/>
-      <c r="F167" s="124" t="s">
+      <c r="C167" s="126"/>
+      <c r="D167" s="126"/>
+      <c r="E167" s="127"/>
+      <c r="F167" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G167" s="121"/>
-      <c r="H167" s="123" t="s">
+      <c r="G167" s="127"/>
+      <c r="H167" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="I167" s="120"/>
-      <c r="J167" s="120"/>
-      <c r="K167" s="120"/>
-      <c r="L167" s="120"/>
-      <c r="M167" s="121"/>
+      <c r="I167" s="126"/>
+      <c r="J167" s="126"/>
+      <c r="K167" s="126"/>
+      <c r="L167" s="126"/>
+      <c r="M167" s="127"/>
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
@@ -41934,24 +41942,24 @@
       <c r="A168" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B168" s="123" t="s">
+      <c r="B168" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C168" s="120"/>
-      <c r="D168" s="120"/>
-      <c r="E168" s="121"/>
-      <c r="F168" s="124" t="s">
+      <c r="C168" s="126"/>
+      <c r="D168" s="126"/>
+      <c r="E168" s="127"/>
+      <c r="F168" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="G168" s="121"/>
-      <c r="H168" s="123" t="s">
+      <c r="G168" s="127"/>
+      <c r="H168" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="I168" s="120"/>
-      <c r="J168" s="120"/>
-      <c r="K168" s="120"/>
-      <c r="L168" s="120"/>
-      <c r="M168" s="121"/>
+      <c r="I168" s="126"/>
+      <c r="J168" s="126"/>
+      <c r="K168" s="126"/>
+      <c r="L168" s="126"/>
+      <c r="M168" s="127"/>
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
@@ -42001,35 +42009,35 @@
       <c r="AC169" s="5"/>
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A170" s="116" t="s">
+      <c r="A170" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="B170" s="117"/>
-      <c r="C170" s="117"/>
-      <c r="D170" s="117"/>
-      <c r="E170" s="117"/>
-      <c r="F170" s="117"/>
-      <c r="G170" s="117"/>
-      <c r="H170" s="117"/>
-      <c r="I170" s="117"/>
-      <c r="J170" s="117"/>
-      <c r="K170" s="117"/>
-      <c r="L170" s="117"/>
-      <c r="M170" s="117"/>
-      <c r="N170" s="117"/>
-      <c r="O170" s="117"/>
-      <c r="P170" s="117"/>
-      <c r="Q170" s="117"/>
-      <c r="R170" s="117"/>
-      <c r="S170" s="117"/>
-      <c r="T170" s="117"/>
-      <c r="U170" s="117"/>
-      <c r="V170" s="117"/>
-      <c r="W170" s="117"/>
-      <c r="X170" s="117"/>
-      <c r="Y170" s="117"/>
-      <c r="Z170" s="117"/>
-      <c r="AA170" s="118"/>
+      <c r="B170" s="137"/>
+      <c r="C170" s="137"/>
+      <c r="D170" s="137"/>
+      <c r="E170" s="137"/>
+      <c r="F170" s="137"/>
+      <c r="G170" s="137"/>
+      <c r="H170" s="137"/>
+      <c r="I170" s="137"/>
+      <c r="J170" s="137"/>
+      <c r="K170" s="137"/>
+      <c r="L170" s="137"/>
+      <c r="M170" s="137"/>
+      <c r="N170" s="137"/>
+      <c r="O170" s="137"/>
+      <c r="P170" s="137"/>
+      <c r="Q170" s="137"/>
+      <c r="R170" s="137"/>
+      <c r="S170" s="137"/>
+      <c r="T170" s="137"/>
+      <c r="U170" s="137"/>
+      <c r="V170" s="137"/>
+      <c r="W170" s="137"/>
+      <c r="X170" s="137"/>
+      <c r="Y170" s="137"/>
+      <c r="Z170" s="137"/>
+      <c r="AA170" s="138"/>
       <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
     </row>
@@ -42065,28 +42073,28 @@
       <c r="AC171" s="5"/>
     </row>
     <row r="172" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A172" s="119" t="s">
+      <c r="A172" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B172" s="120"/>
-      <c r="C172" s="120"/>
-      <c r="D172" s="121"/>
-      <c r="E172" s="119" t="s">
+      <c r="B172" s="126"/>
+      <c r="C172" s="126"/>
+      <c r="D172" s="127"/>
+      <c r="E172" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="F172" s="121"/>
-      <c r="G172" s="128"/>
-      <c r="H172" s="120"/>
-      <c r="I172" s="120"/>
-      <c r="J172" s="120"/>
-      <c r="K172" s="120"/>
-      <c r="L172" s="120"/>
-      <c r="M172" s="120"/>
-      <c r="N172" s="120"/>
-      <c r="O172" s="120"/>
-      <c r="P172" s="120"/>
-      <c r="Q172" s="120"/>
-      <c r="R172" s="121"/>
+      <c r="F172" s="127"/>
+      <c r="G172" s="158"/>
+      <c r="H172" s="126"/>
+      <c r="I172" s="126"/>
+      <c r="J172" s="126"/>
+      <c r="K172" s="126"/>
+      <c r="L172" s="126"/>
+      <c r="M172" s="126"/>
+      <c r="N172" s="126"/>
+      <c r="O172" s="126"/>
+      <c r="P172" s="126"/>
+      <c r="Q172" s="126"/>
+      <c r="R172" s="127"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -42100,30 +42108,30 @@
       <c r="AC172" s="5"/>
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A173" s="144" t="s">
+      <c r="A173" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B173" s="120"/>
-      <c r="C173" s="120"/>
-      <c r="D173" s="121"/>
-      <c r="E173" s="145" t="s">
+      <c r="B173" s="126"/>
+      <c r="C173" s="126"/>
+      <c r="D173" s="127"/>
+      <c r="E173" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="121"/>
-      <c r="G173" s="144" t="s">
+      <c r="F173" s="127"/>
+      <c r="G173" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="H173" s="120"/>
-      <c r="I173" s="120"/>
-      <c r="J173" s="120"/>
-      <c r="K173" s="120"/>
-      <c r="L173" s="120"/>
-      <c r="M173" s="120"/>
-      <c r="N173" s="120"/>
-      <c r="O173" s="120"/>
-      <c r="P173" s="120"/>
-      <c r="Q173" s="120"/>
-      <c r="R173" s="121"/>
+      <c r="H173" s="126"/>
+      <c r="I173" s="126"/>
+      <c r="J173" s="126"/>
+      <c r="K173" s="126"/>
+      <c r="L173" s="126"/>
+      <c r="M173" s="126"/>
+      <c r="N173" s="126"/>
+      <c r="O173" s="126"/>
+      <c r="P173" s="126"/>
+      <c r="Q173" s="126"/>
+      <c r="R173" s="127"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
@@ -42137,30 +42145,30 @@
       <c r="AC173" s="5"/>
     </row>
     <row r="174" spans="1:29" ht="45.75" customHeight="1">
-      <c r="A174" s="144" t="s">
+      <c r="A174" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="B174" s="120"/>
-      <c r="C174" s="120"/>
-      <c r="D174" s="121"/>
-      <c r="E174" s="146" t="s">
+      <c r="B174" s="126"/>
+      <c r="C174" s="126"/>
+      <c r="D174" s="127"/>
+      <c r="E174" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F174" s="121"/>
-      <c r="G174" s="144" t="s">
+      <c r="F174" s="127"/>
+      <c r="G174" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="H174" s="120"/>
-      <c r="I174" s="120"/>
-      <c r="J174" s="120"/>
-      <c r="K174" s="120"/>
-      <c r="L174" s="120"/>
-      <c r="M174" s="120"/>
-      <c r="N174" s="120"/>
-      <c r="O174" s="120"/>
-      <c r="P174" s="120"/>
-      <c r="Q174" s="120"/>
-      <c r="R174" s="121"/>
+      <c r="H174" s="126"/>
+      <c r="I174" s="126"/>
+      <c r="J174" s="126"/>
+      <c r="K174" s="126"/>
+      <c r="L174" s="126"/>
+      <c r="M174" s="126"/>
+      <c r="N174" s="126"/>
+      <c r="O174" s="126"/>
+      <c r="P174" s="126"/>
+      <c r="Q174" s="126"/>
+      <c r="R174" s="127"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -42174,30 +42182,30 @@
       <c r="AC174" s="5"/>
     </row>
     <row r="175" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A175" s="144" t="s">
+      <c r="A175" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B175" s="120"/>
-      <c r="C175" s="120"/>
-      <c r="D175" s="121"/>
-      <c r="E175" s="145" t="s">
+      <c r="B175" s="126"/>
+      <c r="C175" s="126"/>
+      <c r="D175" s="127"/>
+      <c r="E175" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="F175" s="121"/>
-      <c r="G175" s="144" t="s">
+      <c r="F175" s="127"/>
+      <c r="G175" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="H175" s="120"/>
-      <c r="I175" s="120"/>
-      <c r="J175" s="120"/>
-      <c r="K175" s="120"/>
-      <c r="L175" s="120"/>
-      <c r="M175" s="120"/>
-      <c r="N175" s="120"/>
-      <c r="O175" s="120"/>
-      <c r="P175" s="120"/>
-      <c r="Q175" s="120"/>
-      <c r="R175" s="121"/>
+      <c r="H175" s="126"/>
+      <c r="I175" s="126"/>
+      <c r="J175" s="126"/>
+      <c r="K175" s="126"/>
+      <c r="L175" s="126"/>
+      <c r="M175" s="126"/>
+      <c r="N175" s="126"/>
+      <c r="O175" s="126"/>
+      <c r="P175" s="126"/>
+      <c r="Q175" s="126"/>
+      <c r="R175" s="127"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
@@ -42211,30 +42219,30 @@
       <c r="AC175" s="5"/>
     </row>
     <row r="176" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A176" s="122" t="s">
+      <c r="A176" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="120"/>
-      <c r="C176" s="120"/>
-      <c r="D176" s="121"/>
-      <c r="E176" s="124" t="s">
+      <c r="B176" s="126"/>
+      <c r="C176" s="126"/>
+      <c r="D176" s="127"/>
+      <c r="E176" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="F176" s="121"/>
-      <c r="G176" s="122" t="s">
+      <c r="F176" s="127"/>
+      <c r="G176" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="H176" s="120"/>
-      <c r="I176" s="120"/>
-      <c r="J176" s="120"/>
-      <c r="K176" s="120"/>
-      <c r="L176" s="120"/>
-      <c r="M176" s="120"/>
-      <c r="N176" s="120"/>
-      <c r="O176" s="120"/>
-      <c r="P176" s="120"/>
-      <c r="Q176" s="120"/>
-      <c r="R176" s="121"/>
+      <c r="H176" s="126"/>
+      <c r="I176" s="126"/>
+      <c r="J176" s="126"/>
+      <c r="K176" s="126"/>
+      <c r="L176" s="126"/>
+      <c r="M176" s="126"/>
+      <c r="N176" s="126"/>
+      <c r="O176" s="126"/>
+      <c r="P176" s="126"/>
+      <c r="Q176" s="126"/>
+      <c r="R176" s="127"/>
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
@@ -42279,35 +42287,35 @@
       <c r="AC177" s="5"/>
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A178" s="116" t="s">
+      <c r="A178" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B178" s="117"/>
-      <c r="C178" s="117"/>
-      <c r="D178" s="117"/>
-      <c r="E178" s="117"/>
-      <c r="F178" s="117"/>
-      <c r="G178" s="117"/>
-      <c r="H178" s="117"/>
-      <c r="I178" s="117"/>
-      <c r="J178" s="117"/>
-      <c r="K178" s="117"/>
-      <c r="L178" s="117"/>
-      <c r="M178" s="117"/>
-      <c r="N178" s="117"/>
-      <c r="O178" s="117"/>
-      <c r="P178" s="117"/>
-      <c r="Q178" s="117"/>
-      <c r="R178" s="117"/>
-      <c r="S178" s="117"/>
-      <c r="T178" s="117"/>
-      <c r="U178" s="117"/>
-      <c r="V178" s="117"/>
-      <c r="W178" s="117"/>
-      <c r="X178" s="117"/>
-      <c r="Y178" s="117"/>
-      <c r="Z178" s="117"/>
-      <c r="AA178" s="118"/>
+      <c r="B178" s="137"/>
+      <c r="C178" s="137"/>
+      <c r="D178" s="137"/>
+      <c r="E178" s="137"/>
+      <c r="F178" s="137"/>
+      <c r="G178" s="137"/>
+      <c r="H178" s="137"/>
+      <c r="I178" s="137"/>
+      <c r="J178" s="137"/>
+      <c r="K178" s="137"/>
+      <c r="L178" s="137"/>
+      <c r="M178" s="137"/>
+      <c r="N178" s="137"/>
+      <c r="O178" s="137"/>
+      <c r="P178" s="137"/>
+      <c r="Q178" s="137"/>
+      <c r="R178" s="137"/>
+      <c r="S178" s="137"/>
+      <c r="T178" s="137"/>
+      <c r="U178" s="137"/>
+      <c r="V178" s="137"/>
+      <c r="W178" s="137"/>
+      <c r="X178" s="137"/>
+      <c r="Y178" s="137"/>
+      <c r="Z178" s="137"/>
+      <c r="AA178" s="138"/>
       <c r="AB178" s="5"/>
       <c r="AC178" s="5"/>
     </row>
@@ -42405,21 +42413,21 @@
       <c r="AC181" s="5"/>
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A182" s="151" t="s">
+      <c r="A182" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="B182" s="117"/>
-      <c r="C182" s="117"/>
-      <c r="D182" s="117"/>
-      <c r="E182" s="117"/>
-      <c r="F182" s="117"/>
-      <c r="G182" s="117"/>
-      <c r="H182" s="117"/>
-      <c r="I182" s="117"/>
-      <c r="J182" s="117"/>
-      <c r="K182" s="117"/>
-      <c r="L182" s="117"/>
-      <c r="M182" s="118"/>
+      <c r="B182" s="137"/>
+      <c r="C182" s="137"/>
+      <c r="D182" s="137"/>
+      <c r="E182" s="137"/>
+      <c r="F182" s="137"/>
+      <c r="G182" s="137"/>
+      <c r="H182" s="137"/>
+      <c r="I182" s="137"/>
+      <c r="J182" s="137"/>
+      <c r="K182" s="137"/>
+      <c r="L182" s="137"/>
+      <c r="M182" s="138"/>
       <c r="N182" s="21"/>
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
@@ -44834,17 +44842,17 @@
       </c>
       <c r="G252" s="18"/>
       <c r="H252" s="18"/>
-      <c r="I252" s="133"/>
-      <c r="J252" s="120"/>
-      <c r="K252" s="120"/>
-      <c r="L252" s="120"/>
-      <c r="M252" s="120"/>
-      <c r="N252" s="120"/>
-      <c r="O252" s="120"/>
-      <c r="P252" s="120"/>
-      <c r="Q252" s="120"/>
-      <c r="R252" s="120"/>
-      <c r="S252" s="121"/>
+      <c r="I252" s="128"/>
+      <c r="J252" s="126"/>
+      <c r="K252" s="126"/>
+      <c r="L252" s="126"/>
+      <c r="M252" s="126"/>
+      <c r="N252" s="126"/>
+      <c r="O252" s="126"/>
+      <c r="P252" s="126"/>
+      <c r="Q252" s="126"/>
+      <c r="R252" s="126"/>
+      <c r="S252" s="127"/>
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
       <c r="V252" s="5"/>
@@ -44871,17 +44879,17 @@
       </c>
       <c r="G253" s="18"/>
       <c r="H253" s="18"/>
-      <c r="I253" s="133"/>
-      <c r="J253" s="120"/>
-      <c r="K253" s="120"/>
-      <c r="L253" s="120"/>
-      <c r="M253" s="120"/>
-      <c r="N253" s="120"/>
-      <c r="O253" s="120"/>
-      <c r="P253" s="120"/>
-      <c r="Q253" s="120"/>
-      <c r="R253" s="120"/>
-      <c r="S253" s="121"/>
+      <c r="I253" s="128"/>
+      <c r="J253" s="126"/>
+      <c r="K253" s="126"/>
+      <c r="L253" s="126"/>
+      <c r="M253" s="126"/>
+      <c r="N253" s="126"/>
+      <c r="O253" s="126"/>
+      <c r="P253" s="126"/>
+      <c r="Q253" s="126"/>
+      <c r="R253" s="126"/>
+      <c r="S253" s="127"/>
       <c r="T253" s="5"/>
       <c r="U253" s="5"/>
       <c r="V253" s="5"/>
@@ -44967,10 +44975,10 @@
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="138" t="s">
+      <c r="D256" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="E256" s="138"/>
+      <c r="E256" s="129"/>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
@@ -62561,60 +62569,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="A182:M182"/>
-    <mergeCell ref="A178:AA178"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:R175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:R176"/>
-    <mergeCell ref="I252:S252"/>
-    <mergeCell ref="I253:S253"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:R173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:R174"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="H168:M168"/>
-    <mergeCell ref="A170:AA170"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:R172"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:M166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:M167"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:M164"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:M165"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:M162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:M163"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:M160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:M161"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:M158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:M159"/>
     <mergeCell ref="A157:N157"/>
     <mergeCell ref="A147:AA147"/>
     <mergeCell ref="B149:H149"/>
@@ -62628,6 +62582,60 @@
     <mergeCell ref="B153:H153"/>
     <mergeCell ref="I153:O153"/>
     <mergeCell ref="A155:AA155"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:M158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:M159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:M160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:M161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:M162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:M163"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:M164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:M165"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:M166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:M167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="H168:M168"/>
+    <mergeCell ref="A170:AA170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:R172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:R173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:R174"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="A182:M182"/>
+    <mergeCell ref="A178:AA178"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:R175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:R176"/>
+    <mergeCell ref="I252:S252"/>
+    <mergeCell ref="I253:S253"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
